--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,8 +524,10 @@
       <c r="D2" t="n">
         <v>14</v>
       </c>
-      <c r="E2" t="n">
-        <v>806976061</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>806976061</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -570,24 +572,26 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t>5894</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>5/27/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIGUELETES 1330</t>
+          <t>ALBARELLOS AV. 3100</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>807789707</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>807045500</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -601,7 +605,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>No coinciden las fotos cargadas en el form con el reclamo original</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -609,18 +613,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1330, "cod_calle": 13079, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440291", "y": "-34.562841"}, "direccion": "MIGUELETES 1330, CABA", "nombre_calle": "MIGUELETES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3100, "cod_calle": 1029, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.512533", "y": "-34.579243"}, "direccion": "ALBARELLOS AV. 3100, CABA", "nombre_calle": "ALBARELLOS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.440291</v>
+        <v>-58.512533</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.562841</v>
+        <v>-34.579243</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -632,24 +636,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6291</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6/30/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HERRERA 2180</t>
+          <t>GUATEMALA 5527</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>807897645</v>
+        <v>14</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>807130137</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -663,7 +669,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tendidos a baja altura con cables cortados colgando</t>
+          <t>Las fotos que cargaron en el form no coinciden con las originales</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -671,18 +677,18 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2180, "cod_calle": 8013, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.373928", "y": "-34.651444"}, "direccion": "HERRERA 2180, CABA", "nombre_calle": "HERRERA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5527, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.431302", "y": "-34.580805"}, "direccion": "GUATEMALA 5527, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.373928</v>
+        <v>-58.431302</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.651444</v>
+        <v>-34.580805</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -694,24 +700,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>808098725</t>
+          <t>6262</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7/7/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brandsen 1785</t>
+          <t>MIGUELETES 1330</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>808098725</v>
+        <v>14</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>807789707</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -725,55 +733,57 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Realizar lo convenido con Pablo, se genero nueva OT</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1785, "cod_calle": 2110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.375930", "y": "-34.637913"}, "direccion": "BRANDSEN 1785, CABA", "nombre_calle": "BRANDSEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1330, "cod_calle": 13079, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440291", "y": "-34.562841"}, "direccion": "MIGUELETES 1330, CABA", "nombre_calle": "MIGUELETES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.37593</v>
+        <v>-58.440291</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.637913</v>
+        <v>-34.562841</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6389</t>
+          <t>6417</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7/8/2025</t>
+          <t>7/15/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sayos 5244</t>
+          <t>NUMANCIA 436</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>808116824</v>
+        <v>6</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>808373678</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -787,7 +797,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tendido en panza a baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -795,18 +805,18 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5244, "cod_calle": 20080, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470325", "y": "-34.673946"}, "direccion": "SAYOS 5244, CABA", "nombre_calle": "SAYOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 14030, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.432659", "y": "-34.611358"}, "direccion": "NUMANCIA 436, CABA", "nombre_calle": "NUMANCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.470325</v>
+        <v>-58.432659</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.673946</v>
+        <v>-34.611358</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -818,24 +828,26 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6387</t>
+          <t>6520</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/28/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 3982</t>
+          <t>CAMPANA 380</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
-      </c>
-      <c r="E7" t="n">
-        <v>808195137</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD30242530 </t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -849,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -857,18 +869,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3982, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506627", "y": "-34.597458"}, "direccion": "LAMARCA, EMILIO 3982, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 380, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.476471", "y": "-34.628097"}, "direccion": "CAMPANA 380, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.506627</v>
+        <v>-58.476471</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.597458</v>
+        <v>-34.628097</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -880,24 +892,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6386</t>
+          <t>6537</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7/14/2025</t>
+          <t>7/29/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MADERO 605</t>
+          <t>CHIVILCOY 452</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>808258211</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD30242453 </t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -911,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cable cortado</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -919,14 +933,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 605, "cod_calle": 13007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.526047", "y": "-34.631719"}, "direccion": "MADERO 605, CABA", "nombre_calle": "MADERO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 605, "cod_calle": 13008, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.368567", "y": "-34.600300"}, "direccion": "MADERO, EDUARDO AV. 605, CABA", "nombre_calle": "MADERO, EDUARDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 452, "cod_calle": 3258, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484008", "y": "-34.628912"}, "direccion": "CHIVILCOY 452, CABA", "nombre_calle": "CHIVILCOY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.526047</v>
+        <v>-58.484008</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.631719</v>
+        <v>-34.628912</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -934,6 +948,250 @@
         </is>
       </c>
       <c r="N8" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6540</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7/29/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CUENCA 311</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD30242102 </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 311, "cod_calle": 3200, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.475030", "y": "-34.628307"}, "direccion": "CUENCA 311, CABA", "nombre_calle": "CUENCA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>-58.47503</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-34.628307</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6557</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8/4/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ALBERDI, JUAN BAUTISTA AV. 1091</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cables a baja altura</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1091, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443538", "y": "-34.622890"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1091, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-58.443538</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-34.62289</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6193</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8/4/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>POLA 591</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Cable colgando y enrollado en arbol</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 591, "cod_calle": 17105, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.507385", "y": "-34.644479"}, "direccion": "POLA 591, CABA", "nombre_calle": "POLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-58.507385</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-34.644479</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6273</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8/4/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ARGERICH 516</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>7</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 516, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.473288", "y": "-34.626689"}, "direccion": "ARGERICH 516, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>-58.473288</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-34.626689</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,25 +828,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6520</t>
+          <t>6557</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7/28/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAMPANA 380</t>
+          <t>ALBERDI, JUAN BAUTISTA AV. 1091</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30242530 </t>
+          <t>Pedido a ADM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,48 +869,48 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 380, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.476471", "y": "-34.628097"}, "direccion": "CAMPANA 380, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1091, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443538", "y": "-34.622890"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1091, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.476471</v>
+        <v>-58.443538</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.628097</v>
+        <v>-34.62289</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6537</t>
+          <t>6193</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7/29/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CHIVILCOY 452</t>
+          <t>POLA 591</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30242453 </t>
+          <t>Pedido a ADM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Cable colgando y enrollado en arbol</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,14 +933,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 452, "cod_calle": 3258, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484008", "y": "-34.628912"}, "direccion": "CHIVILCOY 452, CABA", "nombre_calle": "CHIVILCOY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 591, "cod_calle": 17105, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.507385", "y": "-34.644479"}, "direccion": "POLA 591, CABA", "nombre_calle": "POLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.484008</v>
+        <v>-58.507385</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.628912</v>
+        <v>-34.644479</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -956,17 +956,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6540</t>
+          <t>6345</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7/29/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUENCA 311</t>
+          <t>ARTIGAS, JOSE GERVASIO, GRAL. 924</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -974,7 +974,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30242102 </t>
+          <t>Pedido a ADM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -997,46 +997,50 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 311, "cod_calle": 3200, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.475030", "y": "-34.628307"}, "direccion": "CUENCA 311, CABA", "nombre_calle": "CUENCA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 924, "cod_calle": 1125, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.468116", "y": "-34.620216"}, "direccion": "ARTIGAS, JOSE GERVASIO, GRAL. 924, CABA", "nombre_calle": "ARTIGAS, JOSE GERVASIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.47503</v>
+        <v>-58.468116</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.628307</v>
+        <v>-34.620216</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6557</t>
+          <t>6568</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ALBERDI, JUAN BAUTISTA AV. 1091</t>
+          <t>Carlos E. Pellegrini 6030</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pedido a ADM</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Optical Power</t>
@@ -1049,7 +1053,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Tendido a muy baja altura se solicita retiro o levantarlo</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1057,141 +1061,21 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1091, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443538", "y": "-34.622890"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1091, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6030, "cod_calle": 17053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504789", "y": "-34.564505"}, "direccion": "PELLEGRINI, CARLOS E. 6030, CABA", "nombre_calle": "PELLEGRINI, CARLOS E.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.443538</v>
+        <v>-58.504789</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.62289</v>
+        <v>-34.564505</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6193</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8/4/2025</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>POLA 591</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>9</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Cable colgando y enrollado en arbol</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 591, "cod_calle": 17105, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.507385", "y": "-34.644479"}, "direccion": "POLA 591, CABA", "nombre_calle": "POLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>-58.507385</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-34.644479</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6273</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>8/4/2025</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ARGERICH 516</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>7</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 516, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.473288", "y": "-34.626689"}, "direccion": "ARGERICH 516, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>-58.473288</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-34.626689</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,17 +764,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6417</t>
+          <t>6557</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7/15/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NUMANCIA 436</t>
+          <t>ALBERDI, JUAN BAUTISTA AV. 1091</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -782,7 +782,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>808373678</t>
+          <t>Pedido a ADM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Verificar si la linga panseada es nuestra y ver con pablo como resolverlo</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,18 +805,18 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 14030, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.432659", "y": "-34.611358"}, "direccion": "NUMANCIA 436, CABA", "nombre_calle": "NUMANCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1091, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443538", "y": "-34.622890"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1091, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.432659</v>
+        <v>-58.443538</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.611358</v>
+        <v>-34.62289</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -828,25 +828,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6557</t>
+          <t>6568</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ALBERDI, JUAN BAUTISTA AV. 1091</t>
+          <t>Carlos E. Pellegrini 6030</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pedido a ADM</t>
+          <t xml:space="preserve">ICD30313541 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Tendido a muy baja altura se solicita retiro o levantarlo</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,48 +869,48 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1091, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443538", "y": "-34.622890"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1091, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6030, "cod_calle": 17053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504789", "y": "-34.564505"}, "direccion": "PELLEGRINI, CARLOS E. 6030, CABA", "nombre_calle": "PELLEGRINI, CARLOS E.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.443538</v>
+        <v>-58.504789</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.62289</v>
+        <v>-34.564505</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6193</t>
+          <t>6569</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>POLA 591</t>
+          <t>CAMPANA 382</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pedido a ADM</t>
+          <t>Pendiente de ADM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cable colgando y enrollado en arbol</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,14 +933,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 591, "cod_calle": 17105, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.507385", "y": "-34.644479"}, "direccion": "POLA 591, CABA", "nombre_calle": "POLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 382, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.476505", "y": "-34.628022"}, "direccion": "CAMPANA 382, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.507385</v>
+        <v>-58.476505</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.644479</v>
+        <v>-34.628022</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -948,134 +948,6 @@
         </is>
       </c>
       <c r="N8" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6345</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8/5/2025</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ARTIGAS, JOSE GERVASIO, GRAL. 924</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Pedido a ADM</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 924, "cod_calle": 1125, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.468116", "y": "-34.620216"}, "direccion": "ARTIGAS, JOSE GERVASIO, GRAL. 924, CABA", "nombre_calle": "ARTIGAS, JOSE GERVASIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>-58.468116</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-34.620216</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6568</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8/5/2025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Carlos E. Pellegrini 6030</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>12</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Pedido a ADM</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Tendido a muy baja altura se solicita retiro o levantarlo</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 6030, "cod_calle": 17053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504789", "y": "-34.564505"}, "direccion": "PELLEGRINI, CARLOS E. 6030, CABA", "nombre_calle": "PELLEGRINI, CARLOS E.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>-58.504789</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-34.564505</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,25 +572,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5894</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5/27/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ALBARELLOS AV. 3100</t>
+          <t>GUATEMALA 5527</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>807045500</t>
+          <t>807130137</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No coinciden las fotos cargadas en el form con el reclamo original</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,40 +613,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3100, "cod_calle": 1029, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.512533", "y": "-34.579243"}, "direccion": "ALBARELLOS AV. 3100, CABA", "nombre_calle": "ALBARELLOS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5527, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.431302", "y": "-34.580805"}, "direccion": "GUATEMALA 5527, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.512533</v>
+        <v>-58.431302</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.579243</v>
+        <v>-34.580805</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>6262</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GUATEMALA 5527</t>
+          <t>MIGUELETES 1330</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>807130137</t>
+          <t>807789707</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Las fotos que cargaron en el form no coinciden con las originales</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,48 +677,48 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5527, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.431302", "y": "-34.580805"}, "direccion": "GUATEMALA 5527, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1330, "cod_calle": 13079, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440291", "y": "-34.562841"}, "direccion": "MIGUELETES 1330, CABA", "nombre_calle": "MIGUELETES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.431302</v>
+        <v>-58.440291</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.580805</v>
+        <v>-34.562841</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t>6557</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>8/4/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIGUELETES 1330</t>
+          <t>ALBERDI, JUAN BAUTISTA AV. 1091</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>807789707</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Verificar si la linga panseada es nuestra y ver con pablo como resolverlo</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,48 +741,48 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1330, "cod_calle": 13079, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440291", "y": "-34.562841"}, "direccion": "MIGUELETES 1330, CABA", "nombre_calle": "MIGUELETES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1091, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443538", "y": "-34.622890"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1091, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.440291</v>
+        <v>-58.443538</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.562841</v>
+        <v>-34.62289</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6557</t>
+          <t>6568</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/5/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALBERDI, JUAN BAUTISTA AV. 1091</t>
+          <t>Carlos E. Pellegrini 6030</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pedido a ADM</t>
+          <t xml:space="preserve">ICD30313541 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Verificar si la linga panseada es nuestra y ver con pablo como resolverlo</t>
+          <t>Tendido a muy baja altura se solicita retiro o levantarlo</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,48 +805,48 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1091, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443538", "y": "-34.622890"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1091, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6030, "cod_calle": 17053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504789", "y": "-34.564505"}, "direccion": "PELLEGRINI, CARLOS E. 6030, CABA", "nombre_calle": "PELLEGRINI, CARLOS E.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.443538</v>
+        <v>-58.504789</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.62289</v>
+        <v>-34.564505</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6568</t>
+          <t>6569</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/6/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Carlos E. Pellegrini 6030</t>
+          <t>CAMPANA 382</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30313541 </t>
+          <t xml:space="preserve">ICD30326286 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tendido a muy baja altura se solicita retiro o levantarlo</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +869,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 6030, "cod_calle": 17053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504789", "y": "-34.564505"}, "direccion": "PELLEGRINI, CARLOS E. 6030, CABA", "nombre_calle": "PELLEGRINI, CARLOS E.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 382, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.476505", "y": "-34.628022"}, "direccion": "CAMPANA 382, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.504789</v>
+        <v>-58.476505</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.564505</v>
+        <v>-34.628022</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,25 +892,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6569</t>
+          <t>6583</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CAMPANA 382</t>
+          <t>MEXICO 1942</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pendiente de ADM</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables en panza cortados y suelto</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,23 +933,215 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 382, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.476505", "y": "-34.628022"}, "direccion": "CAMPANA 382, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1942, "cod_calle": 13076, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.393874", "y": "-34.615880"}, "direccion": "MEXICO 1942, CABA", "nombre_calle": "MEXICO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.476505</v>
+        <v>-58.393874</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.628022</v>
+        <v>-34.61588</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8/8/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DE LOS CONSTITUYENTES AV. 5552</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cable en panza y cables cortados</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 5552, "cod_calle": 4043, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501174", "y": "-34.575005"}, "direccion": "DE LOS CONSTITUYENTES AV. 5552, CABA", "nombre_calle": "DE LOS CONSTITUYENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>-58.501174</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-34.575005</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6154</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8/7/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PATAGONES 2728</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Cable en panza cables cortados cables sueltos</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2728, "cod_calle": 17032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.400609", "y": "-34.637438"}, "direccion": "PATAGONES 2728, CABA", "nombre_calle": "PATAGONES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-58.400609</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-34.637438</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6265</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8/7/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BROWN, ALTE. AV. 881</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-58.360551</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-34.632684</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30334394</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -828,25 +828,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6569</t>
+          <t>6583</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/6/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CAMPANA 382</t>
+          <t>MEXICO 1942</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30326286 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables en panza cortados y suelto</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,44 +869,44 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 382, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.476505", "y": "-34.628022"}, "direccion": "CAMPANA 382, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1942, "cod_calle": 13076, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.393874", "y": "-34.615880"}, "direccion": "MEXICO 1942, CABA", "nombre_calle": "MEXICO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.476505</v>
+        <v>-58.393874</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.628022</v>
+        <v>-34.61588</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6583</t>
+          <t>6100</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/8/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MEXICO 1942</t>
+          <t>DE LOS CONSTITUYENTES AV. 5552</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cables en panza cortados y suelto</t>
+          <t>Cable en panza y cables cortados</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,44 +933,44 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1942, "cod_calle": 13076, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.393874", "y": "-34.615880"}, "direccion": "MEXICO 1942, CABA", "nombre_calle": "MEXICO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5552, "cod_calle": 4043, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501174", "y": "-34.575005"}, "direccion": "DE LOS CONSTITUYENTES AV. 5552, CABA", "nombre_calle": "DE LOS CONSTITUYENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.393874</v>
+        <v>-58.501174</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.61588</v>
+        <v>-34.575005</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/8/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5552</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cable en panza y cables cortados</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,149 +997,21 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5552, "cod_calle": 4043, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501174", "y": "-34.575005"}, "direccion": "DE LOS CONSTITUYENTES AV. 5552, CABA", "nombre_calle": "DE LOS CONSTITUYENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.501174</v>
+        <v>-58.360551</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.575005</v>
+        <v>-34.632684</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6154</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>8/7/2025</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PATAGONES 2728</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Cable en panza cables cortados cables sueltos</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2728, "cod_calle": 17032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.400609", "y": "-34.637438"}, "direccion": "PATAGONES 2728, CABA", "nombre_calle": "PATAGONES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>-58.400609</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-34.637438</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6265</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>8/7/2025</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BROWN, ALTE. AV. 881</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K11" t="n">
-        <v>-58.360551</v>
-      </c>
-      <c r="L11" t="n">
-        <v>-34.632684</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -828,21 +828,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6583</t>
+          <t>6100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/8/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEXICO 1942</t>
+          <t>DE LOS CONSTITUYENTES AV. 5552</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cables en panza cortados y suelto</t>
+          <t>Cable en panza y cables cortados</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,44 +869,44 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1942, "cod_calle": 13076, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.393874", "y": "-34.615880"}, "direccion": "MEXICO 1942, CABA", "nombre_calle": "MEXICO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5552, "cod_calle": 4043, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501174", "y": "-34.575005"}, "direccion": "DE LOS CONSTITUYENTES AV. 5552, CABA", "nombre_calle": "DE LOS CONSTITUYENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.393874</v>
+        <v>-58.501174</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.61588</v>
+        <v>-34.575005</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/8/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5552</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cable en panza y cables cortados</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,44 +933,44 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5552, "cod_calle": 4043, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501174", "y": "-34.575005"}, "direccion": "DE LOS CONSTITUYENTES AV. 5552, CABA", "nombre_calle": "DE LOS CONSTITUYENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.501174</v>
+        <v>-58.360551</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.575005</v>
+        <v>-34.632684</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6570</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/8/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>FALCON, RAMON L.,CNEL. 7096</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>Tendido a muy baja altura</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,23 +997,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 7096, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.526204", "y": "-34.640276"}, "direccion": "FALCON, RAMON L.,CNEL. 7096, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.360551</v>
+        <v>-58.526204</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.632684</v>
+        <v>-34.640276</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -910,7 +910,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30345482</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,25 +764,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6568</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/5/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Carlos E. Pellegrini 6030</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30313541 </t>
+          <t>ICD30345482</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tendido a muy baja altura se solicita retiro o levantarlo</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,44 +805,44 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 6030, "cod_calle": 17053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504789", "y": "-34.564505"}, "direccion": "PELLEGRINI, CARLOS E. 6030, CABA", "nombre_calle": "PELLEGRINI, CARLOS E.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.504789</v>
+        <v>-58.360551</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.564505</v>
+        <v>-34.632684</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6100</t>
+          <t>6899</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/8/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DE LOS CONSTITUYENTES AV. 5552</t>
+          <t>ERCILLA 6159</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cable en panza y cables cortados</t>
+          <t>Tendido a baja altura y cables cortados</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +869,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5552, "cod_calle": 4043, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501174", "y": "-34.575005"}, "direccion": "DE LOS CONSTITUYENTES AV. 5552, CABA", "nombre_calle": "DE LOS CONSTITUYENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6159, "cod_calle": 5065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510283", "y": "-34.647321"}, "direccion": "ERCILLA 6159, CABA", "nombre_calle": "ERCILLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.501174</v>
+        <v>-58.510283</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.575005</v>
+        <v>-34.647321</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,25 +892,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6087</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>ROSETI 436</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30345482</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,44 +933,44 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450100", "y": "-34.584687"}, "direccion": "ROSETI 436, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.360551</v>
+        <v>-58.4501</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.632684</v>
+        <v>-34.584687</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6570</t>
+          <t>6913</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/8/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 7096</t>
+          <t>RIVADAVIA AV. 6161</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tendido a muy baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,23 +997,343 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 7096, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.526204", "y": "-34.640276"}, "direccion": "FALCON, RAMON L.,CNEL. 7096, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6161, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453305", "y": "-34.625256"}, "direccion": "RIVADAVIA AV. 6161, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.526204</v>
+        <v>-58.453305</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.640276</v>
+        <v>-34.625256</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6914</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8/12/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AVELLANEDA AV. 1240</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1240, "cod_calle": 1141, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448578", "y": "-34.618227"}, "direccion": "AVELLANEDA AV. 1240, CABA", "nombre_calle": "AVELLANEDA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-58.448578</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-34.618227</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6917</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8/12/2025</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BRIN, MINISTRO 1375</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-58.355342</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-34.63565</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6933</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8/12/2025</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ANDONAEGUI 1894</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ganancia suelta en la columna</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1894, "cod_calle": 1082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484848", "y": "-34.581325"}, "direccion": "ANDONAEGUI 1894, CABA", "nombre_calle": "ANDONAEGUI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>-58.484848</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-34.581325</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6937</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>8/12/2025</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>-58.403659</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-34.591997</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6940</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>8/12/2025</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PERDRIEL 1490</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>-58.385244</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-34.651701</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -846,7 +846,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30377283</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30377406</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30377539</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1332,6 +1332,134 @@
         </is>
       </c>
       <c r="N14" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5843</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8/13/2025</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CAMPANA 2545</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2545, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492468", "y": "-34.607061"}, "direccion": "CAMPANA 2545, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>-58.492468</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-34.607061</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5860</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>8/13/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ARGERICH 45</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>7</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>cables a baja altura</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 45, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471436", "y": "-34.630493"}, "direccion": "ARGERICH 45, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>-58.471436</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-34.630493</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,7 +974,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30399137</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30399168</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30399224</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30399267</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30399377</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30388090</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30398505</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1460,6 +1460,70 @@
         </is>
       </c>
       <c r="N16" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6946</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8/14/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SAENZ AV. 1161</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ICD30398322 </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>-58.416595</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-34.65375</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1529,6 +1529,582 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>5672</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>8/20/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Cable a baja altura</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>-58.43433</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-34.567571</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8/20/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>14</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cables a baja altura</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>-58.435519</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-34.566886</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>5674</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>8/20/2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>14</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Cables a baja altura</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>-58.43774</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-34.565577</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5772</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>8/20/2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MALABIA 1648</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>14</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cable sueltos y cortados</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>-58.426578</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-34.590461</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>5779</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>8/20/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>GUATEMALA 4551</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>14</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cable en panza y cortados</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>-58.423098</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-34.587342</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5782</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>8/20/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>GUARDIA NACIONAL 1069</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>9</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1069, "cod_calle": 7091, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493951", "y": "-34.647306"}, "direccion": "GUARDIA NACIONAL 1069, CABA", "nombre_calle": "GUARDIA NACIONAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>-58.493951</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-34.647306</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5648</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>8/20/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NAZCA AV. 620</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>-58.472312</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-34.624976</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5646</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>8/20/2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MORON 3036</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3036, "cod_calle": 13132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474687", "y": "-34.624781"}, "direccion": "MORON 3036, CABA", "nombre_calle": "MORON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>-58.474687</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-34.624781</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>6927</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>8/20/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ALTOLAGUIRRE 2520</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>12</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Cables en panza</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2520, "cod_calle": 1049, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491932", "y": "-34.575760"}, "direccion": "ALTOLAGUIRRE 2520, CABA", "nombre_calle": "ALTOLAGUIRRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>-58.491932</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-34.57576</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30449358</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30449417</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30449427</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30452783</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30453627</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30453761</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30453807</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>806976061</t>
+          <t>ICD30466266</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>807130137</t>
+          <t>ICD30466317</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>807789707</t>
+          <t>ICD30465943</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2102,6 +2102,262 @@
       <c r="N26" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4966</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8/22/2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MUÑECAS 1035</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>15</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ICD30463961</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Caja de empalme colgando y cable cortado</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1035, "cod_calle": 13141, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448024", "y": "-34.598462"}, "direccion": "MUÑECAS 1035, CABA", "nombre_calle": "MUÑECAS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>-58.448024</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-34.598462</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>5117</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>8/22/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ARENAL, CONCEPCION 3470</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>15</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ICD30465386</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cable en panza y cortados</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>-58.446142</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-34.583381</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>5508</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8/22/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BRUNO, GIORDANO 829</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ICD30463299</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tendido aereo en panza</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 829, "cod_calle": 2118, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441705", "y": "-34.617573"}, "direccion": "BRUNO, GIORDANO 829, CABA", "nombre_calle": "BRUNO, GIORDANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-58.441705</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-34.617573</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>5571</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>8/22/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ESTADO DE ISRAEL AV. 4624</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ICD30463349</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>-58.43025</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-34.6</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,7 +956,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6913</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -966,15 +966,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6161</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30399137</t>
+          <t>ICD30399224</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 6161, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453305", "y": "-34.625256"}, "direccion": "RIVADAVIA AV. 6161, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.453305</v>
+        <v>-58.355342</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.625256</v>
+        <v>-34.63565</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6914</t>
+          <t>6933</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1030,15 +1030,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AVELLANEDA AV. 1240</t>
+          <t>ANDONAEGUI 1894</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30399168</t>
+          <t>ICD30377539</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Ganancia suelta en la columna</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1061,30 +1061,30 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1240, "cod_calle": 1141, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448578", "y": "-34.618227"}, "direccion": "AVELLANEDA AV. 1240, CABA", "nombre_calle": "AVELLANEDA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1894, "cod_calle": 1082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484848", "y": "-34.581325"}, "direccion": "ANDONAEGUI 1894, CABA", "nombre_calle": "ANDONAEGUI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.448578</v>
+        <v>-58.484848</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.618227</v>
+        <v>-34.581325</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>6937</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1094,15 +1094,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30399224</t>
+          <t>ICD30399267</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1125,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.355342</v>
+        <v>-58.403659</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.63565</v>
+        <v>-34.591997</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>6940</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1158,15 +1158,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ANDONAEGUI 1894</t>
+          <t>PERDRIEL 1490</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30377539</t>
+          <t>ICD30399377</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Ganancia suelta en la columna</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,48 +1189,48 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1894, "cod_calle": 1082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484848", "y": "-34.581325"}, "direccion": "ANDONAEGUI 1894, CABA", "nombre_calle": "ANDONAEGUI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.484848</v>
+        <v>-58.385244</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.581325</v>
+        <v>-34.651701</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6937</t>
+          <t>5843</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/13/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
+          <t>CAMPANA 2545</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30399267</t>
+          <t>ICD30388090</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1253,48 +1253,48 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2545, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492468", "y": "-34.607061"}, "direccion": "CAMPANA 2545, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.403659</v>
+        <v>-58.492468</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.591997</v>
+        <v>-34.607061</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/13/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PERDRIEL 1490</t>
+          <t>ARGERICH 45</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30399377</t>
+          <t>ICD30398505</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>cables a baja altura</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,18 +1317,18 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 45, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471436", "y": "-34.630493"}, "direccion": "ARGERICH 45, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.385244</v>
+        <v>-58.471436</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.651701</v>
+        <v>-34.630493</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1340,25 +1340,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8/13/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CAMPANA 2545</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30388090</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,48 +1381,48 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2545, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492468", "y": "-34.607061"}, "direccion": "CAMPANA 2545, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.492468</v>
+        <v>-58.416595</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.607061</v>
+        <v>-34.65375</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>5672</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8/13/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ARGERICH 45</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30398505</t>
+          <t>ICD30449358</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cables a baja altura</t>
+          <t>Cable a baja altura</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,18 +1445,18 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 45, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471436", "y": "-34.630493"}, "direccion": "ARGERICH 45, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.471436</v>
+        <v>-58.43433</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.630493</v>
+        <v>-34.567571</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1468,25 +1468,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,18 +1509,18 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.416595</v>
+        <v>-58.435519</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.65375</v>
+        <v>-34.566886</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1532,7 +1532,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5672</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30449358</t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cable a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,14 +1573,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.43433</v>
+        <v>-58.43774</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.567571</v>
+        <v>-34.565577</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>5772</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>MALABIA 1648</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30449417</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable sueltos y cortados</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,14 +1637,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.435519</v>
+        <v>-58.426578</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.566886</v>
+        <v>-34.590461</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5779</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>GUATEMALA 4551</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30449427</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,14 +1701,14 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.43774</v>
+        <v>-58.423098</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.565577</v>
+        <v>-34.587342</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5772</t>
+          <t>5782</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1734,15 +1734,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MALABIA 1648</t>
+          <t>GUARDIA NACIONAL 1069</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30449417</t>
+          <t>ICD30452783</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cable sueltos y cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,30 +1765,30 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1069, "cod_calle": 7091, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493951", "y": "-34.647306"}, "direccion": "GUARDIA NACIONAL 1069, CABA", "nombre_calle": "GUARDIA NACIONAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.426578</v>
+        <v>-58.493951</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.590461</v>
+        <v>-34.647306</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>5648</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1798,15 +1798,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GUATEMALA 4551</t>
+          <t>NAZCA AV. 620</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30449427</t>
+          <t>ICD30453627</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,30 +1829,30 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.423098</v>
+        <v>-58.472312</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.587342</v>
+        <v>-34.624976</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5782</t>
+          <t>5646</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1862,15 +1862,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GUARDIA NACIONAL 1069</t>
+          <t>MORON 3036</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30452783</t>
+          <t>ICD30453761</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1893,14 +1893,14 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1069, "cod_calle": 7091, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493951", "y": "-34.647306"}, "direccion": "GUARDIA NACIONAL 1069, CABA", "nombre_calle": "GUARDIA NACIONAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3036, "cod_calle": 13132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474687", "y": "-34.624781"}, "direccion": "MORON 3036, CABA", "nombre_calle": "MORON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.493951</v>
+        <v>-58.474687</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.647306</v>
+        <v>-34.624781</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5648</t>
+          <t>6927</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1926,15 +1926,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NAZCA AV. 620</t>
+          <t>ALTOLAGUIRRE 2520</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30453627</t>
+          <t>ICD30453807</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,14 +1957,14 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2520, "cod_calle": 1049, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491932", "y": "-34.575760"}, "direccion": "ALTOLAGUIRRE 2520, CABA", "nombre_calle": "ALTOLAGUIRRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.472312</v>
+        <v>-58.491932</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.624976</v>
+        <v>-34.57576</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1980,25 +1980,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5646</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MORON 3036</t>
+          <t>MUÑECAS 1035</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30453761</t>
+          <t>ICD30463961</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme colgando y cable cortado</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,18 +2021,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3036, "cod_calle": 13132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474687", "y": "-34.624781"}, "direccion": "MORON 3036, CABA", "nombre_calle": "MORON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1035, "cod_calle": 13141, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448024", "y": "-34.598462"}, "direccion": "MUÑECAS 1035, CABA", "nombre_calle": "MUÑECAS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.474687</v>
+        <v>-58.448024</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.624781</v>
+        <v>-34.598462</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2044,25 +2044,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>5117</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALTOLAGUIRRE 2520</t>
+          <t>ARENAL, CONCEPCION 3470</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD30453807</t>
+          <t>ICD30465386</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,18 +2085,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2520, "cod_calle": 1049, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491932", "y": "-34.575760"}, "direccion": "ALTOLAGUIRRE 2520, CABA", "nombre_calle": "ALTOLAGUIRRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.491932</v>
+        <v>-58.446142</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.57576</v>
+        <v>-34.583381</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4966</t>
+          <t>5571</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2118,15 +2118,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MUÑECAS 1035</t>
+          <t>ESTADO DE ISRAEL AV. 4624</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30463961</t>
+          <t>ICD30463349</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando y cable cortado</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,48 +2149,48 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1035, "cod_calle": 13141, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448024", "y": "-34.598462"}, "direccion": "MUÑECAS 1035, CABA", "nombre_calle": "MUÑECAS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.448024</v>
+        <v>-58.43025</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.598462</v>
+        <v>-34.6</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5117</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARENAL, CONCEPCION 3470</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD30465386</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,48 +2213,48 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.446142</v>
+        <v>-58.401027</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.583381</v>
+        <v>-34.625071</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5508</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BRUNO, GIORDANO 829</t>
+          <t>BOEDO AV. 529</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD30463299</t>
+          <t>ICD30508339</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tendido aereo en panza</t>
+          <t>Tendido a baja altura y cortado</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,14 +2277,14 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 829, "cod_calle": 2118, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441705", "y": "-34.617573"}, "direccion": "BRUNO, GIORDANO 829, CABA", "nombre_calle": "BRUNO, GIORDANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 529, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416783", "y": "-34.618917"}, "direccion": "BOEDO AV. 529, CABA", "nombre_calle": "BOEDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.441705</v>
+        <v>-58.416783</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.617573</v>
+        <v>-34.618917</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2292,70 +2292,6 @@
         </is>
       </c>
       <c r="N29" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>5571</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>8/22/2025</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ESTADO DE ISRAEL AV. 4624</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>5</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ICD30463349</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>-58.43025</v>
-      </c>
-      <c r="L30" t="n">
-        <v>-34.6</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,7 +1980,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4966</t>
+          <t>5117</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MUÑECAS 1035</t>
+          <t>ARENAL, CONCEPCION 3470</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30463961</t>
+          <t>ICD30465386</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando y cable cortado</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,18 +2021,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1035, "cod_calle": 13141, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448024", "y": "-34.598462"}, "direccion": "MUÑECAS 1035, CABA", "nombre_calle": "MUÑECAS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.448024</v>
+        <v>-58.446142</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.598462</v>
+        <v>-34.583381</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5117</t>
+          <t>5571</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2054,15 +2054,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ARENAL, CONCEPCION 3470</t>
+          <t>ESTADO DE ISRAEL AV. 4624</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD30465386</t>
+          <t>ICD30463349</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,48 +2085,48 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.446142</v>
+        <v>-58.43025</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.583381</v>
+        <v>-34.6</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5571</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4624</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30463349</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,18 +2149,18 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.43025</v>
+        <v>-58.401027</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.6</v>
+        <v>-34.625071</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2172,25 +2172,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>BOEDO AV. 529</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30508339</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Tendido a baja altura y cortado</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,85 +2213,21 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 529, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416783", "y": "-34.618917"}, "direccion": "BOEDO AV. 529, CABA", "nombre_calle": "BOEDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.401027</v>
+        <v>-58.416783</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.625071</v>
+        <v>-34.618917</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>7057</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>8/26/2025</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>BOEDO AV. 529</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>5</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ICD30508339</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura y cortado</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 529, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416783", "y": "-34.618917"}, "direccion": "BOEDO AV. 529, CABA", "nombre_calle": "BOEDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>-58.416783</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-34.618917</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,7 +1212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1222,15 +1222,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CAMPANA 2545</t>
+          <t>ARGERICH 45</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30388090</t>
+          <t>ICD30398505</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>cables a baja altura</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,48 +1253,48 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2545, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492468", "y": "-34.607061"}, "direccion": "CAMPANA 2545, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 45, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471436", "y": "-34.630493"}, "direccion": "ARGERICH 45, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.492468</v>
+        <v>-58.471436</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.607061</v>
+        <v>-34.630493</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8/13/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ARGERICH 45</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30398505</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cables a baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,18 +1317,18 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 45, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471436", "y": "-34.630493"}, "direccion": "ARGERICH 45, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.471436</v>
+        <v>-58.416595</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.630493</v>
+        <v>-34.65375</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1340,25 +1340,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>5672</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30449358</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable a baja altura</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,18 +1381,18 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.416595</v>
+        <v>-58.43433</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.65375</v>
+        <v>-34.567571</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5672</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30449358</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cable a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.43433</v>
+        <v>-58.435519</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.567571</v>
+        <v>-34.566886</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1509,14 +1509,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.435519</v>
+        <v>-58.43774</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.566886</v>
+        <v>-34.565577</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5772</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>MALABIA 1648</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30449417</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable sueltos y cortados</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,14 +1573,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.43774</v>
+        <v>-58.426578</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.565577</v>
+        <v>-34.590461</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5772</t>
+          <t>5779</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MALABIA 1648</t>
+          <t>GUATEMALA 4551</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30449417</t>
+          <t>ICD30449427</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cable sueltos y cortados</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,14 +1637,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.426578</v>
+        <v>-58.423098</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.590461</v>
+        <v>-34.587342</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>5782</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1670,15 +1670,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GUATEMALA 4551</t>
+          <t>GUARDIA NACIONAL 1069</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30449427</t>
+          <t>ICD30452783</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,30 +1701,30 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1069, "cod_calle": 7091, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493951", "y": "-34.647306"}, "direccion": "GUARDIA NACIONAL 1069, CABA", "nombre_calle": "GUARDIA NACIONAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.423098</v>
+        <v>-58.493951</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.587342</v>
+        <v>-34.647306</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5782</t>
+          <t>5648</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1734,15 +1734,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GUARDIA NACIONAL 1069</t>
+          <t>NAZCA AV. 620</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30452783</t>
+          <t>ICD30453627</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1765,18 +1765,18 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1069, "cod_calle": 7091, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493951", "y": "-34.647306"}, "direccion": "GUARDIA NACIONAL 1069, CABA", "nombre_calle": "GUARDIA NACIONAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.493951</v>
+        <v>-58.472312</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.647306</v>
+        <v>-34.624976</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5648</t>
+          <t>6927</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1798,15 +1798,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NAZCA AV. 620</t>
+          <t>ALTOLAGUIRRE 2520</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30453627</t>
+          <t>ICD30453807</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,14 +1829,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2520, "cod_calle": 1049, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491932", "y": "-34.575760"}, "direccion": "ALTOLAGUIRRE 2520, CABA", "nombre_calle": "ALTOLAGUIRRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.472312</v>
+        <v>-58.491932</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.624976</v>
+        <v>-34.57576</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1852,25 +1852,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5646</t>
+          <t>5117</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MORON 3036</t>
+          <t>ARENAL, CONCEPCION 3470</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30453761</t>
+          <t>ICD30465386</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,18 +1893,18 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3036, "cod_calle": 13132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474687", "y": "-34.624781"}, "direccion": "MORON 3036, CABA", "nombre_calle": "MORON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.474687</v>
+        <v>-58.446142</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.624781</v>
+        <v>-34.583381</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1916,25 +1916,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>5571</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ALTOLAGUIRRE 2520</t>
+          <t>ESTADO DE ISRAEL AV. 4624</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30453807</t>
+          <t>ICD30463349</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,48 +1957,48 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2520, "cod_calle": 1049, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491932", "y": "-34.575760"}, "direccion": "ALTOLAGUIRRE 2520, CABA", "nombre_calle": "ALTOLAGUIRRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.491932</v>
+        <v>-58.43025</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.57576</v>
+        <v>-34.6</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5117</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARENAL, CONCEPCION 3470</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30465386</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,40 +2021,40 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.446142</v>
+        <v>-58.401027</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.583381</v>
+        <v>-34.625071</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5571</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4624</t>
+          <t>BOEDO AV. 529</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD30463349</t>
+          <t>ICD30508339</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura y cortado</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,14 +2085,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 529, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416783", "y": "-34.618917"}, "direccion": "BOEDO AV. 529, CABA", "nombre_calle": "BOEDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.43025</v>
+        <v>-58.416783</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.6</v>
+        <v>-34.618917</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2108,25 +2108,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,14 +2149,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.401027</v>
+        <v>-58.371599</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.625071</v>
+        <v>-34.623098</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2172,25 +2172,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7057</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BOEDO AV. 529</t>
+          <t>RIVADAVIA AV. 7405</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD30508339</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortado</t>
+          <t>Caja de empalme colgando en luminaria</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,23 +2213,343 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 529, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416783", "y": "-34.618917"}, "direccion": "BOEDO AV. 529, CABA", "nombre_calle": "BOEDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 7405, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469909", "y": "-34.630669"}, "direccion": "RIVADAVIA AV. 7405, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.416783</v>
+        <v>-58.469909</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.618917</v>
+        <v>-34.630669</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4545</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8/29/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CHIVILCOY 1820</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Caja de empalme colgando</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1820, "cod_calle": 3258, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496176", "y": "-34.617075"}, "direccion": "CHIVILCOY 1820, CABA", "nombre_calle": "CHIVILCOY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-58.496176</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-34.617075</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7104</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>8/29/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BAIGORRIA 5493</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 5493, "cod_calle": 2010, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518794", "y": "-34.621814"}, "direccion": "BAIGORRIA 5493, CABA", "nombre_calle": "BAIGORRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>-58.518794</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-34.621814</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>8/29/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CORDOBA AV. 2633</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>-58.404367</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-34.59801</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
           <t>Almagro</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3798</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>8/29/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RIVADAVIA AV. 1559</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>-58.388501</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-34.608971</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>8/29/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>JURAMENTO 3020</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>13</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3020, "cod_calle": 10017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462535", "y": "-34.565542"}, "direccion": "JURAMENTO 3020, CABA", "nombre_calle": "JURAMENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>-58.462535</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-34.565542</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,7 +828,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6899</t>
+          <t>6087</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -838,15 +838,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ERCILLA 6159</t>
+          <t>ROSETI 436</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICD30377283</t>
+          <t>ICD30377406</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cables cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +869,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 6159, "cod_calle": 5065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510283", "y": "-34.647321"}, "direccion": "ERCILLA 6159, CABA", "nombre_calle": "ERCILLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450100", "y": "-34.584687"}, "direccion": "ROSETI 436, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.510283</v>
+        <v>-58.4501</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.647321</v>
+        <v>-34.584687</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6087</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -902,15 +902,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ROSETI 436</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30377406</t>
+          <t>ICD30399224</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,30 +933,30 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450100", "y": "-34.584687"}, "direccion": "ROSETI 436, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.4501</v>
+        <v>-58.355342</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.584687</v>
+        <v>-34.63565</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>6937</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -966,15 +966,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30399224</t>
+          <t>ICD30399267</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.355342</v>
+        <v>-58.403659</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.63565</v>
+        <v>-34.591997</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>6940</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1030,15 +1030,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ANDONAEGUI 1894</t>
+          <t>PERDRIEL 1490</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30377539</t>
+          <t>ICD30399377</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Ganancia suelta en la columna</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1061,48 +1061,48 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1894, "cod_calle": 1082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484848", "y": "-34.581325"}, "direccion": "ANDONAEGUI 1894, CABA", "nombre_calle": "ANDONAEGUI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.484848</v>
+        <v>-58.385244</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.581325</v>
+        <v>-34.651701</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6937</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/13/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
+          <t>ARGERICH 45</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30399267</t>
+          <t>ICD30398505</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>cables a baja altura</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1125,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 45, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471436", "y": "-34.630493"}, "direccion": "ARGERICH 45, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.403659</v>
+        <v>-58.471436</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.591997</v>
+        <v>-34.630493</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,17 +1148,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PERDRIEL 1490</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30399377</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1189,14 +1189,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.385244</v>
+        <v>-58.416595</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.651701</v>
+        <v>-34.65375</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1212,25 +1212,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>5672</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8/13/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ARGERICH 45</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30398505</t>
+          <t>ICD30449358</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cables a baja altura</t>
+          <t>Cable a baja altura</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,18 +1253,18 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 45, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471436", "y": "-34.630493"}, "direccion": "ARGERICH 45, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.471436</v>
+        <v>-58.43433</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.630493</v>
+        <v>-34.567571</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1276,25 +1276,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,18 +1317,18 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.416595</v>
+        <v>-58.435519</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.65375</v>
+        <v>-34.566886</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1340,7 +1340,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5672</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30449358</t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cable a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,14 +1381,14 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.43433</v>
+        <v>-58.43774</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.567571</v>
+        <v>-34.565577</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>5772</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>MALABIA 1648</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30449417</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable sueltos y cortados</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.435519</v>
+        <v>-58.426578</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.566886</v>
+        <v>-34.590461</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5779</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>GUATEMALA 4551</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30449427</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,14 +1509,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.43774</v>
+        <v>-58.423098</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.565577</v>
+        <v>-34.587342</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5772</t>
+          <t>5648</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1542,15 +1542,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MALABIA 1648</t>
+          <t>NAZCA AV. 620</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30449417</t>
+          <t>ICD30453627</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cable sueltos y cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,48 +1573,48 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.426578</v>
+        <v>-58.472312</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.590461</v>
+        <v>-34.624976</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>5117</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GUATEMALA 4551</t>
+          <t>ARENAL, CONCEPCION 3470</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30449427</t>
+          <t>ICD30465386</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1637,48 +1637,48 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.423098</v>
+        <v>-58.446142</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.587342</v>
+        <v>-34.583381</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5782</t>
+          <t>5571</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GUARDIA NACIONAL 1069</t>
+          <t>ESTADO DE ISRAEL AV. 4624</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30452783</t>
+          <t>ICD30463349</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1701,48 +1701,48 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1069, "cod_calle": 7091, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493951", "y": "-34.647306"}, "direccion": "GUARDIA NACIONAL 1069, CABA", "nombre_calle": "GUARDIA NACIONAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.493951</v>
+        <v>-58.43025</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.647306</v>
+        <v>-34.6</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5648</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NAZCA AV. 620</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30453627</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,48 +1765,48 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.472312</v>
+        <v>-58.401027</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.624976</v>
+        <v>-34.625071</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ALTOLAGUIRRE 2520</t>
+          <t>BOEDO AV. 529</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30453807</t>
+          <t>ICD30508339</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Tendido a baja altura y cortado</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,48 +1829,48 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2520, "cod_calle": 1049, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491932", "y": "-34.575760"}, "direccion": "ALTOLAGUIRRE 2520, CABA", "nombre_calle": "ALTOLAGUIRRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 529, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416783", "y": "-34.618917"}, "direccion": "BOEDO AV. 529, CABA", "nombre_calle": "BOEDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.491932</v>
+        <v>-58.416783</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.57576</v>
+        <v>-34.618917</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5117</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ARENAL, CONCEPCION 3470</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30465386</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,48 +1893,48 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.446142</v>
+        <v>-58.371599</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.583381</v>
+        <v>-34.623098</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5571</t>
+          <t>4242</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4624</t>
+          <t>RIVADAVIA AV. 7405</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30463349</t>
+          <t>ICD30593819</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme colgando en luminaria</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,18 +1957,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 7405, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469909", "y": "-34.630669"}, "direccion": "RIVADAVIA AV. 7405, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.43025</v>
+        <v>-58.469909</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.6</v>
+        <v>-34.630669</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1980,25 +1980,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>CORDOBA AV. 2633</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30593883</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,18 +2021,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.401027</v>
+        <v>-58.404367</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.625071</v>
+        <v>-34.59801</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2044,25 +2044,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7057</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BOEDO AV. 529</t>
+          <t>RIVADAVIA AV. 1559</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD30508339</t>
+          <t>ICD30593920</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortado</t>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,18 +2085,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 529, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416783", "y": "-34.618917"}, "direccion": "BOEDO AV. 529, CABA", "nombre_calle": "BOEDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.416783</v>
+        <v>-58.388501</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.618917</v>
+        <v>-34.608971</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2118,15 +2118,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>JURAMENTO 3020</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30574933</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2149,48 +2149,48 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3020, "cod_calle": 10017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462535", "y": "-34.565542"}, "direccion": "JURAMENTO 3020, CABA", "nombre_calle": "JURAMENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.371599</v>
+        <v>-58.462535</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.623098</v>
+        <v>-34.565542</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4242</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 7405</t>
+          <t>SOLER 4197</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30626824</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando en luminaria</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,18 +2213,18 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 7405, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469909", "y": "-34.630669"}, "direccion": "RIVADAVIA AV. 7405, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.469909</v>
+        <v>-58.420092</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.630669</v>
+        <v>-34.590101</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2236,25 +2236,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4545</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CHIVILCOY 1820</t>
+          <t>MERCEDES 2830</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30612214</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,14 +2277,14 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1820, "cod_calle": 3258, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496176", "y": "-34.617075"}, "direccion": "CHIVILCOY 1820, CABA", "nombre_calle": "CHIVILCOY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2830, "cod_calle": 13074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504908", "y": "-34.609052"}, "direccion": "MERCEDES 2830, CABA", "nombre_calle": "MERCEDES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.496176</v>
+        <v>-58.504908</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.617075</v>
+        <v>-34.609052</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2300,25 +2300,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>7104</t>
+          <t>7132</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/3/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BAIGORRIA 5493</t>
+          <t>CALLAO AV. 2014</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30626855</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>emprolijar tendido</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,215 +2341,23 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5493, "cod_calle": 2010, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518794", "y": "-34.621814"}, "direccion": "BAIGORRIA 5493, CABA", "nombre_calle": "BAIGORRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2014, "cod_calle": 3030, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386954", "y": "-34.587337"}, "direccion": "CALLAO AV. 2014, CABA", "nombre_calle": "CALLAO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.518794</v>
+        <v>-58.386954</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.621814</v>
+        <v>-34.587337</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>3797</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>8/29/2025</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>CORDOBA AV. 2633</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>-58.404367</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-34.59801</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
           <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>3798</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>8/29/2025</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>RIVADAVIA AV. 1559</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>-58.388501</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-34.608971</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>3878</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>8/29/2025</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>JURAMENTO 3020</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>13</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3020, "cod_calle": 10017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462535", "y": "-34.565542"}, "direccion": "JURAMENTO 3020, CABA", "nombre_calle": "JURAMENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>-58.462535</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-34.565542</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1084,25 +1084,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8/13/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ARGERICH 45</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30398505</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cables a baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1125,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 45, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471436", "y": "-34.630493"}, "direccion": "ARGERICH 45, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.471436</v>
+        <v>-58.416595</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.630493</v>
+        <v>-34.65375</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,25 +1148,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>5672</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30449358</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable a baja altura</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,18 +1189,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.416595</v>
+        <v>-58.43433</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.65375</v>
+        <v>-34.567571</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5672</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30449358</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cable a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.43433</v>
+        <v>-58.435519</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.567571</v>
+        <v>-34.566886</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.435519</v>
+        <v>-58.43774</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.566886</v>
+        <v>-34.565577</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5772</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>MALABIA 1648</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30449417</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable sueltos y cortados</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,14 +1381,14 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.43774</v>
+        <v>-58.426578</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.565577</v>
+        <v>-34.590461</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5772</t>
+          <t>5779</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MALABIA 1648</t>
+          <t>GUATEMALA 4551</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30449417</t>
+          <t>ICD30449427</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cable sueltos y cortados</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.426578</v>
+        <v>-58.423098</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.590461</v>
+        <v>-34.587342</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>5648</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1478,15 +1478,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GUATEMALA 4551</t>
+          <t>NAZCA AV. 620</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30449427</t>
+          <t>ICD30453627</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,48 +1509,48 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.423098</v>
+        <v>-58.472312</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.587342</v>
+        <v>-34.624976</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5648</t>
+          <t>5117</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NAZCA AV. 620</t>
+          <t>ARENAL, CONCEPCION 3470</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30453627</t>
+          <t>ICD30465386</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,18 +1573,18 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.472312</v>
+        <v>-58.446142</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.624976</v>
+        <v>-34.583381</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5117</t>
+          <t>5571</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1606,15 +1606,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ARENAL, CONCEPCION 3470</t>
+          <t>ESTADO DE ISRAEL AV. 4624</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30465386</t>
+          <t>ICD30463349</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,48 +1637,48 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.446142</v>
+        <v>-58.43025</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.583381</v>
+        <v>-34.6</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5571</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4624</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30463349</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,18 +1701,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.43025</v>
+        <v>-58.401027</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.6</v>
+        <v>-34.625071</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1724,25 +1724,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>7057</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/26/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>BOEDO AV. 529</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30508339</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Tendido a baja altura y cortado</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,18 +1765,18 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 529, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416783", "y": "-34.618917"}, "direccion": "BOEDO AV. 529, CABA", "nombre_calle": "BOEDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.401027</v>
+        <v>-58.416783</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.625071</v>
+        <v>-34.618917</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1788,25 +1788,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7057</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BOEDO AV. 529</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30508339</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortado</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,18 +1829,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 529, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416783", "y": "-34.618917"}, "direccion": "BOEDO AV. 529, CABA", "nombre_calle": "BOEDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.416783</v>
+        <v>-58.371599</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.618917</v>
+        <v>-34.623098</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1862,15 +1862,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>CORDOBA AV. 2633</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30593883</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,18 +1893,18 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.371599</v>
+        <v>-58.404367</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.623098</v>
+        <v>-34.59801</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1916,7 +1916,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4242</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1926,15 +1926,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 7405</t>
+          <t>RIVADAVIA AV. 1559</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30593819</t>
+          <t>ICD30593920</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando en luminaria</t>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,18 +1957,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 7405, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469909", "y": "-34.630669"}, "direccion": "RIVADAVIA AV. 7405, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.469909</v>
+        <v>-58.388501</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.630669</v>
+        <v>-34.608971</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1980,7 +1980,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1990,15 +1990,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 2633</t>
+          <t>JURAMENTO 3020</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30593883</t>
+          <t>ICD30574933</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,48 +2021,48 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3020, "cod_calle": 10017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462535", "y": "-34.565542"}, "direccion": "JURAMENTO 3020, CABA", "nombre_calle": "JURAMENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.404367</v>
+        <v>-58.462535</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.59801</v>
+        <v>-34.565542</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3798</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 1559</t>
+          <t>SOLER 4197</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD30593920</t>
+          <t>ICD30626824</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,18 +2085,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.388501</v>
+        <v>-58.420092</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.608971</v>
+        <v>-34.590101</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2108,25 +2108,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3878</t>
+          <t>4084</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JURAMENTO 3020</t>
+          <t>MERCEDES 2830</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30574933</t>
+          <t>ICD30612214</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2149,18 +2149,18 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3020, "cod_calle": 10017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462535", "y": "-34.565542"}, "direccion": "JURAMENTO 3020, CABA", "nombre_calle": "JURAMENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2830, "cod_calle": 13074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504908", "y": "-34.609052"}, "direccion": "MERCEDES 2830, CABA", "nombre_calle": "MERCEDES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.462535</v>
+        <v>-58.504908</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.565542</v>
+        <v>-34.609052</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2172,25 +2172,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>7132</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/3/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SOLER 4197</t>
+          <t>CALLAO AV. 2014</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD30626824</t>
+          <t>ICD30626855</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>emprolijar tendido</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,18 +2213,18 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2014, "cod_calle": 3030, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386954", "y": "-34.587337"}, "direccion": "CALLAO AV. 2014, CABA", "nombre_calle": "CALLAO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.420092</v>
+        <v>-58.386954</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.590101</v>
+        <v>-34.587337</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2236,25 +2236,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4084</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MERCEDES 2830</t>
+          <t>JUNIN 234</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD30612214</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables sueltos y desprolijos</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,85 +2277,21 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2830, "cod_calle": 13074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504908", "y": "-34.609052"}, "direccion": "MERCEDES 2830, CABA", "nombre_calle": "MERCEDES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.504908</v>
+        <v>-58.396557</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.609052</v>
+        <v>-34.606731</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>7132</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>9/3/2025</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>CALLAO AV. 2014</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ICD30626855</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>emprolijar tendido</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2014, "cod_calle": 3030, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386954", "y": "-34.587337"}, "direccion": "CALLAO AV. 2014, CABA", "nombre_calle": "CALLAO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>-58.386954</v>
-      </c>
-      <c r="L30" t="n">
-        <v>-34.587337</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1596,25 +1596,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5571</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ESTADO DE ISRAEL AV. 4624</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30463349</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,18 +1637,18 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4624, "cod_calle": 5086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430250", "y": "-34.600000"}, "direccion": "ESTADO DE ISRAEL AV. 4624, CABA", "nombre_calle": "ESTADO DE ISRAEL AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.43025</v>
+        <v>-58.401027</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.6</v>
+        <v>-34.625071</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1660,25 +1660,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,14 +1701,14 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.401027</v>
+        <v>-58.371599</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.625071</v>
+        <v>-34.623098</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1724,25 +1724,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7057</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8/26/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BOEDO AV. 529</t>
+          <t>CORDOBA AV. 2633</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30508339</t>
+          <t>ICD30593883</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortado</t>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,14 +1765,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 529, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416783", "y": "-34.618917"}, "direccion": "BOEDO AV. 529, CABA", "nombre_calle": "BOEDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.416783</v>
+        <v>-58.404367</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.618917</v>
+        <v>-34.59801</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>RIVADAVIA AV. 1559</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30593920</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,14 +1829,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.371599</v>
+        <v>-58.388501</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.623098</v>
+        <v>-34.608971</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1862,15 +1862,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 2633</t>
+          <t>JURAMENTO 3020</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30593883</t>
+          <t>ICD30574933</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,48 +1893,48 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3020, "cod_calle": 10017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462535", "y": "-34.565542"}, "direccion": "JURAMENTO 3020, CABA", "nombre_calle": "JURAMENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.404367</v>
+        <v>-58.462535</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.59801</v>
+        <v>-34.565542</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3798</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 1559</t>
+          <t>SOLER 4197</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30593920</t>
+          <t>ICD30626824</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,18 +1957,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.388501</v>
+        <v>-58.420092</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.608971</v>
+        <v>-34.590101</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1980,25 +1980,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3878</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JURAMENTO 3020</t>
+          <t>JUNIN 234</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30574933</t>
+          <t>ICD30682500</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables sueltos y desprolijos</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,48 +2021,48 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3020, "cod_calle": 10017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462535", "y": "-34.565542"}, "direccion": "JURAMENTO 3020, CABA", "nombre_calle": "JURAMENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.462535</v>
+        <v>-58.396557</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.565542</v>
+        <v>-34.606731</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>7194</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SOLER 4197</t>
+          <t>RIVADAVIA AV. 6381</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD30626824</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2085,18 +2085,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6381, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456364", "y": "-34.626443"}, "direccion": "RIVADAVIA AV. 6381, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.420092</v>
+        <v>-58.456364</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.590101</v>
+        <v>-34.626443</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2108,25 +2108,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4084</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MERCEDES 2830</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30612214</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2149,40 +2149,40 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2830, "cod_calle": 13074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504908", "y": "-34.609052"}, "direccion": "MERCEDES 2830, CABA", "nombre_calle": "MERCEDES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.504908</v>
+        <v>-58.374174</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.609052</v>
+        <v>-34.623403</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7132</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9/3/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CALLAO AV. 2014</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD30626855</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>emprolijar tendido</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,14 +2213,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2014, "cod_calle": 3030, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386954", "y": "-34.587337"}, "direccion": "CALLAO AV. 2014, CABA", "nombre_calle": "CALLAO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.386954</v>
+        <v>-58.394943</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.587337</v>
+        <v>-34.594725</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2236,64 +2236,256 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JUNIN 234</t>
+          <t>ALCARAZ 4982</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>ICD30722914</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4982, "cod_calle": 1035, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506496", "y": "-34.621373"}, "direccion": "ALCARAZ 4982, CABA", "nombre_calle": "ALCARAZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-58.506496</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-34.621373</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3748</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9/9/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>JUSTO, JUAN B. AV. 7947</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>10</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ICD30722441</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Caja de empalme colgando</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 7947, "cod_calle": 10018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.500866", "y": "-34.632009"}, "direccion": "JUSTO, JUAN B. AV. 7947, CABA", "nombre_calle": "JUSTO, JUAN B. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>-58.500866</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-34.632009</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>4003</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>9/9/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CABRERA, JOSE A. 5612</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>14</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Pendiente ADM</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Cables sueltos y desprolijos</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>-58.396557</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-34.606731</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Hay un cable colgando ver fotos</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 3009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.438309", "y": "-34.585646"}, "direccion": "CABRERA, JOSE A. 5612, CABA", "nombre_calle": "CABRERA, JOSE A.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>-58.438309</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-34.585646</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6467</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9/10/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ASUNCION 2540</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Cable con baja altura</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2540, "cod_calle": 1131, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492808", "y": "-34.589594"}, "direccion": "ASUNCION 2540, CABA", "nombre_calle": "ASUNCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>-58.492808</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-34.589594</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,25 +700,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6557</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/4/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ALBERDI, JUAN BAUTISTA AV. 1091</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30334394</t>
+          <t>ICD30345482</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Verificar si la linga panseada es nuestra y ver con pablo como resolverlo</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,18 +741,18 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1091, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443538", "y": "-34.622890"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1091, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.443538</v>
+        <v>-58.360551</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.62289</v>
+        <v>-34.632684</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -764,25 +764,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6087</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>ROSETI 436</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICD30345482</t>
+          <t>ICD30377406</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,30 +805,30 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450100", "y": "-34.584687"}, "direccion": "ROSETI 436, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.360551</v>
+        <v>-58.4501</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.632684</v>
+        <v>-34.584687</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6087</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -838,15 +838,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ROSETI 436</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICD30377406</t>
+          <t>ICD30399224</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,30 +869,30 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450100", "y": "-34.584687"}, "direccion": "ROSETI 436, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.4501</v>
+        <v>-58.355342</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.584687</v>
+        <v>-34.63565</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>6937</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -902,15 +902,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30399224</t>
+          <t>ICD30399267</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,18 +933,18 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.355342</v>
+        <v>-58.403659</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.63565</v>
+        <v>-34.591997</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6937</t>
+          <t>6940</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -966,15 +966,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
+          <t>PERDRIEL 1490</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30399267</t>
+          <t>ICD30399377</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.403659</v>
+        <v>-58.385244</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.591997</v>
+        <v>-34.651701</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1020,17 +1020,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PERDRIEL 1490</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30399377</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1061,14 +1061,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.385244</v>
+        <v>-58.416595</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.651701</v>
+        <v>-34.65375</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1084,25 +1084,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>5672</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30449358</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable a baja altura</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1125,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.416595</v>
+        <v>-58.43433</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.65375</v>
+        <v>-34.567571</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5672</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30449358</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cable a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,14 +1189,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.43433</v>
+        <v>-58.435519</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.567571</v>
+        <v>-34.566886</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.435519</v>
+        <v>-58.43774</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.566886</v>
+        <v>-34.565577</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5772</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>MALABIA 1648</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30449417</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable sueltos y cortados</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.43774</v>
+        <v>-58.426578</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.565577</v>
+        <v>-34.590461</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1340,7 +1340,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5772</t>
+          <t>5779</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MALABIA 1648</t>
+          <t>GUATEMALA 4551</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30449417</t>
+          <t>ICD30449427</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cable sueltos y cortados</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,14 +1381,14 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.426578</v>
+        <v>-58.423098</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.590461</v>
+        <v>-34.587342</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1404,7 +1404,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>5648</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1414,15 +1414,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GUATEMALA 4551</t>
+          <t>NAZCA AV. 620</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30449427</t>
+          <t>ICD30453627</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,48 +1445,48 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.423098</v>
+        <v>-58.472312</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.587342</v>
+        <v>-34.624976</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5648</t>
+          <t>5117</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NAZCA AV. 620</t>
+          <t>ARENAL, CONCEPCION 3470</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30453627</t>
+          <t>ICD30465386</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,18 +1509,18 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.472312</v>
+        <v>-58.446142</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.624976</v>
+        <v>-34.583381</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1532,25 +1532,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5117</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ARENAL, CONCEPCION 3470</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30465386</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,48 +1573,48 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.446142</v>
+        <v>-58.401027</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.583381</v>
+        <v>-34.625071</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,14 +1637,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.401027</v>
+        <v>-58.371599</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.625071</v>
+        <v>-34.623098</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1660,7 +1660,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1670,15 +1670,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>CORDOBA AV. 2633</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30593883</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,18 +1701,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.371599</v>
+        <v>-58.404367</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.623098</v>
+        <v>-34.59801</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1724,7 +1724,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1734,15 +1734,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 2633</t>
+          <t>RIVADAVIA AV. 1559</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30593883</t>
+          <t>ICD30593920</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1765,18 +1765,18 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.404367</v>
+        <v>-58.388501</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.59801</v>
+        <v>-34.608971</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3798</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1798,15 +1798,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 1559</t>
+          <t>JURAMENTO 3020</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30593920</t>
+          <t>ICD30574933</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,48 +1829,48 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3020, "cod_calle": 10017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462535", "y": "-34.565542"}, "direccion": "JURAMENTO 3020, CABA", "nombre_calle": "JURAMENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.388501</v>
+        <v>-58.462535</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.608971</v>
+        <v>-34.565542</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3878</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JURAMENTO 3020</t>
+          <t>SOLER 4197</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30574933</t>
+          <t>ICD30626824</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,48 +1893,48 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3020, "cod_calle": 10017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462535", "y": "-34.565542"}, "direccion": "JURAMENTO 3020, CABA", "nombre_calle": "JURAMENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.462535</v>
+        <v>-58.420092</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.565542</v>
+        <v>-34.590101</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SOLER 4197</t>
+          <t>JUNIN 234</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30626824</t>
+          <t>ICD30682500</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables sueltos y desprolijos</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,18 +1957,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.420092</v>
+        <v>-58.396557</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.590101</v>
+        <v>-34.606731</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1980,25 +1980,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>7194</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>JUNIN 234</t>
+          <t>RIVADAVIA AV. 6381</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30682500</t>
+          <t>ICD30736147</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cables sueltos y desprolijos</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,18 +2021,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6381, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456364", "y": "-34.626443"}, "direccion": "RIVADAVIA AV. 6381, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.396557</v>
+        <v>-58.456364</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.606731</v>
+        <v>-34.626443</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7194</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2054,15 +2054,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6381</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,18 +2085,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 6381, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456364", "y": "-34.626443"}, "direccion": "RIVADAVIA AV. 6381, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.456364</v>
+        <v>-58.374174</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.626443</v>
+        <v>-34.623403</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2118,11 +2118,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,18 +2149,18 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.374174</v>
+        <v>-58.394943</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.623403</v>
+        <v>-34.594725</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2172,7 +2172,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2182,15 +2182,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>ALCARAZ 4982</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30722914</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,30 +2213,30 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4982, "cod_calle": 1035, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506496", "y": "-34.621373"}, "direccion": "ALCARAZ 4982, CABA", "nombre_calle": "ALCARAZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.394943</v>
+        <v>-58.506496</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.594725</v>
+        <v>-34.621373</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3740</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ALCARAZ 4982</t>
+          <t>JUSTO, JUAN B. AV. 7947</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD30722914</t>
+          <t>ICD30722441</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,14 +2277,14 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4982, "cod_calle": 1035, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506496", "y": "-34.621373"}, "direccion": "ALCARAZ 4982, CABA", "nombre_calle": "ALCARAZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 7947, "cod_calle": 10018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.500866", "y": "-34.632009"}, "direccion": "JUSTO, JUAN B. AV. 7947, CABA", "nombre_calle": "JUSTO, JUAN B. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.506496</v>
+        <v>-58.500866</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.621373</v>
+        <v>-34.632009</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3748</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2310,15 +2310,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>JUSTO, JUAN B. AV. 7947</t>
+          <t>CABRERA, JOSE A. 5612</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD30722441</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Hay un cable colgando ver fotos</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,48 +2341,48 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 7947, "cod_calle": 10018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.500866", "y": "-34.632009"}, "direccion": "JUSTO, JUAN B. AV. 7947, CABA", "nombre_calle": "JUSTO, JUAN B. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 3009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.438309", "y": "-34.585646"}, "direccion": "CABRERA, JOSE A. 5612, CABA", "nombre_calle": "CABRERA, JOSE A.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.500866</v>
+        <v>-58.438309</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.632009</v>
+        <v>-34.585646</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>6467</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/10/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CABRERA, JOSE A. 5612</t>
+          <t>ASUNCION 2540</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30737852</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hay un cable colgando ver fotos</t>
+          <t>Cable con baja altura</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2405,85 +2405,21 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 3009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.438309", "y": "-34.585646"}, "direccion": "CABRERA, JOSE A. 5612, CABA", "nombre_calle": "CABRERA, JOSE A.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2540, "cod_calle": 1131, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492808", "y": "-34.589594"}, "direccion": "ASUNCION 2540, CABA", "nombre_calle": "ASUNCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.438309</v>
+        <v>-58.492808</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.585646</v>
+        <v>-34.589594</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>6467</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>9/10/2025</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>ASUNCION 2540</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>15</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Cable con baja altura</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2540, "cod_calle": 1131, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492808", "y": "-34.589594"}, "direccion": "ASUNCION 2540, CABA", "nombre_calle": "ASUNCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>-58.492808</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-34.589594</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30794595</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2422,6 +2422,262 @@
       <c r="N31" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7216</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>9/15/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NEWBERY, JORGE AV. 3870</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ICD30800947</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>rienda cortada reparar o retirar</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>-58.450024</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-34.586606</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7217</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>9/15/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CARRANZA, ANGEL JUSTINIANO 1135</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>15</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ICD30801240</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1135, "cod_calle": 3074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443900", "y": "-34.587281"}, "direccion": "CARRANZA, ANGEL JUSTINIANO 1135, CABA", "nombre_calle": "CARRANZA, ANGEL JUSTINIANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>-58.4439</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-34.587281</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7219</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>9/15/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CRAMER AV. 2064</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>13</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ICD30801472</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Rienda cortada cable suelto</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2064, "cod_calle": 3189, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461063", "y": "-34.565190"}, "direccion": "CRAMER AV. 2064, CABA", "nombre_calle": "CRAMER AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>-58.461063</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-34.56519</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2099</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>9/15/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ICD30801756</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Cables a baja altura</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>-58.420687</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-34.614694</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -572,25 +572,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GUATEMALA 5527</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ICD30466317</t>
+          <t>ICD30345482</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,18 +613,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5527, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.431302", "y": "-34.580805"}, "direccion": "GUATEMALA 5527, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.431302</v>
+        <v>-58.360551</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.580805</v>
+        <v>-34.632684</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -636,25 +636,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t>6087</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIGUELETES 1330</t>
+          <t>ROSETI 436</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ICD30465943</t>
+          <t>ICD30377406</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,14 +677,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1330, "cod_calle": 13079, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440291", "y": "-34.562841"}, "direccion": "MIGUELETES 1330, CABA", "nombre_calle": "MIGUELETES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450100", "y": "-34.584687"}, "direccion": "ROSETI 436, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.440291</v>
+        <v>-58.4501</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.562841</v>
+        <v>-34.584687</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -700,17 +700,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30345482</t>
+          <t>ICD30399224</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,14 +741,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.360551</v>
+        <v>-58.355342</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.632684</v>
+        <v>-34.63565</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6087</t>
+          <t>6937</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -774,15 +774,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ROSETI 436</t>
+          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICD30377406</t>
+          <t>ICD30399267</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -805,30 +805,30 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450100", "y": "-34.584687"}, "direccion": "ROSETI 436, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.4501</v>
+        <v>-58.403659</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.584687</v>
+        <v>-34.591997</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>6940</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>PERDRIEL 1490</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -846,7 +846,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICD30399224</t>
+          <t>ICD30399377</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,14 +869,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.355342</v>
+        <v>-58.385244</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.63565</v>
+        <v>-34.651701</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -892,25 +892,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6937</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30399267</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,18 +933,18 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.403659</v>
+        <v>-58.416595</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.591997</v>
+        <v>-34.65375</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -956,25 +956,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PERDRIEL 1490</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30399377</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.385244</v>
+        <v>-58.435519</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.651701</v>
+        <v>-34.566886</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1020,25 +1020,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1061,18 +1061,18 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.416595</v>
+        <v>-58.43774</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.65375</v>
+        <v>-34.565577</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5672</t>
+          <t>5772</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 761</t>
+          <t>MALABIA 1648</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30449358</t>
+          <t>ICD30449417</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cable a baja altura</t>
+          <t>Cable sueltos y cortados</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,14 +1125,14 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 761, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.434330", "y": "-34.567571"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 761, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.43433</v>
+        <v>-58.426578</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.567571</v>
+        <v>-34.590461</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>5779</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>GUATEMALA 4551</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30449427</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,14 +1189,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.435519</v>
+        <v>-58.423098</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.566886</v>
+        <v>-34.587342</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5648</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1222,15 +1222,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>NAZCA AV. 620</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30453627</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,48 +1253,48 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.43774</v>
+        <v>-58.472312</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.565577</v>
+        <v>-34.624976</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5772</t>
+          <t>5117</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MALABIA 1648</t>
+          <t>ARENAL, CONCEPCION 3470</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30449417</t>
+          <t>ICD30465386</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cable sueltos y cortados</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,48 +1317,48 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.426578</v>
+        <v>-58.446142</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.590461</v>
+        <v>-34.583381</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GUATEMALA 4551</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30449427</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,18 +1381,18 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.423098</v>
+        <v>-58.401027</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.587342</v>
+        <v>-34.625071</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1404,25 +1404,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5648</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NAZCA AV. 620</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30453627</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,48 +1445,48 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.472312</v>
+        <v>-58.371599</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.624976</v>
+        <v>-34.623098</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5117</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ARENAL, CONCEPCION 3470</t>
+          <t>CORDOBA AV. 2633</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30465386</t>
+          <t>ICD30593883</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,48 +1509,48 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.446142</v>
+        <v>-58.404367</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.583381</v>
+        <v>-34.59801</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>RIVADAVIA AV. 1559</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30593920</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,14 +1573,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.401027</v>
+        <v>-58.388501</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.625071</v>
+        <v>-34.608971</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>SOLER 4197</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30626824</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,18 +1637,18 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.371599</v>
+        <v>-58.420092</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.623098</v>
+        <v>-34.590101</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1660,25 +1660,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 2633</t>
+          <t>JUNIN 234</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30593883</t>
+          <t>ICD30682500</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
+          <t>Cables sueltos y desprolijos</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,14 +1701,14 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.404367</v>
+        <v>-58.396557</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.59801</v>
+        <v>-34.606731</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1724,17 +1724,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3798</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 1559</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30593920</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,14 +1765,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.388501</v>
+        <v>-58.374174</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.608971</v>
+        <v>-34.623403</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1788,25 +1788,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3878</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JURAMENTO 3020</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30574933</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,40 +1829,40 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3020, "cod_calle": 10017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462535", "y": "-34.565542"}, "direccion": "JURAMENTO 3020, CABA", "nombre_calle": "JURAMENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.462535</v>
+        <v>-58.394943</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.565542</v>
+        <v>-34.594725</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SOLER 4197</t>
+          <t>CABRERA, JOSE A. 5612</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30626824</t>
+          <t>ICD30794595</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Hay un cable colgando ver fotos</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,14 +1893,14 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 3009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.438309", "y": "-34.585646"}, "direccion": "CABRERA, JOSE A. 5612, CABA", "nombre_calle": "CABRERA, JOSE A.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.420092</v>
+        <v>-58.438309</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.590101</v>
+        <v>-34.585646</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1916,25 +1916,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>7216</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JUNIN 234</t>
+          <t>NEWBERY, JORGE AV. 3870</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30682500</t>
+          <t>ICD30800947</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cables sueltos y desprolijos</t>
+          <t>rienda cortada reparar o retirar</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,48 +1957,48 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.396557</v>
+        <v>-58.450024</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.606731</v>
+        <v>-34.586606</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7194</t>
+          <t>7217</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 6381</t>
+          <t>CARRANZA, ANGEL JUSTINIANO 1135</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30736147</t>
+          <t>ICD30801240</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,48 +2021,48 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 6381, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456364", "y": "-34.626443"}, "direccion": "RIVADAVIA AV. 6381, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1135, "cod_calle": 3074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443900", "y": "-34.587281"}, "direccion": "CARRANZA, ANGEL JUSTINIANO 1135, CABA", "nombre_calle": "CARRANZA, ANGEL JUSTINIANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.456364</v>
+        <v>-58.4439</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.626443</v>
+        <v>-34.587281</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t>ICD30801756</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,18 +2085,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.374174</v>
+        <v>-58.420687</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.623403</v>
+        <v>-34.614694</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2108,25 +2108,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>7226</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>AMENABAR 3517</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>ICD30814275</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,48 +2149,48 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.394943</v>
+        <v>-58.469459</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.594725</v>
+        <v>-34.550903</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3740</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ALCARAZ 4982</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD30722914</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,18 +2213,18 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4982, "cod_calle": 1035, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506496", "y": "-34.621373"}, "direccion": "ALCARAZ 4982, CABA", "nombre_calle": "ALCARAZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.506496</v>
+        <v>-58.444861</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.621373</v>
+        <v>-34.586807</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2236,17 +2236,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3748</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JUSTO, JUAN B. AV. 7947</t>
+          <t>FALCON, RAMON L.,CNEL. 4126</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD30722441</t>
+          <t>ICD30814443</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2277,14 +2277,14 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 7947, "cod_calle": 10018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.500866", "y": "-34.632009"}, "direccion": "JUSTO, JUAN B. AV. 7947, CABA", "nombre_calle": "JUSTO, JUAN B. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4126, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484778", "y": "-34.635966"}, "direccion": "FALCON, RAMON L.,CNEL. 4126, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.500866</v>
+        <v>-58.484778</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.632009</v>
+        <v>-34.635966</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2300,25 +2300,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CABRERA, JOSE A. 5612</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD30794595</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Hay un cable colgando ver fotos</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,18 +2341,18 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 3009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.438309", "y": "-34.585646"}, "direccion": "CABRERA, JOSE A. 5612, CABA", "nombre_calle": "CABRERA, JOSE A.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.438309</v>
+        <v>-58.358272</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.585646</v>
+        <v>-34.637051</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2364,25 +2364,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6467</t>
+          <t>3610</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9/10/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ASUNCION 2540</t>
+          <t>NOGOYA 4098</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ICD30737852</t>
+          <t>ICD30831662</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cable con baja altura</t>
+          <t>Caja de empalme tirada en el piso</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2405,18 +2405,18 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2540, "cod_calle": 1131, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492808", "y": "-34.589594"}, "direccion": "ASUNCION 2540, CABA", "nombre_calle": "ASUNCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4098, "cod_calle": 14025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502950", "y": "-34.609516"}, "direccion": "NOGOYA 4098, CABA", "nombre_calle": "NOGOYA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.492808</v>
+        <v>-58.50295</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.589594</v>
+        <v>-34.609516</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2428,25 +2428,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>CONCORDIA 4686</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>ICD30831757</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2469,18 +2469,18 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-58.450024</v>
+        <v>-58.510011</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.586606</v>
+        <v>-34.591402</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2492,25 +2492,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7217</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CARRANZA, ANGEL JUSTINIANO 1135</t>
+          <t>GONZALEZ, ELPIDIO 2749</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICD30801240</t>
+          <t>ICD30831942</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable en panza cable cortado</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2533,18 +2533,18 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1135, "cod_calle": 3074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443900", "y": "-34.587281"}, "direccion": "CARRANZA, ANGEL JUSTINIANO 1135, CABA", "nombre_calle": "CARRANZA, ANGEL JUSTINIANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2749, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481266", "y": "-34.608522"}, "direccion": "GONZALEZ, ELPIDIO 2749, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>-58.4439</v>
+        <v>-58.481266</v>
       </c>
       <c r="L33" t="n">
-        <v>-34.587281</v>
+        <v>-34.608522</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2556,25 +2556,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7219</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CRAMER AV. 2064</t>
+          <t>NUEVA YORK 3307</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ICD30801472</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Rienda cortada cable suelto</t>
+          <t>Cables en panza y cables cortados</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2597,18 +2597,18 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2064, "cod_calle": 3189, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461063", "y": "-34.565190"}, "direccion": "CRAMER AV. 2064, CABA", "nombre_calle": "CRAMER AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>-58.461063</v>
+        <v>-58.503245</v>
       </c>
       <c r="L34" t="n">
-        <v>-34.56519</v>
+        <v>-34.594867</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2620,25 +2620,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
+          <t>LAMARCA, EMILIO 2094</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ICD30801756</t>
+          <t>Pendiente</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable en Panza</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2661,23 +2661,23 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2094, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493657", "y": "-34.613527"}, "direccion": "LAMARCA, EMILIO 2094, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-58.420687</v>
+        <v>-58.493657</v>
       </c>
       <c r="L35" t="n">
-        <v>-34.614694</v>
+        <v>-34.613527</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2681,6 +2681,198 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>5787</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GAONA AV. 4102</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Bajada de cliente colgando a baja altura</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4102, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481890", "y": "-34.624370"}, "direccion": "GAONA AV. 4102, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>-58.48189</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-34.62437</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3496</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CASEROS AV. 3017</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>-58.405983</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-34.637104</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CASEROS AV. 3219</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>-58.40948</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-34.637709</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,25 +572,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6262</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>MIGUELETES 1330</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ICD30345482</t>
+          <t>ICD30465943</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,48 +613,48 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1330, "cod_calle": 13079, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440291", "y": "-34.562841"}, "direccion": "MIGUELETES 1330, CABA", "nombre_calle": "MIGUELETES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.360551</v>
+        <v>-58.440291</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.632684</v>
+        <v>-34.562841</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6087</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ROSETI 436</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ICD30377406</t>
+          <t>ICD30345482</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,30 +677,30 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450100", "y": "-34.584687"}, "direccion": "ROSETI 436, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.4501</v>
+        <v>-58.360551</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.584687</v>
+        <v>-34.632684</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>6087</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -710,15 +710,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>ROSETI 436</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30399224</t>
+          <t>ICD30377406</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,30 +741,30 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450100", "y": "-34.584687"}, "direccion": "ROSETI 436, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.355342</v>
+        <v>-58.4501</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.63565</v>
+        <v>-34.584687</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6937</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -774,15 +774,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICD30399267</t>
+          <t>ICD30399224</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,18 +805,18 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.403659</v>
+        <v>-58.355342</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.591997</v>
+        <v>-34.63565</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>6937</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -838,15 +838,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PERDRIEL 1490</t>
+          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICD30399377</t>
+          <t>ICD30399267</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +869,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.385244</v>
+        <v>-58.403659</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.651701</v>
+        <v>-34.591997</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,17 +892,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>6940</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>PERDRIEL 1490</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30399377</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -933,14 +933,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.416595</v>
+        <v>-58.385244</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.65375</v>
+        <v>-34.651701</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -956,25 +956,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.435519</v>
+        <v>-58.416595</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.566886</v>
+        <v>-34.65375</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1061,14 +1061,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.43774</v>
+        <v>-58.435519</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.565577</v>
+        <v>-34.566886</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5772</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MALABIA 1648</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30449417</t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cable sueltos y cortados</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,14 +1125,14 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.426578</v>
+        <v>-58.43774</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.590461</v>
+        <v>-34.565577</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>5772</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GUATEMALA 4551</t>
+          <t>MALABIA 1648</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30449427</t>
+          <t>ICD30449417</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Cable sueltos y cortados</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,14 +1189,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.423098</v>
+        <v>-58.426578</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.587342</v>
+        <v>-34.590461</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5648</t>
+          <t>5779</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1222,15 +1222,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NAZCA AV. 620</t>
+          <t>GUATEMALA 4551</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30453627</t>
+          <t>ICD30449427</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,48 +1253,48 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.472312</v>
+        <v>-58.423098</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.624976</v>
+        <v>-34.587342</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5117</t>
+          <t>5648</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ARENAL, CONCEPCION 3470</t>
+          <t>NAZCA AV. 620</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30465386</t>
+          <t>ICD30453627</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,18 +1317,18 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.446142</v>
+        <v>-58.472312</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.583381</v>
+        <v>-34.624976</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1340,25 +1340,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>5117</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/22/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>ARENAL, CONCEPCION 3470</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30465386</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,48 +1381,48 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.401027</v>
+        <v>-58.446142</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.625071</v>
+        <v>-34.583381</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,14 +1445,14 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.371599</v>
+        <v>-58.401027</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.623098</v>
+        <v>-34.625071</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1478,15 +1478,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 2633</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30593883</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,18 +1509,18 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.404367</v>
+        <v>-58.371599</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.59801</v>
+        <v>-34.623098</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1532,7 +1532,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3798</t>
+          <t>3797</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1542,15 +1542,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 1559</t>
+          <t>CORDOBA AV. 2633</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30593920</t>
+          <t>ICD30593883</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1573,18 +1573,18 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.388501</v>
+        <v>-58.404367</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.608971</v>
+        <v>-34.59801</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1596,25 +1596,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>3798</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SOLER 4197</t>
+          <t>RIVADAVIA AV. 1559</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30626824</t>
+          <t>ICD30593920</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura obstaculiza contenedores</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,18 +1637,18 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.420092</v>
+        <v>-58.388501</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.590101</v>
+        <v>-34.608971</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1660,25 +1660,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>9/2/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>JUNIN 234</t>
+          <t>SOLER 4197</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30682500</t>
+          <t>ICD30626824</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cables sueltos y desprolijos</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,18 +1701,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.396557</v>
+        <v>-58.420092</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.606731</v>
+        <v>-34.590101</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1724,25 +1724,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>JUNIN 234</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t>ICD30682500</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables sueltos y desprolijos</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,18 +1765,18 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.374174</v>
+        <v>-58.396557</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.623403</v>
+        <v>-34.606731</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1798,15 +1798,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,18 +1829,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.394943</v>
+        <v>-58.374174</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.594725</v>
+        <v>-34.623403</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1862,15 +1862,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CABRERA, JOSE A. 5612</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30794595</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Hay un cable colgando ver fotos</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,18 +1893,18 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 3009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.438309", "y": "-34.585646"}, "direccion": "CABRERA, JOSE A. 5612, CABA", "nombre_calle": "CABRERA, JOSE A.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.438309</v>
+        <v>-58.394943</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.585646</v>
+        <v>-34.594725</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1916,25 +1916,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>4003</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>CABRERA, JOSE A. 5612</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>ICD30794595</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Hay un cable colgando ver fotos</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,30 +1957,30 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 3009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.438309", "y": "-34.585646"}, "direccion": "CABRERA, JOSE A. 5612, CABA", "nombre_calle": "CABRERA, JOSE A.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.450024</v>
+        <v>-58.438309</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.586606</v>
+        <v>-34.585646</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7217</t>
+          <t>7216</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CARRANZA, ANGEL JUSTINIANO 1135</t>
+          <t>NEWBERY, JORGE AV. 3870</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30801240</t>
+          <t>ICD30800947</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>rienda cortada reparar o retirar</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,14 +2021,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1135, "cod_calle": 3074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443900", "y": "-34.587281"}, "direccion": "CARRANZA, ANGEL JUSTINIANO 1135, CABA", "nombre_calle": "CARRANZA, ANGEL JUSTINIANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.4439</v>
+        <v>-58.450024</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.587281</v>
+        <v>-34.586606</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>7217</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2054,15 +2054,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
+          <t>CARRANZA, ANGEL JUSTINIANO 1135</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD30801756</t>
+          <t>ICD30801240</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,48 +2085,48 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1135, "cod_calle": 3074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443900", "y": "-34.587281"}, "direccion": "CARRANZA, ANGEL JUSTINIANO 1135, CABA", "nombre_calle": "CARRANZA, ANGEL JUSTINIANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.420687</v>
+        <v>-58.4439</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.614694</v>
+        <v>-34.587281</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7226</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AMENABAR 3517</t>
+          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30814275</t>
+          <t>ICD30801756</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,30 +2149,30 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.469459</v>
+        <v>-58.420687</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.550903</v>
+        <v>-34.614694</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>7226</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2182,15 +2182,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>AMENABAR 3517</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>ICD30814275</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2213,18 +2213,18 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.444861</v>
+        <v>-58.469459</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.586807</v>
+        <v>-34.550903</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3637</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2246,15 +2246,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 4126</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD30814443</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,18 +2277,18 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4126, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484778", "y": "-34.635966"}, "direccion": "FALCON, RAMON L.,CNEL. 4126, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.484778</v>
+        <v>-58.444861</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.635966</v>
+        <v>-34.586807</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2300,25 +2300,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>FALCON, RAMON L.,CNEL. 4126</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>ICD30814443</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,30 +2341,30 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4126, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484778", "y": "-34.635966"}, "direccion": "FALCON, RAMON L.,CNEL. 4126, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.358272</v>
+        <v>-58.484778</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.637051</v>
+        <v>-34.635966</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2374,15 +2374,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NOGOYA 4098</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ICD30831662</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Caja de empalme tirada en el piso</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2405,30 +2405,30 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4098, "cod_calle": 14025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502950", "y": "-34.609516"}, "direccion": "NOGOYA 4098, CABA", "nombre_calle": "NOGOYA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.50295</v>
+        <v>-58.358272</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.609516</v>
+        <v>-34.637051</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3567</t>
+          <t>3610</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CONCORDIA 4686</t>
+          <t>NOGOYA 4098</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD30831757</t>
+          <t>ICD30831662</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Caja de empalme tirada en el piso</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2469,18 +2469,18 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4098, "cod_calle": 14025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502950", "y": "-34.609516"}, "direccion": "NOGOYA 4098, CABA", "nombre_calle": "NOGOYA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-58.510011</v>
+        <v>-58.50295</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.591402</v>
+        <v>-34.609516</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2492,7 +2492,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3562</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GONZALEZ, ELPIDIO 2749</t>
+          <t>CONCORDIA 4686</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICD30831942</t>
+          <t>ICD30831757</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cable en panza cable cortado</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2533,14 +2533,14 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2749, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481266", "y": "-34.608522"}, "direccion": "GONZALEZ, ELPIDIO 2749, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>-58.481266</v>
+        <v>-58.510011</v>
       </c>
       <c r="L33" t="n">
-        <v>-34.608522</v>
+        <v>-34.591402</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2556,17 +2556,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3551</t>
+          <t>3562</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NUEVA YORK 3307</t>
+          <t>GONZALEZ, ELPIDIO 2749</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30831942</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cables en panza y cables cortados</t>
+          <t>Cable en panza cable cortado</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2597,14 +2597,14 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2749, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481266", "y": "-34.608522"}, "direccion": "GONZALEZ, ELPIDIO 2749, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>-58.503245</v>
+        <v>-58.481266</v>
       </c>
       <c r="L34" t="n">
-        <v>-34.594867</v>
+        <v>-34.608522</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2620,17 +2620,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3212</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 2094</t>
+          <t>NUEVA YORK 3307</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pendiente</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cable en Panza</t>
+          <t>Cables en panza y cables cortados</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2661,18 +2661,18 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2094, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493657", "y": "-34.613527"}, "direccion": "LAMARCA, EMILIO 2094, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-58.493657</v>
+        <v>-58.503245</v>
       </c>
       <c r="L35" t="n">
-        <v>-34.613527</v>
+        <v>-34.594867</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2684,25 +2684,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5787</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GAONA AV. 4102</t>
+          <t>LAMARCA, EMILIO 2094</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30951611</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Bajada de cliente colgando a baja altura</t>
+          <t>Cable en Panza</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2725,14 +2725,14 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4102, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481890", "y": "-34.624370"}, "direccion": "GAONA AV. 4102, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2094, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493657", "y": "-34.613527"}, "direccion": "LAMARCA, EMILIO 2094, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>-58.48189</v>
+        <v>-58.493657</v>
       </c>
       <c r="L36" t="n">
-        <v>-34.62437</v>
+        <v>-34.613527</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>5787</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2758,15 +2758,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3017</t>
+          <t>GAONA AV. 4102</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30934706</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Bajada de cliente colgando a baja altura</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2789,30 +2789,30 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4102, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481890", "y": "-34.624370"}, "direccion": "GAONA AV. 4102, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>-58.405983</v>
+        <v>-58.48189</v>
       </c>
       <c r="L37" t="n">
-        <v>-34.637104</v>
+        <v>-34.62437</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3219</t>
+          <t>CASEROS AV. 3017</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2830,44 +2830,1068 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
+          <t>ICD30925340</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>-58.405983</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-34.637104</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CASEROS AV. 3219</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ICD30925391</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>-58.40948</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-34.637709</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7269</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BACACAY 2936</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>7</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ICD30951858</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2936, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471106", "y": "-34.628593"}, "direccion": "BACACAY 2936, CABA", "nombre_calle": "BACACAY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>-58.471106</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-34.628593</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>7276</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>LA FRONDA 1684</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>11</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ICD30952118</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Baja de cliente a baja altura y agarrada a la columna</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1684, "cod_calle": 12022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469037", "y": "-34.610941"}, "direccion": "LA FRONDA 1684, CABA", "nombre_calle": "LA FRONDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>-58.469037</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-34.610941</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>7279</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BACACAY 915</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>Pendiente ADM</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Cable cortados y en panza</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 915, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.442669", "y": "-34.618300"}, "direccion": "BACACAY 915, CABA", "nombre_calle": "BACACAY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>-58.442669</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-34.6183</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ORTEGA 974</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Cable en panza y cortado</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>-58.445007</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-34.614987</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7281</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AZURDUY JUANA 2449</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>13</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ICD30952422</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Cable en panza y cortado</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>-58.467279</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-34.551117</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3069</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PJE. CAPITAN SAMUEL SPIRO 5996</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ICD30952704</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Cable colgando</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 5996, "cod_calle": 20114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504798", "y": "-34.649012"}, "direccion": "SPIRO, SAMUEL, CAPITAN 5996, CABA", "nombre_calle": "SPIRO, SAMUEL, CAPITAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>-58.504798</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-34.649012</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3136</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GAONA AV. 4565</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>10</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ICD30952712</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Tendido a Baja altura</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4565, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487324", "y": "-34.626415"}, "direccion": "GAONA AV. 4565, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>-58.487324</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-34.626415</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3145</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>INCLAN 4329</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>Tendido a baja altura</t>
         </is>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>-58.40948</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-34.637709</v>
-      </c>
-      <c r="M38" t="inlineStr">
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>-58.424297</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-34.633565</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3221</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GONZALEZ, ELPIDIO 4649</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>10</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ICD30952949</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Tendido aereo a baja altura</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4649, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501345", "y": "-34.621591"}, "direccion": "GONZALEZ, ELPIDIO 4649, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>-58.501345</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-34.621591</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3213</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ALVAREZ JONTE AV. 3705</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>11</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ICD30954655</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3705, "cod_calle": 1056, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493649", "y": "-34.613319"}, "direccion": "ALVAREZ JONTE AV. 3705, CABA", "nombre_calle": "ALVAREZ JONTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>-58.493649</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-34.613319</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>9/22/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>RONDEAU 1501</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>-58.386725</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-34.632368</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>San Telmo</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2697</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>9/24/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mendoza 2299</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>13</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura y sin tensar</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>-58.456424</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-34.560403</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2725</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>9/24/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>QUEVEDO 3352</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>11</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3352, "cod_calle": 18006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518104", "y": "-34.611915"}, "direccion": "QUEVEDO 3352, CABA", "nombre_calle": "QUEVEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>-58.518104</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-34.611915</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2729</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>9/24/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SANABRIA 4785</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>11</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Cables cortados</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>-58.520172</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-34.596414</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2921</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>9/24/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SARMIENTO 4270</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>-58.425368</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-34.604407</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31065552</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3892,6 +3892,454 @@
         </is>
       </c>
       <c r="N54" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>7289</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>9/24/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ARANGUREN, JUAN F., DR. 1382</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Cable cortado</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1382, "cod_calle": 1094, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451613", "y": "-34.618254"}, "direccion": "ARANGUREN, JUAN F., DR. 1382, CABA", "nombre_calle": "ARANGUREN, JUAN F., DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>-58.451613</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-34.618254</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>7304</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>9/25/2025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>WASHINGTON 3926</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>12</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ICD31075927</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3926, "cod_calle": 24003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482836", "y": "-34.552950"}, "direccion": "WASHINGTON 3926, CABA", "nombre_calle": "WASHINGTON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>-58.482836</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-34.55295</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>7312</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>9/25/2025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BOGOTA 2902</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>7</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ICD31076138</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura y cortado</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2902, "cod_calle": 2090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471303", "y": "-34.627529"}, "direccion": "BOGOTA 2902, CABA", "nombre_calle": "BOGOTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>-58.471303</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-34.627529</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>7319</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>9/26/2025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ALBERDI, JUAN BAUTISTA AV. 1723</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1723, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453202", "y": "-34.628031"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1723, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>-58.453202</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-34.628031</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>7322</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>9/26/2025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MORENO, JOSE MARIA AV. 864</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>7</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 864, "cod_calle": 13128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.433574", "y": "-34.628743"}, "direccion": "MORENO, JOSE MARIA AV. 864, CABA", "nombre_calle": "MORENO, JOSE MARIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>-58.433574</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-34.628743</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>9/26/2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CORDOBA AV. 3421</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>2</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cable a baja altura </t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>-58.414916</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-34.597799</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2569</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>9/26/2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>LAUTARO 1250</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>7</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>CAbles a baja altura</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1250, "cod_calle": 12086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.449719", "y": "-34.640108"}, "direccion": "LAUTARO 1250, CABA", "nombre_calle": "LAUTARO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>-58.449719</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-34.640108</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,7 +700,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6087</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -710,15 +710,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ROSETI 436</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30377406</t>
+          <t>ICD30399224</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,30 +741,30 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 436, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450100", "y": "-34.584687"}, "direccion": "ROSETI 436, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.4501</v>
+        <v>-58.355342</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.584687</v>
+        <v>-34.63565</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>6940</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>PERDRIEL 1490</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -782,7 +782,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICD30399224</t>
+          <t>ICD30399377</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,14 +805,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.355342</v>
+        <v>-58.385244</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.63565</v>
+        <v>-34.651701</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -828,25 +828,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6937</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANCHORENA, TOMAS MANUEL DE, DR. 1566</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICD30399267</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +869,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1566, "cod_calle": 1078, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403659", "y": "-34.591997"}, "direccion": "ANCHORENA, TOMAS MANUEL DE, DR. 1566, CABA", "nombre_calle": "ANCHORENA, TOMAS MANUEL DE, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.403659</v>
+        <v>-58.416595</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.591997</v>
+        <v>-34.65375</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,25 +892,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PERDRIEL 1490</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30399377</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,18 +933,18 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.385244</v>
+        <v>-58.435519</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.651701</v>
+        <v>-34.566886</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -956,25 +956,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.416595</v>
+        <v>-58.43774</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.65375</v>
+        <v>-34.565577</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1020,25 +1020,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1061,18 +1061,18 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.435519</v>
+        <v>-58.401027</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.566886</v>
+        <v>-34.625071</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1084,25 +1084,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1125,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.43774</v>
+        <v>-58.371599</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.565577</v>
+        <v>-34.623098</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,25 +1148,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5772</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MALABIA 1648</t>
+          <t>JUNIN 234</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30449417</t>
+          <t>ICD30682500</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cable sueltos y cortados</t>
+          <t>Cables sueltos y desprolijos</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,18 +1189,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1648, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426578", "y": "-34.590461"}, "direccion": "MALABIA 1648, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.426578</v>
+        <v>-58.396557</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.590461</v>
+        <v>-34.606731</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1212,25 +1212,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5779</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GUATEMALA 4551</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30449427</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,18 +1253,18 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4551, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423098", "y": "-34.587342"}, "direccion": "GUATEMALA 4551, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.423098</v>
+        <v>-58.374174</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.587342</v>
+        <v>-34.623403</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1276,25 +1276,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5648</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NAZCA AV. 620</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30453627</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,40 +1317,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 14012, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472312", "y": "-34.624976"}, "direccion": "NAZCA AV. 620, CABA", "nombre_calle": "NAZCA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.472312</v>
+        <v>-58.394943</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.624976</v>
+        <v>-34.594725</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5117</t>
+          <t>7216</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8/22/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ARENAL, CONCEPCION 3470</t>
+          <t>NEWBERY, JORGE AV. 3870</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30465386</t>
+          <t>ICD30800947</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>rienda cortada reparar o retirar</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,14 +1381,14 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 1103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446142", "y": "-34.583381"}, "direccion": "ARENAL, CONCEPCION 3470, CABA", "nombre_calle": "ARENAL, CONCEPCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.446142</v>
+        <v>-58.450024</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.583381</v>
+        <v>-34.586606</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1404,25 +1404,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30801756</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,18 +1445,18 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.401027</v>
+        <v>-58.420687</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.625071</v>
+        <v>-34.614694</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1468,25 +1468,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>7226</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>AMENABAR 3517</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30814275</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1509,48 +1509,48 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.371599</v>
+        <v>-58.469459</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.623098</v>
+        <v>-34.550903</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 2633</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30593883</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,48 +1573,48 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2633, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404367", "y": "-34.598010"}, "direccion": "CORDOBA AV. 2633, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.404367</v>
+        <v>-58.444861</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.59801</v>
+        <v>-34.586807</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3798</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 1559</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30593920</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tendido a baja altura obstaculiza contenedores</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,14 +1637,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1559, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388501", "y": "-34.608971"}, "direccion": "RIVADAVIA AV. 1559, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.388501</v>
+        <v>-58.358272</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.608971</v>
+        <v>-34.637051</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1660,25 +1660,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>3610</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9/2/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SOLER 4197</t>
+          <t>NOGOYA 4098</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30626824</t>
+          <t>ICD30831662</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme tirada en el piso</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,48 +1701,48 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4197, "cod_calle": 20104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420092", "y": "-34.590101"}, "direccion": "SOLER 4197, CABA", "nombre_calle": "SOLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4098, "cod_calle": 14025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502950", "y": "-34.609516"}, "direccion": "NOGOYA 4098, CABA", "nombre_calle": "NOGOYA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.420092</v>
+        <v>-58.50295</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.590101</v>
+        <v>-34.609516</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JUNIN 234</t>
+          <t>CONCORDIA 4686</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30682500</t>
+          <t>ICD30831757</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cables sueltos y desprolijos</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,48 +1765,48 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.396557</v>
+        <v>-58.510011</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.606731</v>
+        <v>-34.591402</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>NUEVA YORK 3307</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables en panza y cables cortados</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,48 +1829,48 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.374174</v>
+        <v>-58.503245</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.623403</v>
+        <v>-34.594867</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>CASEROS AV. 3017</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>ICD30925340</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,18 +1893,18 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.394943</v>
+        <v>-58.405983</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.594725</v>
+        <v>-34.637104</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1916,25 +1916,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>3498</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CABRERA, JOSE A. 5612</t>
+          <t>CASEROS AV. 3219</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30794595</t>
+          <t>ICD30925391</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hay un cable colgando ver fotos</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,18 +1957,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 3009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.438309", "y": "-34.585646"}, "direccion": "CABRERA, JOSE A. 5612, CABA", "nombre_calle": "CABRERA, JOSE A.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.438309</v>
+        <v>-58.40948</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.585646</v>
+        <v>-34.637709</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1980,25 +1980,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>7276</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>LA FRONDA 1684</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>ICD30952118</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Baja de cliente a baja altura y agarrada a la columna</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,18 +2021,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1684, "cod_calle": 12022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469037", "y": "-34.610941"}, "direccion": "LA FRONDA 1684, CABA", "nombre_calle": "LA FRONDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.450024</v>
+        <v>-58.469037</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.586606</v>
+        <v>-34.610941</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2044,25 +2044,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7217</t>
+          <t>7279</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CARRANZA, ANGEL JUSTINIANO 1135</t>
+          <t>BACACAY 915</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD30801240</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable cortados y en panza</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,48 +2085,48 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1135, "cod_calle": 3074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443900", "y": "-34.587281"}, "direccion": "CARRANZA, ANGEL JUSTINIANO 1135, CABA", "nombre_calle": "CARRANZA, ANGEL JUSTINIANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 915, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.442669", "y": "-34.618300"}, "direccion": "BACACAY 915, CABA", "nombre_calle": "BACACAY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.4439</v>
+        <v>-58.442669</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.587281</v>
+        <v>-34.6183</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
+          <t>ORTEGA 974</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30801756</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,14 +2149,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.420687</v>
+        <v>-58.445007</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.614694</v>
+        <v>-34.614987</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2172,17 +2172,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7226</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AMENABAR 3517</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD30814275</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,14 +2213,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.469459</v>
+        <v>-58.467279</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.550903</v>
+        <v>-34.551117</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2236,25 +2236,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>PJE. CAPITAN SAMUEL SPIRO 5996</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>ICD30952704</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable colgando</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,18 +2277,18 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5996, "cod_calle": 20114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504798", "y": "-34.649012"}, "direccion": "SPIRO, SAMUEL, CAPITAN 5996, CABA", "nombre_calle": "SPIRO, SAMUEL, CAPITAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.444861</v>
+        <v>-58.504798</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.586807</v>
+        <v>-34.649012</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2300,17 +2300,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3637</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 4126</t>
+          <t>GAONA AV. 4565</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD30814443</t>
+          <t>ICD30952712</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Tendido a Baja altura</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,14 +2341,14 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4126, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484778", "y": "-34.635966"}, "direccion": "FALCON, RAMON L.,CNEL. 4126, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4565, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487324", "y": "-34.626415"}, "direccion": "GAONA AV. 4565, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.484778</v>
+        <v>-58.487324</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.635966</v>
+        <v>-34.626415</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2364,25 +2364,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>INCLAN 4329</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2405,18 +2405,18 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.358272</v>
+        <v>-58.424297</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.637051</v>
+        <v>-34.633565</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2428,25 +2428,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NOGOYA 4098</t>
+          <t>GONZALEZ, ELPIDIO 4649</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD30831662</t>
+          <t>ICD30952949</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Caja de empalme tirada en el piso</t>
+          <t>Tendido aereo a baja altura</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2469,14 +2469,14 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4098, "cod_calle": 14025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502950", "y": "-34.609516"}, "direccion": "NOGOYA 4098, CABA", "nombre_calle": "NOGOYA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4649, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501345", "y": "-34.621591"}, "direccion": "GONZALEZ, ELPIDIO 4649, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-58.50295</v>
+        <v>-58.501345</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.609516</v>
+        <v>-34.621591</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2492,17 +2492,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3567</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CONCORDIA 4686</t>
+          <t>ALVAREZ JONTE AV. 3705</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICD30831757</t>
+          <t>ICD30954655</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2533,18 +2533,18 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3705, "cod_calle": 1056, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493649", "y": "-34.613319"}, "direccion": "ALVAREZ JONTE AV. 3705, CABA", "nombre_calle": "ALVAREZ JONTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>-58.510011</v>
+        <v>-58.493649</v>
       </c>
       <c r="L33" t="n">
-        <v>-34.591402</v>
+        <v>-34.613319</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2556,25 +2556,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3562</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GONZALEZ, ELPIDIO 2749</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ICD30831942</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cable en panza cable cortado</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2597,44 +2597,44 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2749, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481266", "y": "-34.608522"}, "direccion": "GONZALEZ, ELPIDIO 2749, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>-58.481266</v>
+        <v>-58.386725</v>
       </c>
       <c r="L34" t="n">
-        <v>-34.608522</v>
+        <v>-34.632368</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3551</t>
+          <t>2697</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NUEVA YORK 3307</t>
+          <t>Mendoza 2299</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cables en panza y cables cortados</t>
+          <t>Tendido a baja altura y sin tensar</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2661,18 +2661,18 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-58.503245</v>
+        <v>-58.456424</v>
       </c>
       <c r="L35" t="n">
-        <v>-34.594867</v>
+        <v>-34.560403</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2684,17 +2684,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3212</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 2094</t>
+          <t>QUEVEDO 3352</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ICD30951611</t>
+          <t>ICD31065552</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cable en Panza</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2725,14 +2725,14 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2094, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493657", "y": "-34.613527"}, "direccion": "LAMARCA, EMILIO 2094, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3352, "cod_calle": 18006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518104", "y": "-34.611915"}, "direccion": "QUEVEDO 3352, CABA", "nombre_calle": "QUEVEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>-58.493657</v>
+        <v>-58.518104</v>
       </c>
       <c r="L36" t="n">
-        <v>-34.613527</v>
+        <v>-34.611915</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2748,25 +2748,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5787</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GAONA AV. 4102</t>
+          <t>SANABRIA 4785</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ICD30934706</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Bajada de cliente colgando a baja altura</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2789,18 +2789,18 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4102, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481890", "y": "-34.624370"}, "direccion": "GAONA AV. 4102, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>-58.48189</v>
+        <v>-58.520172</v>
       </c>
       <c r="L37" t="n">
-        <v>-34.62437</v>
+        <v>-34.596414</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2812,25 +2812,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3017</t>
+          <t>SARMIENTO 4270</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ICD30925340</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2853,18 +2853,18 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>-58.405983</v>
+        <v>-58.425368</v>
       </c>
       <c r="L38" t="n">
-        <v>-34.637104</v>
+        <v>-34.604407</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2876,25 +2876,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>7289</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3219</t>
+          <t>ARANGUREN, JUAN F., DR. 1382</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ICD30925391</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable cortado</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2917,18 +2917,18 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1382, "cod_calle": 1094, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451613", "y": "-34.618254"}, "direccion": "ARANGUREN, JUAN F., DR. 1382, CABA", "nombre_calle": "ARANGUREN, JUAN F., DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>-58.40948</v>
+        <v>-58.451613</v>
       </c>
       <c r="L39" t="n">
-        <v>-34.637709</v>
+        <v>-34.618254</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2940,25 +2940,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7269</t>
+          <t>7304</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/25/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BACACAY 2936</t>
+          <t>WASHINGTON 3926</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ICD30951858</t>
+          <t>ICD31075927</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2981,18 +2981,18 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2936, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471106", "y": "-34.628593"}, "direccion": "BACACAY 2936, CABA", "nombre_calle": "BACACAY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3926, "cod_calle": 24003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482836", "y": "-34.552950"}, "direccion": "WASHINGTON 3926, CABA", "nombre_calle": "WASHINGTON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>-58.471106</v>
+        <v>-58.482836</v>
       </c>
       <c r="L40" t="n">
-        <v>-34.628593</v>
+        <v>-34.55295</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3004,25 +3004,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7276</t>
+          <t>7319</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/26/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LA FRONDA 1684</t>
+          <t>ALBERDI, JUAN BAUTISTA AV. 1723</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ICD30952118</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Baja de cliente a baja altura y agarrada a la columna</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3045,44 +3045,44 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1684, "cod_calle": 12022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469037", "y": "-34.610941"}, "direccion": "LA FRONDA 1684, CABA", "nombre_calle": "LA FRONDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1723, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453202", "y": "-34.628031"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1723, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>-58.469037</v>
+        <v>-58.453202</v>
       </c>
       <c r="L41" t="n">
-        <v>-34.610941</v>
+        <v>-34.628031</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7279</t>
+          <t>7322</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/26/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BACACAY 915</t>
+          <t>MORENO, JOSE MARIA AV. 864</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cable cortados y en panza</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3109,18 +3109,18 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 915, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.442669", "y": "-34.618300"}, "direccion": "BACACAY 915, CABA", "nombre_calle": "BACACAY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 864, "cod_calle": 13128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.433574", "y": "-34.628743"}, "direccion": "MORENO, JOSE MARIA AV. 864, CABA", "nombre_calle": "MORENO, JOSE MARIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>-58.442669</v>
+        <v>-58.433574</v>
       </c>
       <c r="L42" t="n">
-        <v>-34.6183</v>
+        <v>-34.628743</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3132,21 +3132,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/26/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ORTEGA 974</t>
+          <t>CORDOBA AV. 3421</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t xml:space="preserve">Cable a baja altura </t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3173,14 +3173,14 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>-58.445007</v>
+        <v>-58.414916</v>
       </c>
       <c r="L43" t="n">
-        <v>-34.614987</v>
+        <v>-34.597799</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3196,25 +3196,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/26/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>LAUTARO 1250</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>CAbles a baja altura</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3237,48 +3237,48 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1250, "cod_calle": 12086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.449719", "y": "-34.640108"}, "direccion": "LAUTARO 1250, CABA", "nombre_calle": "LAUTARO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>-58.467279</v>
+        <v>-58.449719</v>
       </c>
       <c r="L44" t="n">
-        <v>-34.551117</v>
+        <v>-34.640108</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3069</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PJE. CAPITAN SAMUEL SPIRO 5996</t>
+          <t>PALOS 460</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ICD30952704</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Cable colgando</t>
+          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3301,48 +3301,48 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5996, "cod_calle": 20114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504798", "y": "-34.649012"}, "direccion": "SPIRO, SAMUEL, CAPITAN 5996, CABA", "nombre_calle": "SPIRO, SAMUEL, CAPITAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>-58.504798</v>
+        <v>-58.362492</v>
       </c>
       <c r="L45" t="n">
-        <v>-34.649012</v>
+        <v>-34.635242</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GAONA AV. 4565</t>
+          <t>ROSETI 1472</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ICD30952712</t>
+          <t>ICD31266362</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tendido a Baja altura</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3365,18 +3365,18 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4565, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487324", "y": "-34.626415"}, "direccion": "GAONA AV. 4565, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>-58.487324</v>
+        <v>-58.462909</v>
       </c>
       <c r="L46" t="n">
-        <v>-34.626415</v>
+        <v>-34.581823</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3388,25 +3388,25 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>7348</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>INCLAN 4329</t>
+          <t>TERRADA 110</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>Pendiente de Carga</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3429,14 +3429,14 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 110, "cod_calle": 21021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.468880", "y": "-34.629065"}, "direccion": "TERRADA 110, CABA", "nombre_calle": "TERRADA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>-58.424297</v>
+        <v>-58.46888</v>
       </c>
       <c r="L47" t="n">
-        <v>-34.633565</v>
+        <v>-34.629065</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3452,17 +3452,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>7349</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GONZALEZ, ELPIDIO 4649</t>
+          <t>BAHIA BLANCA 1953</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ICD30952949</t>
+          <t>Pendiente de Carga</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Tendido aereo a baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -3493,14 +3493,14 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4649, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501345", "y": "-34.621591"}, "direccion": "GONZALEZ, ELPIDIO 4649, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1953, "cod_calle": 2008, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.495244", "y": "-34.616232"}, "direccion": "BAHIA BLANCA 1953, CABA", "nombre_calle": "BAHIA BLANCA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>-58.501345</v>
+        <v>-58.495244</v>
       </c>
       <c r="L48" t="n">
-        <v>-34.621591</v>
+        <v>-34.616232</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3516,25 +3516,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>7358</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ALVAREZ JONTE AV. 3705</t>
+          <t>GALENO 5349</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ICD30954655</t>
+          <t>Pendiente de Carga</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3557,14 +3557,14 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3705, "cod_calle": 1056, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493649", "y": "-34.613319"}, "direccion": "ALVAREZ JONTE AV. 3705, CABA", "nombre_calle": "ALVAREZ JONTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5349, "cod_calle": 7006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502994", "y": "-34.631506"}, "direccion": "GALENO 5349, CABA", "nombre_calle": "GALENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>-58.493649</v>
+        <v>-58.502994</v>
       </c>
       <c r="L49" t="n">
-        <v>-34.613319</v>
+        <v>-34.631506</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3574,774 +3574,6 @@
       <c r="N49" t="inlineStr">
         <is>
           <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>4249</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>9/22/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>RONDEAU 1501</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>-58.386725</v>
-      </c>
-      <c r="L50" t="n">
-        <v>-34.632368</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2697</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>9/24/2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Mendoza 2299</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>13</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura y sin tensar</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>-58.456424</v>
-      </c>
-      <c r="L51" t="n">
-        <v>-34.560403</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2725</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>9/24/2025</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>QUEVEDO 3352</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>11</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>ICD31065552</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3352, "cod_calle": 18006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518104", "y": "-34.611915"}, "direccion": "QUEVEDO 3352, CABA", "nombre_calle": "QUEVEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>-58.518104</v>
-      </c>
-      <c r="L52" t="n">
-        <v>-34.611915</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2729</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>9/24/2025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>SANABRIA 4785</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>11</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>ICD31075271</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Cables cortados</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>-58.520172</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-34.596414</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2921</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>9/24/2025</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>SARMIENTO 4270</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>5</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>-58.425368</v>
-      </c>
-      <c r="L54" t="n">
-        <v>-34.604407</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>7289</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>9/24/2025</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>ARANGUREN, JUAN F., DR. 1382</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>6</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Cable cortado</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1382, "cod_calle": 1094, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451613", "y": "-34.618254"}, "direccion": "ARANGUREN, JUAN F., DR. 1382, CABA", "nombre_calle": "ARANGUREN, JUAN F., DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>-58.451613</v>
-      </c>
-      <c r="L55" t="n">
-        <v>-34.618254</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>7304</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>9/25/2025</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>WASHINGTON 3926</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>12</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>ICD31075927</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3926, "cod_calle": 24003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482836", "y": "-34.552950"}, "direccion": "WASHINGTON 3926, CABA", "nombre_calle": "WASHINGTON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>-58.482836</v>
-      </c>
-      <c r="L56" t="n">
-        <v>-34.55295</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>7312</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>9/25/2025</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>BOGOTA 2902</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>7</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>ICD31076138</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura y cortado</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2902, "cod_calle": 2090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471303", "y": "-34.627529"}, "direccion": "BOGOTA 2902, CABA", "nombre_calle": "BOGOTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>-58.471303</v>
-      </c>
-      <c r="L57" t="n">
-        <v>-34.627529</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>7319</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>9/26/2025</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>ALBERDI, JUAN BAUTISTA AV. 1723</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>7</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1723, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453202", "y": "-34.628031"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1723, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>-58.453202</v>
-      </c>
-      <c r="L58" t="n">
-        <v>-34.628031</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>7322</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>9/26/2025</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>MORENO, JOSE MARIA AV. 864</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>7</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 864, "cod_calle": 13128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.433574", "y": "-34.628743"}, "direccion": "MORENO, JOSE MARIA AV. 864, CABA", "nombre_calle": "MORENO, JOSE MARIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>-58.433574</v>
-      </c>
-      <c r="L59" t="n">
-        <v>-34.628743</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2219</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>9/26/2025</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>CORDOBA AV. 3421</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>2</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cable a baja altura </t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>-58.414916</v>
-      </c>
-      <c r="L60" t="n">
-        <v>-34.597799</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2569</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>9/26/2025</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>LAUTARO 1250</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>7</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>CAbles a baja altura</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1250, "cod_calle": 12086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.449719", "y": "-34.640108"}, "direccion": "LAUTARO 1250, CABA", "nombre_calle": "LAUTARO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>-58.449719</v>
-      </c>
-      <c r="L61" t="n">
-        <v>-34.640108</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,25 +572,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIGUELETES 1330</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ICD30465943</t>
+          <t>ICD30345482</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,40 +613,40 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1330, "cod_calle": 13079, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440291", "y": "-34.562841"}, "direccion": "MIGUELETES 1330, CABA", "nombre_calle": "MIGUELETES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.440291</v>
+        <v>-58.360551</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.562841</v>
+        <v>-34.632684</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ICD30345482</t>
+          <t>ICD30399224</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,14 +677,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.360551</v>
+        <v>-58.355342</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.632684</v>
+        <v>-34.63565</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>6940</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>PERDRIEL 1490</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30399224</t>
+          <t>ICD30399377</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,14 +741,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.355342</v>
+        <v>-58.385244</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.63565</v>
+        <v>-34.651701</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -764,17 +764,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PERDRIEL 1490</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -782,7 +782,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICD30399377</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -805,14 +805,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.385244</v>
+        <v>-58.416595</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.651701</v>
+        <v>-34.65375</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -828,25 +828,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +869,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.416595</v>
+        <v>-58.435519</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.65375</v>
+        <v>-34.566886</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -933,14 +933,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.435519</v>
+        <v>-58.43774</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.566886</v>
+        <v>-34.565577</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -956,25 +956,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.43774</v>
+        <v>-58.401027</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.565577</v>
+        <v>-34.625071</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1020,25 +1020,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1061,14 +1061,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.401027</v>
+        <v>-58.371599</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.625071</v>
+        <v>-34.623098</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1084,25 +1084,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>JUNIN 234</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30682500</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables sueltos y desprolijos</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1125,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.371599</v>
+        <v>-58.396557</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.623098</v>
+        <v>-34.606731</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,25 +1148,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JUNIN 234</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30682500</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cables sueltos y desprolijos</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,18 +1189,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.396557</v>
+        <v>-58.374174</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.606731</v>
+        <v>-34.623403</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1222,15 +1222,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,18 +1253,18 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.374174</v>
+        <v>-58.394943</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.623403</v>
+        <v>-34.594725</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1276,25 +1276,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>7216</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>NEWBERY, JORGE AV. 3870</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>ICD30800947</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>rienda cortada reparar o retirar</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,30 +1317,30 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.394943</v>
+        <v>-58.450024</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.594725</v>
+        <v>-34.586606</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1350,15 +1350,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>ICD30801756</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,48 +1381,48 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.450024</v>
+        <v>-58.420687</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.586606</v>
+        <v>-34.614694</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>7226</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
+          <t>AMENABAR 3517</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30801756</t>
+          <t>ICD30814275</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,30 +1445,30 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.420687</v>
+        <v>-58.469459</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.614694</v>
+        <v>-34.550903</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7226</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1478,15 +1478,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AMENABAR 3517</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30814275</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1509,18 +1509,18 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.469459</v>
+        <v>-58.444861</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.550903</v>
+        <v>-34.586807</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1532,25 +1532,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,30 +1573,30 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.444861</v>
+        <v>-58.358272</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.586807</v>
+        <v>-34.637051</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>3610</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1606,15 +1606,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>NOGOYA 4098</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>ICD30831662</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme tirada en el piso</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,30 +1637,30 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4098, "cod_calle": 14025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502950", "y": "-34.609516"}, "direccion": "NOGOYA 4098, CABA", "nombre_calle": "NOGOYA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.358272</v>
+        <v>-58.50295</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.637051</v>
+        <v>-34.609516</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NOGOYA 4098</t>
+          <t>CONCORDIA 4686</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30831662</t>
+          <t>ICD30831757</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Caja de empalme tirada en el piso</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,18 +1701,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4098, "cod_calle": 14025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502950", "y": "-34.609516"}, "direccion": "NOGOYA 4098, CABA", "nombre_calle": "NOGOYA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.50295</v>
+        <v>-58.510011</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.609516</v>
+        <v>-34.591402</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1724,17 +1724,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3567</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CONCORDIA 4686</t>
+          <t>NUEVA YORK 3307</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30831757</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cables en panza y cables cortados</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,14 +1765,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.510011</v>
+        <v>-58.503245</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.591402</v>
+        <v>-34.594867</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1788,25 +1788,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3551</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NUEVA YORK 3307</t>
+          <t>CASEROS AV. 3017</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30925340</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cables en panza y cables cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,30 +1829,30 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.503245</v>
+        <v>-58.405983</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.594867</v>
+        <v>-34.637104</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>3498</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3017</t>
+          <t>CASEROS AV. 3219</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30925340</t>
+          <t>ICD30925391</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1893,14 +1893,14 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.405983</v>
+        <v>-58.40948</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.637104</v>
+        <v>-34.637709</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>7276</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1926,15 +1926,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3219</t>
+          <t>LA FRONDA 1684</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30925391</t>
+          <t>ICD30952118</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Baja de cliente a baja altura y agarrada a la columna</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,30 +1957,30 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1684, "cod_calle": 12022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469037", "y": "-34.610941"}, "direccion": "LA FRONDA 1684, CABA", "nombre_calle": "LA FRONDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.40948</v>
+        <v>-58.469037</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.637709</v>
+        <v>-34.610941</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7276</t>
+          <t>7279</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1990,15 +1990,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LA FRONDA 1684</t>
+          <t>BACACAY 915</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30952118</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Baja de cliente a baja altura y agarrada a la columna</t>
+          <t>Cable cortados y en panza</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,30 +2021,30 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1684, "cod_calle": 12022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469037", "y": "-34.610941"}, "direccion": "LA FRONDA 1684, CABA", "nombre_calle": "LA FRONDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 915, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.442669", "y": "-34.618300"}, "direccion": "BACACAY 915, CABA", "nombre_calle": "BACACAY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.469037</v>
+        <v>-58.442669</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.610941</v>
+        <v>-34.6183</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7279</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BACACAY 915</t>
+          <t>ORTEGA 974</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cable cortados y en panza</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,14 +2085,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 915, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.442669", "y": "-34.618300"}, "direccion": "BACACAY 915, CABA", "nombre_calle": "BACACAY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.442669</v>
+        <v>-58.445007</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.6183</v>
+        <v>-34.614987</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2118,15 +2118,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ORTEGA 974</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2149,30 +2149,30 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.445007</v>
+        <v>-58.467279</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.614987</v>
+        <v>-34.551117</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>3069</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2182,15 +2182,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>PJE. CAPITAN SAMUEL SPIRO 5996</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>ICD30952704</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Cable colgando</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,18 +2213,18 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5996, "cod_calle": 20114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504798", "y": "-34.649012"}, "direccion": "SPIRO, SAMUEL, CAPITAN 5996, CABA", "nombre_calle": "SPIRO, SAMUEL, CAPITAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.467279</v>
+        <v>-58.504798</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.551117</v>
+        <v>-34.649012</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3069</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2246,15 +2246,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PJE. CAPITAN SAMUEL SPIRO 5996</t>
+          <t>GAONA AV. 4565</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD30952704</t>
+          <t>ICD30952712</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cable colgando</t>
+          <t>Tendido a Baja altura</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,14 +2277,14 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5996, "cod_calle": 20114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504798", "y": "-34.649012"}, "direccion": "SPIRO, SAMUEL, CAPITAN 5996, CABA", "nombre_calle": "SPIRO, SAMUEL, CAPITAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4565, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487324", "y": "-34.626415"}, "direccion": "GAONA AV. 4565, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.504798</v>
+        <v>-58.487324</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.649012</v>
+        <v>-34.626415</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2300,7 +2300,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2310,15 +2310,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GAONA AV. 4565</t>
+          <t>INCLAN 4329</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD30952712</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tendido a Baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,30 +2341,30 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4565, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487324", "y": "-34.626415"}, "direccion": "GAONA AV. 4565, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.487324</v>
+        <v>-58.424297</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.626415</v>
+        <v>-34.633565</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>3221</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2374,15 +2374,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>INCLAN 4329</t>
+          <t>GONZALEZ, ELPIDIO 4649</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30952949</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido aereo a baja altura</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2405,30 +2405,30 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4649, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501345", "y": "-34.621591"}, "direccion": "GONZALEZ, ELPIDIO 4649, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.424297</v>
+        <v>-58.501345</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.633565</v>
+        <v>-34.621591</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2438,15 +2438,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GONZALEZ, ELPIDIO 4649</t>
+          <t>ALVAREZ JONTE AV. 3705</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD30952949</t>
+          <t>ICD30954655</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tendido aereo a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2469,14 +2469,14 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4649, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501345", "y": "-34.621591"}, "direccion": "GONZALEZ, ELPIDIO 4649, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3705, "cod_calle": 1056, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493649", "y": "-34.613319"}, "direccion": "ALVAREZ JONTE AV. 3705, CABA", "nombre_calle": "ALVAREZ JONTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-58.501345</v>
+        <v>-58.493649</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.621591</v>
+        <v>-34.613319</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2502,15 +2502,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ALVAREZ JONTE AV. 3705</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICD30954655</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2533,44 +2533,44 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3705, "cod_calle": 1056, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493649", "y": "-34.613319"}, "direccion": "ALVAREZ JONTE AV. 3705, CABA", "nombre_calle": "ALVAREZ JONTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>-58.493649</v>
+        <v>-58.386725</v>
       </c>
       <c r="L33" t="n">
-        <v>-34.613319</v>
+        <v>-34.632368</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>2697</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RONDEAU 1501</t>
+          <t>Mendoza 2299</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura y sin tensar</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2597,30 +2597,30 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>-58.386725</v>
+        <v>-58.456424</v>
       </c>
       <c r="L34" t="n">
-        <v>-34.632368</v>
+        <v>-34.560403</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2630,15 +2630,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mendoza 2299</t>
+          <t>QUEVEDO 3352</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31065552</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y sin tensar</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2661,18 +2661,18 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3352, "cod_calle": 18006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518104", "y": "-34.611915"}, "direccion": "QUEVEDO 3352, CABA", "nombre_calle": "QUEVEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-58.456424</v>
+        <v>-58.518104</v>
       </c>
       <c r="L35" t="n">
-        <v>-34.560403</v>
+        <v>-34.611915</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2684,7 +2684,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>QUEVEDO 3352</t>
+          <t>SANABRIA 4785</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ICD31065552</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2725,18 +2725,18 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3352, "cod_calle": 18006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518104", "y": "-34.611915"}, "direccion": "QUEVEDO 3352, CABA", "nombre_calle": "QUEVEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>-58.518104</v>
+        <v>-58.520172</v>
       </c>
       <c r="L36" t="n">
-        <v>-34.611915</v>
+        <v>-34.596414</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2758,15 +2758,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SANABRIA 4785</t>
+          <t>SARMIENTO 4270</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ICD31075271</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cables cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2789,30 +2789,30 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>-58.520172</v>
+        <v>-58.425368</v>
       </c>
       <c r="L37" t="n">
-        <v>-34.596414</v>
+        <v>-34.604407</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>7289</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2822,15 +2822,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SARMIENTO 4270</t>
+          <t>ARANGUREN, JUAN F., DR. 1382</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31436376</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable cortado</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2853,18 +2853,18 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1382, "cod_calle": 1094, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451613", "y": "-34.618254"}, "direccion": "ARANGUREN, JUAN F., DR. 1382, CABA", "nombre_calle": "ARANGUREN, JUAN F., DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>-58.425368</v>
+        <v>-58.451613</v>
       </c>
       <c r="L38" t="n">
-        <v>-34.604407</v>
+        <v>-34.618254</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2876,25 +2876,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7289</t>
+          <t>7304</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/25/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., DR. 1382</t>
+          <t>WASHINGTON 3926</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31075927</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cable cortado</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2917,48 +2917,48 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1382, "cod_calle": 1094, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451613", "y": "-34.618254"}, "direccion": "ARANGUREN, JUAN F., DR. 1382, CABA", "nombre_calle": "ARANGUREN, JUAN F., DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3926, "cod_calle": 24003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482836", "y": "-34.552950"}, "direccion": "WASHINGTON 3926, CABA", "nombre_calle": "WASHINGTON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>-58.451613</v>
+        <v>-58.482836</v>
       </c>
       <c r="L39" t="n">
-        <v>-34.618254</v>
+        <v>-34.55295</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7304</t>
+          <t>7319</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9/25/2025</t>
+          <t>9/26/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>WASHINGTON 3926</t>
+          <t>ALBERDI, JUAN BAUTISTA AV. 1723</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ICD31075927</t>
+          <t>ICD31436481</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2981,30 +2981,30 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3926, "cod_calle": 24003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482836", "y": "-34.552950"}, "direccion": "WASHINGTON 3926, CABA", "nombre_calle": "WASHINGTON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1723, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453202", "y": "-34.628031"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1723, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>-58.482836</v>
+        <v>-58.453202</v>
       </c>
       <c r="L40" t="n">
-        <v>-34.55295</v>
+        <v>-34.628031</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7319</t>
+          <t>7322</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ALBERDI, JUAN BAUTISTA AV. 1723</t>
+          <t>MORENO, JOSE MARIA AV. 864</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31436610</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3045,14 +3045,14 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1723, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453202", "y": "-34.628031"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1723, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 864, "cod_calle": 13128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.433574", "y": "-34.628743"}, "direccion": "MORENO, JOSE MARIA AV. 864, CABA", "nombre_calle": "MORENO, JOSE MARIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>-58.453202</v>
+        <v>-58.433574</v>
       </c>
       <c r="L41" t="n">
-        <v>-34.628031</v>
+        <v>-34.628743</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7322</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3078,15 +3078,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 864</t>
+          <t>CORDOBA AV. 3421</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31437105</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t xml:space="preserve">Cable a baja altura </t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3109,18 +3109,18 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 864, "cod_calle": 13128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.433574", "y": "-34.628743"}, "direccion": "MORENO, JOSE MARIA AV. 864, CABA", "nombre_calle": "MORENO, JOSE MARIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>-58.433574</v>
+        <v>-58.414916</v>
       </c>
       <c r="L42" t="n">
-        <v>-34.628743</v>
+        <v>-34.597799</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2219</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3142,15 +3142,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 3421</t>
+          <t>LAUTARO 1250</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31437222</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cable a baja altura </t>
+          <t>CAbles a baja altura</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3173,18 +3173,18 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1250, "cod_calle": 12086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.449719", "y": "-34.640108"}, "direccion": "LAUTARO 1250, CABA", "nombre_calle": "LAUTARO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>-58.414916</v>
+        <v>-58.449719</v>
       </c>
       <c r="L43" t="n">
-        <v>-34.597799</v>
+        <v>-34.640108</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3196,25 +3196,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>9/26/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LAUTARO 1250</t>
+          <t>PALOS 460</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31437928</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>CAbles a baja altura</t>
+          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3237,18 +3237,18 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1250, "cod_calle": 12086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.449719", "y": "-34.640108"}, "direccion": "LAUTARO 1250, CABA", "nombre_calle": "LAUTARO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>-58.449719</v>
+        <v>-58.362492</v>
       </c>
       <c r="L44" t="n">
-        <v>-34.640108</v>
+        <v>-34.635242</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3260,7 +3260,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3270,15 +3270,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PALOS 460</t>
+          <t>ROSETI 1472</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31266362</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3301,30 +3301,30 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>-58.362492</v>
+        <v>-58.462909</v>
       </c>
       <c r="L45" t="n">
-        <v>-34.635242</v>
+        <v>-34.581823</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>7348</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3334,15 +3334,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ROSETI 1472</t>
+          <t>TERRADA 110</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ICD31266362</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3365,30 +3365,30 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 110, "cod_calle": 21021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.468880", "y": "-34.629065"}, "direccion": "TERRADA 110, CABA", "nombre_calle": "TERRADA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>-58.462909</v>
+        <v>-58.46888</v>
       </c>
       <c r="L46" t="n">
-        <v>-34.581823</v>
+        <v>-34.629065</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7348</t>
+          <t>7349</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3398,15 +3398,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TERRADA 110</t>
+          <t>BAHIA BLANCA 1953</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Pendiente de Carga</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3429,30 +3429,30 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 110, "cod_calle": 21021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.468880", "y": "-34.629065"}, "direccion": "TERRADA 110, CABA", "nombre_calle": "TERRADA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1953, "cod_calle": 2008, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.495244", "y": "-34.616232"}, "direccion": "BAHIA BLANCA 1953, CABA", "nombre_calle": "BAHIA BLANCA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>-58.46888</v>
+        <v>-58.495244</v>
       </c>
       <c r="L47" t="n">
-        <v>-34.629065</v>
+        <v>-34.616232</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7349</t>
+          <t>7358</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BAHIA BLANCA 1953</t>
+          <t>GALENO 5349</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pendiente de Carga</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3493,14 +3493,14 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1953, "cod_calle": 2008, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.495244", "y": "-34.616232"}, "direccion": "BAHIA BLANCA 1953, CABA", "nombre_calle": "BAHIA BLANCA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5349, "cod_calle": 7006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502994", "y": "-34.631506"}, "direccion": "GALENO 5349, CABA", "nombre_calle": "GALENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>-58.495244</v>
+        <v>-58.502994</v>
       </c>
       <c r="L48" t="n">
-        <v>-34.616232</v>
+        <v>-34.631506</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3516,25 +3516,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7358</t>
+          <t>7370</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>9/30/2025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GALENO 5349</t>
+          <t>LA PAMPA 3621</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Pendiente de Carga</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3557,23 +3557,407 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5349, "cod_calle": 7006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502994", "y": "-34.631506"}, "direccion": "GALENO 5349, CABA", "nombre_calle": "GALENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3621, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466333", "y": "-34.571822"}, "direccion": "LA PAMPA 3621, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>-58.502994</v>
+        <v>-58.466333</v>
       </c>
       <c r="L49" t="n">
-        <v>-34.631506</v>
+        <v>-34.571822</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>7376</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10/2/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CALAZA, JOSE MARIA 1571</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>9</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Cable cortado</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1571, "cod_calle": 3019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466804", "y": "-34.648650"}, "direccion": "CALAZA, JOSE MARIA 1571, CABA", "nombre_calle": "CALAZA, JOSE MARIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>-58.466804</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-34.64865</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
           <t>Devoto</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>7398</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>10/2/2025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GORDILLO, TIMOTEO 668</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>9</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 668, "cod_calle": 7070, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.521513", "y": "-34.646130"}, "direccion": "GORDILLO, TIMOTEO 668, CABA", "nombre_calle": "GORDILLO, TIMOTEO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>-58.521513</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-34.64613</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>7406</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>10/2/2025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>FRANKLIN 871</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>6</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 871, "cod_calle": 6053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445664", "y": "-34.609392"}, "direccion": "FRANKLIN 871, CABA", "nombre_calle": "FRANKLIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>-58.445664</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-34.609392</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>7407</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>10/2/2025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>GAINZA, MARTIN DE, GRAL. 993</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 993, "cod_calle": 7003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446516", "y": "-34.609820"}, "direccion": "GAINZA, MARTIN DE, GRAL. 993, CABA", "nombre_calle": "GAINZA, MARTIN DE, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>-58.446516</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-34.60982</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1138</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>10/2/2025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CULLEN 5085</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>12</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 5085, "cod_calle": 3202, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487797", "y": "-34.572787"}, "direccion": "CULLEN 5085, CABA", "nombre_calle": "CULLEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>-58.487797</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-34.572787</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10/2/2025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>YERBAL 1301</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>6</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tendido aereo cortado </t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>-58.44871</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-34.622159</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1596,7 +1596,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3610</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NOGOYA 4098</t>
+          <t>CONCORDIA 4686</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30831662</t>
+          <t>ICD30831757</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Caja de empalme tirada en el piso</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,18 +1637,18 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4098, "cod_calle": 14025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502950", "y": "-34.609516"}, "direccion": "NOGOYA 4098, CABA", "nombre_calle": "NOGOYA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.50295</v>
+        <v>-58.510011</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.609516</v>
+        <v>-34.591402</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1660,17 +1660,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3567</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CONCORDIA 4686</t>
+          <t>NUEVA YORK 3307</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30831757</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cables en panza y cables cortados</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,14 +1701,14 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.510011</v>
+        <v>-58.503245</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.591402</v>
+        <v>-34.594867</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1724,25 +1724,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3551</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NUEVA YORK 3307</t>
+          <t>CASEROS AV. 3017</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30925340</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cables en panza y cables cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,30 +1765,30 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.503245</v>
+        <v>-58.405983</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.594867</v>
+        <v>-34.637104</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>3498</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3017</t>
+          <t>CASEROS AV. 3219</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30925340</t>
+          <t>ICD30925391</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1829,14 +1829,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.405983</v>
+        <v>-58.40948</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.637104</v>
+        <v>-34.637709</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1862,15 +1862,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3219</t>
+          <t>ORTEGA 974</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30925391</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,18 +1893,18 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.40948</v>
+        <v>-58.445007</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.637709</v>
+        <v>-34.614987</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1916,7 +1916,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7276</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1926,15 +1926,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LA FRONDA 1684</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30952118</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Baja de cliente a baja altura y agarrada a la columna</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,18 +1957,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1684, "cod_calle": 12022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469037", "y": "-34.610941"}, "direccion": "LA FRONDA 1684, CABA", "nombre_calle": "LA FRONDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.469037</v>
+        <v>-58.467279</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.610941</v>
+        <v>-34.551117</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1980,7 +1980,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7279</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1990,15 +1990,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BACACAY 915</t>
+          <t>GAONA AV. 4565</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30952712</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cable cortados y en panza</t>
+          <t>Tendido a Baja altura</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,30 +2021,30 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 915, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.442669", "y": "-34.618300"}, "direccion": "BACACAY 915, CABA", "nombre_calle": "BACACAY", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4565, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487324", "y": "-34.626415"}, "direccion": "GAONA AV. 4565, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.442669</v>
+        <v>-58.487324</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.6183</v>
+        <v>-34.626415</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2054,11 +2054,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ORTEGA 974</t>
+          <t>INCLAN 4329</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,18 +2085,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.445007</v>
+        <v>-58.424297</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.614987</v>
+        <v>-34.633565</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2108,7 +2108,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2118,15 +2118,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,48 +2149,48 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.467279</v>
+        <v>-58.386725</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.551117</v>
+        <v>-34.632368</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3069</t>
+          <t>2697</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PJE. CAPITAN SAMUEL SPIRO 5996</t>
+          <t>Mendoza 2299</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD30952704</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cable colgando</t>
+          <t>Tendido a baja altura y sin tensar</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,18 +2213,18 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5996, "cod_calle": 20114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504798", "y": "-34.649012"}, "direccion": "SPIRO, SAMUEL, CAPITAN 5996, CABA", "nombre_calle": "SPIRO, SAMUEL, CAPITAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.504798</v>
+        <v>-58.456424</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.649012</v>
+        <v>-34.560403</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2236,25 +2236,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GAONA AV. 4565</t>
+          <t>QUEVEDO 3352</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD30952712</t>
+          <t>ICD31065552</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tendido a Baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,14 +2277,14 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4565, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487324", "y": "-34.626415"}, "direccion": "GAONA AV. 4565, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3352, "cod_calle": 18006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518104", "y": "-34.611915"}, "direccion": "QUEVEDO 3352, CABA", "nombre_calle": "QUEVEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.487324</v>
+        <v>-58.518104</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.626415</v>
+        <v>-34.611915</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -2300,25 +2300,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>INCLAN 4329</t>
+          <t>SANABRIA 4785</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,48 +2341,48 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.424297</v>
+        <v>-58.520172</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.633565</v>
+        <v>-34.596414</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3221</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GONZALEZ, ELPIDIO 4649</t>
+          <t>SARMIENTO 4270</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ICD30952949</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tendido aereo a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2405,48 +2405,48 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4649, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501345", "y": "-34.621591"}, "direccion": "GONZALEZ, ELPIDIO 4649, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.501345</v>
+        <v>-58.425368</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.621591</v>
+        <v>-34.604407</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>7304</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/25/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ALVAREZ JONTE AV. 3705</t>
+          <t>WASHINGTON 3926</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD30954655</t>
+          <t>ICD31075927</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2469,18 +2469,18 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3705, "cod_calle": 1056, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493649", "y": "-34.613319"}, "direccion": "ALVAREZ JONTE AV. 3705, CABA", "nombre_calle": "ALVAREZ JONTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3926, "cod_calle": 24003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482836", "y": "-34.552950"}, "direccion": "WASHINGTON 3926, CABA", "nombre_calle": "WASHINGTON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-58.493649</v>
+        <v>-58.482836</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.613319</v>
+        <v>-34.55295</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2492,25 +2492,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>7322</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/26/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RONDEAU 1501</t>
+          <t>MORENO, JOSE MARIA AV. 864</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31436610</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2533,18 +2533,18 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 864, "cod_calle": 13128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.433574", "y": "-34.628743"}, "direccion": "MORENO, JOSE MARIA AV. 864, CABA", "nombre_calle": "MORENO, JOSE MARIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>-58.386725</v>
+        <v>-58.433574</v>
       </c>
       <c r="L33" t="n">
-        <v>-34.632368</v>
+        <v>-34.628743</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2556,25 +2556,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/26/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mendoza 2299</t>
+          <t>CORDOBA AV. 3421</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31437105</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y sin tensar</t>
+          <t xml:space="preserve">Cable a baja altura </t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2597,48 +2597,48 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>-58.456424</v>
+        <v>-58.414916</v>
       </c>
       <c r="L34" t="n">
-        <v>-34.560403</v>
+        <v>-34.597799</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2569</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/26/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>QUEVEDO 3352</t>
+          <t>LAUTARO 1250</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ICD31065552</t>
+          <t>ICD31437222</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>CAbles a baja altura</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2661,48 +2661,48 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3352, "cod_calle": 18006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518104", "y": "-34.611915"}, "direccion": "QUEVEDO 3352, CABA", "nombre_calle": "QUEVEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1250, "cod_calle": 12086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.449719", "y": "-34.640108"}, "direccion": "LAUTARO 1250, CABA", "nombre_calle": "LAUTARO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-58.518104</v>
+        <v>-58.449719</v>
       </c>
       <c r="L35" t="n">
-        <v>-34.611915</v>
+        <v>-34.640108</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SANABRIA 4785</t>
+          <t>PALOS 460</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ICD31075271</t>
+          <t>ICD31437928</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cables cortados</t>
+          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2725,48 +2725,48 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>-58.520172</v>
+        <v>-58.362492</v>
       </c>
       <c r="L36" t="n">
-        <v>-34.596414</v>
+        <v>-34.635242</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SARMIENTO 4270</t>
+          <t>ROSETI 1472</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31266362</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2789,48 +2789,48 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>-58.425368</v>
+        <v>-58.462909</v>
       </c>
       <c r="L37" t="n">
-        <v>-34.604407</v>
+        <v>-34.581823</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7289</t>
+          <t>7370</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/30/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., DR. 1382</t>
+          <t>LA PAMPA 3621</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ICD31436376</t>
+          <t>ICD31454876</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cable cortado</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2853,48 +2853,48 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1382, "cod_calle": 1094, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451613", "y": "-34.618254"}, "direccion": "ARANGUREN, JUAN F., DR. 1382, CABA", "nombre_calle": "ARANGUREN, JUAN F., DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3621, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466333", "y": "-34.571822"}, "direccion": "LA PAMPA 3621, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>-58.451613</v>
+        <v>-58.466333</v>
       </c>
       <c r="L38" t="n">
-        <v>-34.618254</v>
+        <v>-34.571822</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7304</t>
+          <t>7376</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9/25/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WASHINGTON 3926</t>
+          <t>CALAZA, JOSE MARIA 1571</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ICD31075927</t>
+          <t>ICD31450528</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable cortado</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2917,18 +2917,18 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3926, "cod_calle": 24003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482836", "y": "-34.552950"}, "direccion": "WASHINGTON 3926, CABA", "nombre_calle": "WASHINGTON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1571, "cod_calle": 3019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466804", "y": "-34.648650"}, "direccion": "CALAZA, JOSE MARIA 1571, CABA", "nombre_calle": "CALAZA, JOSE MARIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>-58.482836</v>
+        <v>-58.466804</v>
       </c>
       <c r="L39" t="n">
-        <v>-34.55295</v>
+        <v>-34.64865</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2940,25 +2940,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7319</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9/26/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ALBERDI, JUAN BAUTISTA AV. 1723</t>
+          <t>CULLEN 5085</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ICD31436481</t>
+          <t>ICD31451088</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2981,48 +2981,48 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1723, "cod_calle": 1033, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453202", "y": "-34.628031"}, "direccion": "ALBERDI, JUAN BAUTISTA AV. 1723, CABA", "nombre_calle": "ALBERDI, JUAN BAUTISTA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5085, "cod_calle": 3202, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487797", "y": "-34.572787"}, "direccion": "CULLEN 5085, CABA", "nombre_calle": "CULLEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>-58.453202</v>
+        <v>-58.487797</v>
       </c>
       <c r="L40" t="n">
-        <v>-34.628031</v>
+        <v>-34.572787</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7322</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>9/26/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 864</t>
+          <t>YERBAL 1301</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ICD31436610</t>
+          <t>ICD31456923</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t xml:space="preserve">Tendido aereo cortado </t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3045,14 +3045,14 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 864, "cod_calle": 13128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.433574", "y": "-34.628743"}, "direccion": "MORENO, JOSE MARIA AV. 864, CABA", "nombre_calle": "MORENO, JOSE MARIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>-58.433574</v>
+        <v>-58.44871</v>
       </c>
       <c r="L41" t="n">
-        <v>-34.628743</v>
+        <v>-34.622159</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3068,25 +3068,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2219</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9/26/2025</t>
+          <t>10/6/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 3421</t>
+          <t>MORENO 2977</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ICD31437105</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cable a baja altura </t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3109,14 +3109,14 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2977, "cod_calle": 13126, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407981", "y": "-34.613828"}, "direccion": "MORENO 2977, CABA", "nombre_calle": "MORENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 4108, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454254", "y": "-34.650857"}, "direccion": "MORENO, PERITO AV. 2977, CABA", "nombre_calle": "MORENO, PERITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 6063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461849", "y": "-34.640198"}, "direccion": "FERNANDEZ MORENO, BALDOMERO 2977, CABA", "nombre_calle": "FERNANDEZ MORENO, BALDOMERO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>-58.414916</v>
+        <v>-58.407981</v>
       </c>
       <c r="L42" t="n">
-        <v>-34.597799</v>
+        <v>-34.613828</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3132,25 +3132,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>7432</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9/26/2025</t>
+          <t>10/6/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LAUTARO 1250</t>
+          <t>AMENABAR 3517</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ICD31437222</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>CAbles a baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3173,791 +3173,23 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1250, "cod_calle": 12086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.449719", "y": "-34.640108"}, "direccion": "LAUTARO 1250, CABA", "nombre_calle": "LAUTARO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>-58.449719</v>
+        <v>-58.469459</v>
       </c>
       <c r="L43" t="n">
-        <v>-34.640108</v>
+        <v>-34.550903</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>5971</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>9/29/2025</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>PALOS 460</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>4</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>ICD31437928</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>-58.362492</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-34.635242</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2982</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>9/29/2025</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>ROSETI 1472</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>15</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ICD31266362</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Caja de empalme colgando</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>-58.462909</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-34.581823</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
           <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>7348</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>9/29/2025</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>TERRADA 110</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>7</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 110, "cod_calle": 21021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.468880", "y": "-34.629065"}, "direccion": "TERRADA 110, CABA", "nombre_calle": "TERRADA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>-58.46888</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-34.629065</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>7349</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>9/29/2025</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>BAHIA BLANCA 1953</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1953, "cod_calle": 2008, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.495244", "y": "-34.616232"}, "direccion": "BAHIA BLANCA 1953, CABA", "nombre_calle": "BAHIA BLANCA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>-58.495244</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-34.616232</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>7358</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>9/29/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>GALENO 5349</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>10</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5349, "cod_calle": 7006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502994", "y": "-34.631506"}, "direccion": "GALENO 5349, CABA", "nombre_calle": "GALENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>-58.502994</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-34.631506</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>7370</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>9/30/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>LA PAMPA 3621</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>13</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3621, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466333", "y": "-34.571822"}, "direccion": "LA PAMPA 3621, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>-58.466333</v>
-      </c>
-      <c r="L49" t="n">
-        <v>-34.571822</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>7376</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>10/2/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>CALAZA, JOSE MARIA 1571</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>9</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Cable cortado</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1571, "cod_calle": 3019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466804", "y": "-34.648650"}, "direccion": "CALAZA, JOSE MARIA 1571, CABA", "nombre_calle": "CALAZA, JOSE MARIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>-58.466804</v>
-      </c>
-      <c r="L50" t="n">
-        <v>-34.64865</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>7398</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>10/2/2025</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>GORDILLO, TIMOTEO 668</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>9</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 668, "cod_calle": 7070, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.521513", "y": "-34.646130"}, "direccion": "GORDILLO, TIMOTEO 668, CABA", "nombre_calle": "GORDILLO, TIMOTEO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>-58.521513</v>
-      </c>
-      <c r="L51" t="n">
-        <v>-34.64613</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>7406</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>10/2/2025</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>FRANKLIN 871</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>6</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 871, "cod_calle": 6053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445664", "y": "-34.609392"}, "direccion": "FRANKLIN 871, CABA", "nombre_calle": "FRANKLIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>-58.445664</v>
-      </c>
-      <c r="L52" t="n">
-        <v>-34.609392</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>7407</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>10/2/2025</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>GAINZA, MARTIN DE, GRAL. 993</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>6</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 993, "cod_calle": 7003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446516", "y": "-34.609820"}, "direccion": "GAINZA, MARTIN DE, GRAL. 993, CABA", "nombre_calle": "GAINZA, MARTIN DE, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>-58.446516</v>
-      </c>
-      <c r="L53" t="n">
-        <v>-34.60982</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>1138</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>10/2/2025</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>CULLEN 5085</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>12</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5085, "cod_calle": 3202, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487797", "y": "-34.572787"}, "direccion": "CULLEN 5085, CABA", "nombre_calle": "CULLEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>-58.487797</v>
-      </c>
-      <c r="L54" t="n">
-        <v>-34.572787</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>1146</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>10/2/2025</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>YERBAL 1301</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>6</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tendido aereo cortado </t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>-58.44871</v>
-      </c>
-      <c r="L55" t="n">
-        <v>-34.622159</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1404,7 +1404,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7226</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1414,15 +1414,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AMENABAR 3517</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30814275</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1445,18 +1445,18 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.469459</v>
+        <v>-58.444861</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.550903</v>
+        <v>-34.586807</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1468,25 +1468,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,30 +1509,30 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.444861</v>
+        <v>-58.358272</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.586807</v>
+        <v>-34.637051</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1542,15 +1542,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>CONCORDIA 4686</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>ICD30831757</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,40 +1573,40 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.358272</v>
+        <v>-58.510011</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.637051</v>
+        <v>-34.591402</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3567</t>
+          <t>3551</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CONCORDIA 4686</t>
+          <t>NUEVA YORK 3307</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30831757</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cables en panza y cables cortados</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,14 +1637,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.510011</v>
+        <v>-58.503245</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.591402</v>
+        <v>-34.594867</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1660,25 +1660,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3551</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NUEVA YORK 3307</t>
+          <t>CASEROS AV. 3017</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30925340</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cables en panza y cables cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,30 +1701,30 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.503245</v>
+        <v>-58.405983</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.594867</v>
+        <v>-34.637104</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>3498</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3017</t>
+          <t>CASEROS AV. 3219</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30925340</t>
+          <t>ICD30925391</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1765,14 +1765,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.405983</v>
+        <v>-58.40948</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.637104</v>
+        <v>-34.637709</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1788,7 +1788,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1798,15 +1798,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3219</t>
+          <t>ORTEGA 974</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD30925391</t>
+          <t>ICD31396631</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,18 +1829,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.40948</v>
+        <v>-58.445007</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.637709</v>
+        <v>-34.614987</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1862,15 +1862,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ORTEGA 974</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1893,30 +1893,30 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.445007</v>
+        <v>-58.467279</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.614987</v>
+        <v>-34.551117</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1926,15 +1926,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>GAONA AV. 4565</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>ICD30952712</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Tendido a Baja altura</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,18 +1957,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4565, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487324", "y": "-34.626415"}, "direccion": "GAONA AV. 4565, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.467279</v>
+        <v>-58.487324</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.551117</v>
+        <v>-34.626415</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1980,7 +1980,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1990,15 +1990,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GAONA AV. 4565</t>
+          <t>INCLAN 4329</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD30952712</t>
+          <t>ICD31397293</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tendido a Baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,30 +2021,30 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4565, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487324", "y": "-34.626415"}, "direccion": "GAONA AV. 4565, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.487324</v>
+        <v>-58.424297</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.626415</v>
+        <v>-34.633565</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2054,15 +2054,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>INCLAN 4329</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31397530</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2085,18 +2085,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.424297</v>
+        <v>-58.386725</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.633565</v>
+        <v>-34.632368</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2108,25 +2108,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>2697</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RONDEAU 1501</t>
+          <t>Mendoza 2299</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31464743</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura y sin tensar</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,30 +2149,30 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.386725</v>
+        <v>-58.456424</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.632368</v>
+        <v>-34.560403</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>2725</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2182,15 +2182,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Mendoza 2299</t>
+          <t>QUEVEDO 3352</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31065552</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y sin tensar</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,18 +2213,18 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3352, "cod_calle": 18006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518104", "y": "-34.611915"}, "direccion": "QUEVEDO 3352, CABA", "nombre_calle": "QUEVEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.456424</v>
+        <v>-58.518104</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.560403</v>
+        <v>-34.611915</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>QUEVEDO 3352</t>
+          <t>SANABRIA 4785</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD31065552</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,18 +2277,18 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3352, "cod_calle": 18006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518104", "y": "-34.611915"}, "direccion": "QUEVEDO 3352, CABA", "nombre_calle": "QUEVEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.518104</v>
+        <v>-58.520172</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.611915</v>
+        <v>-34.596414</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2300,7 +2300,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2310,15 +2310,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SANABRIA 4785</t>
+          <t>SARMIENTO 4270</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD31075271</t>
+          <t>ICD31436258</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cables cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,48 +2341,48 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.520172</v>
+        <v>-58.425368</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.596414</v>
+        <v>-34.604407</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>7304</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/25/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SARMIENTO 4270</t>
+          <t>WASHINGTON 3926</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31075927</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2405,48 +2405,48 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3926, "cod_calle": 24003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482836", "y": "-34.552950"}, "direccion": "WASHINGTON 3926, CABA", "nombre_calle": "WASHINGTON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.425368</v>
+        <v>-58.482836</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.604407</v>
+        <v>-34.55295</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7304</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9/25/2025</t>
+          <t>9/26/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WASHINGTON 3926</t>
+          <t>CORDOBA AV. 3421</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD31075927</t>
+          <t>ICD31437105</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t xml:space="preserve">Cable a baja altura </t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2469,48 +2469,48 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3926, "cod_calle": 24003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482836", "y": "-34.552950"}, "direccion": "WASHINGTON 3926, CABA", "nombre_calle": "WASHINGTON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-58.482836</v>
+        <v>-58.414916</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.55295</v>
+        <v>-34.597799</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7322</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9/26/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MORENO, JOSE MARIA AV. 864</t>
+          <t>PALOS 460</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICD31436610</t>
+          <t>ICD31437928</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2533,18 +2533,18 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 864, "cod_calle": 13128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.433574", "y": "-34.628743"}, "direccion": "MORENO, JOSE MARIA AV. 864, CABA", "nombre_calle": "MORENO, JOSE MARIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>-58.433574</v>
+        <v>-58.362492</v>
       </c>
       <c r="L33" t="n">
-        <v>-34.628743</v>
+        <v>-34.635242</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2556,25 +2556,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2219</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9/26/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 3421</t>
+          <t>ROSETI 1472</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ICD31437105</t>
+          <t>ICD31266362</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cable a baja altura </t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2597,48 +2597,48 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>-58.414916</v>
+        <v>-58.462909</v>
       </c>
       <c r="L34" t="n">
-        <v>-34.597799</v>
+        <v>-34.581823</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>7370</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9/26/2025</t>
+          <t>9/30/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LAUTARO 1250</t>
+          <t>LA PAMPA 3621</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ICD31437222</t>
+          <t>ICD31454876</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>CAbles a baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2661,48 +2661,48 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1250, "cod_calle": 12086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.449719", "y": "-34.640108"}, "direccion": "LAUTARO 1250, CABA", "nombre_calle": "LAUTARO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3621, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466333", "y": "-34.571822"}, "direccion": "LA PAMPA 3621, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-58.449719</v>
+        <v>-58.466333</v>
       </c>
       <c r="L35" t="n">
-        <v>-34.640108</v>
+        <v>-34.571822</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PALOS 460</t>
+          <t>YERBAL 1301</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ICD31437928</t>
+          <t>ICD31456923</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
+          <t xml:space="preserve">Tendido aereo cortado </t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2725,18 +2725,18 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>-58.362492</v>
+        <v>-58.44871</v>
       </c>
       <c r="L36" t="n">
-        <v>-34.635242</v>
+        <v>-34.622159</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2748,25 +2748,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>10/6/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ROSETI 1472</t>
+          <t>MORENO 2977</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ICD31266362</t>
+          <t>ICD31463441</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2789,40 +2789,40 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2977, "cod_calle": 13126, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407981", "y": "-34.613828"}, "direccion": "MORENO 2977, CABA", "nombre_calle": "MORENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 4108, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454254", "y": "-34.650857"}, "direccion": "MORENO, PERITO AV. 2977, CABA", "nombre_calle": "MORENO, PERITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 6063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461849", "y": "-34.640198"}, "direccion": "FERNANDEZ MORENO, BALDOMERO 2977, CABA", "nombre_calle": "FERNANDEZ MORENO, BALDOMERO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>-58.462909</v>
+        <v>-58.407981</v>
       </c>
       <c r="L37" t="n">
-        <v>-34.581823</v>
+        <v>-34.613828</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7370</t>
+          <t>7432</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9/30/2025</t>
+          <t>10/6/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LA PAMPA 3621</t>
+          <t>AMENABAR 3517</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ICD31454876</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2853,18 +2853,18 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3621, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466333", "y": "-34.571822"}, "direccion": "LA PAMPA 3621, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>-58.466333</v>
+        <v>-58.469459</v>
       </c>
       <c r="L38" t="n">
-        <v>-34.571822</v>
+        <v>-34.550903</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2876,25 +2876,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7376</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>10/7/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CALAZA, JOSE MARIA 1571</t>
+          <t>FALCON, RAMON L.,CNEL. 4945</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ICD31450528</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cable cortado</t>
+          <t>Cable en Panza</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2917,14 +2917,14 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1571, "cod_calle": 3019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466804", "y": "-34.648650"}, "direccion": "CALAZA, JOSE MARIA 1571, CABA", "nombre_calle": "CALAZA, JOSE MARIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>-58.466804</v>
+        <v>-58.49697</v>
       </c>
       <c r="L39" t="n">
-        <v>-34.64865</v>
+        <v>-34.638377</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2940,25 +2940,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>7454</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>10/8/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CULLEN 5085</t>
+          <t>ALVAREZ, CRISOSTOMO 4550</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ICD31451088</t>
+          <t>ICD31464910</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2981,48 +2981,48 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5085, "cod_calle": 3202, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487797", "y": "-34.572787"}, "direccion": "CULLEN 5085, CABA", "nombre_calle": "CULLEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4550, "cod_calle": 1053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474710", "y": "-34.661789"}, "direccion": "ALVAREZ, CRISOSTOMO 4550, CABA", "nombre_calle": "ALVAREZ, CRISOSTOMO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>-58.487797</v>
+        <v>-58.47471</v>
       </c>
       <c r="L40" t="n">
-        <v>-34.572787</v>
+        <v>-34.661789</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>7488</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>YERBAL 1301</t>
+          <t>LAMARCA, EMILIO 3486</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ICD31456923</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tendido aereo cortado </t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3045,44 +3045,44 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>-58.44871</v>
+        <v>-58.503893</v>
       </c>
       <c r="L41" t="n">
-        <v>-34.622159</v>
+        <v>-34.600457</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>7486</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10/6/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MORENO 2977</t>
+          <t>ARGERICH 1663</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Cable en panza  y cortados</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3109,44 +3109,44 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2977, "cod_calle": 13126, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407981", "y": "-34.613828"}, "direccion": "MORENO 2977, CABA", "nombre_calle": "MORENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 4108, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454254", "y": "-34.650857"}, "direccion": "MORENO, PERITO AV. 2977, CABA", "nombre_calle": "MORENO, PERITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 6063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461849", "y": "-34.640198"}, "direccion": "FERNANDEZ MORENO, BALDOMERO 2977, CABA", "nombre_calle": "FERNANDEZ MORENO, BALDOMERO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1663, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479923", "y": "-34.615531"}, "direccion": "ARGERICH 1663, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>-58.407981</v>
+        <v>-58.479923</v>
       </c>
       <c r="L42" t="n">
-        <v>-34.613828</v>
+        <v>-34.615531</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7432</t>
+          <t>7300</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10/6/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AMENABAR 3517</t>
+          <t>VEDIA, ENRIQUE DE 2040</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura y en panza</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3173,21 +3173,85 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2040, "cod_calle": 23018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490128", "y": "-34.612403"}, "direccion": "VEDIA, ENRIQUE DE 2040, CABA", "nombre_calle": "VEDIA, ENRIQUE DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>-58.469459</v>
+        <v>-58.490128</v>
       </c>
       <c r="L43" t="n">
-        <v>-34.550903</v>
+        <v>-34.612403</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7506</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>10/13/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>LAMARCA, EMILIO 808</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>11</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Cable en panza y cables cortados</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>-58.481009</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-34.623627</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>00995307</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2812,25 +2812,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7432</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10/6/2025</t>
+          <t>10/7/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AMENABAR 3517</t>
+          <t>FALCON, RAMON L.,CNEL. 4945</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>00995424</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en Panza</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2853,18 +2853,18 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3517, "cod_calle": 1072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469459", "y": "-34.550903"}, "direccion": "AMENABAR 3517, CABA", "nombre_calle": "AMENABAR", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>-58.469459</v>
+        <v>-58.49697</v>
       </c>
       <c r="L38" t="n">
-        <v>-34.550903</v>
+        <v>-34.638377</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2876,25 +2876,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7450</t>
+          <t>7454</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10/7/2025</t>
+          <t>10/8/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 4945</t>
+          <t>ALVAREZ, CRISOSTOMO 4550</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD31464910</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cable en Panza</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2917,48 +2917,48 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4550, "cod_calle": 1053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474710", "y": "-34.661789"}, "direccion": "ALVAREZ, CRISOSTOMO 4550, CABA", "nombre_calle": "ALVAREZ, CRISOSTOMO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>-58.49697</v>
+        <v>-58.47471</v>
       </c>
       <c r="L39" t="n">
-        <v>-34.638377</v>
+        <v>-34.661789</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7454</t>
+          <t>7488</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10/8/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ALVAREZ, CRISOSTOMO 4550</t>
+          <t>LAMARCA, EMILIO 3486</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ICD31464910</t>
+          <t>00995591</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2981,30 +2981,30 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4550, "cod_calle": 1053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474710", "y": "-34.661789"}, "direccion": "ALVAREZ, CRISOSTOMO 4550, CABA", "nombre_calle": "ALVAREZ, CRISOSTOMO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>-58.47471</v>
+        <v>-58.503893</v>
       </c>
       <c r="L40" t="n">
-        <v>-34.661789</v>
+        <v>-34.600457</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7488</t>
+          <t>7486</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 3486</t>
+          <t>ARGERICH 1663</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>00995740</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cable en panza  y cortados</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3045,14 +3045,14 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1663, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479923", "y": "-34.615531"}, "direccion": "ARGERICH 1663, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>-58.503893</v>
+        <v>-58.479923</v>
       </c>
       <c r="L41" t="n">
-        <v>-34.600457</v>
+        <v>-34.615531</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3068,7 +3068,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>7300</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ARGERICH 1663</t>
+          <t>VEDIA, ENRIQUE DE 2040</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>00995838</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cable en panza  y cortados</t>
+          <t>Tendido a baja altura y en panza</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3109,18 +3109,18 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1663, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479923", "y": "-34.615531"}, "direccion": "ARGERICH 1663, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2040, "cod_calle": 23018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490128", "y": "-34.612403"}, "direccion": "VEDIA, ENRIQUE DE 2040, CABA", "nombre_calle": "VEDIA, ENRIQUE DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>-58.479923</v>
+        <v>-58.490128</v>
       </c>
       <c r="L42" t="n">
-        <v>-34.615531</v>
+        <v>-34.612403</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3132,17 +3132,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7300</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/13/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>VEDIA, ENRIQUE DE 2040</t>
+          <t>LAMARCA, EMILIO 808</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>00996054</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y en panza</t>
+          <t>Cable en panza y cables cortados</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3173,14 +3173,14 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2040, "cod_calle": 23018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490128", "y": "-34.612403"}, "direccion": "VEDIA, ENRIQUE DE 2040, CABA", "nombre_calle": "VEDIA, ENRIQUE DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>-58.490128</v>
+        <v>-58.481009</v>
       </c>
       <c r="L43" t="n">
-        <v>-34.612403</v>
+        <v>-34.623627</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3196,62 +3196,126 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7506</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 808</t>
+          <t>VIRGILIO 1332</t>
         </is>
       </c>
       <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Cable cortado y en panza</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>-58.51048</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-34.626427</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3578</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>10/15/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MIRANDA 3786</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>11</v>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Pendiente ADM</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Cable en panza y cables cortados</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>-58.481009</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-34.623627</v>
-      </c>
-      <c r="M44" t="inlineStr">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Caja de empalme colgando</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>-58.49385</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-34.614267</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Devoto</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,25 +572,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>GUATEMALA 5527</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ICD30345482</t>
+          <t>ICD30466317</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>estan pidiendo que saquemos fotos de nuevo para cerrar el caso traten de que se vea todo lo mismo que con la foto del reclamo</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,18 +613,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5527, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.431302", "y": "-34.580805"}, "direccion": "GUATEMALA 5527, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.360551</v>
+        <v>-58.431302</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.632684</v>
+        <v>-34.580805</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -636,17 +636,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ICD30399224</t>
+          <t>ICD30345482</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,14 +677,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.355342</v>
+        <v>-58.360551</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.63565</v>
+        <v>-34.632684</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PERDRIEL 1490</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30399377</t>
+          <t>ICD30399224</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,14 +741,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.385244</v>
+        <v>-58.355342</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.651701</v>
+        <v>-34.63565</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -764,17 +764,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>6940</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>PERDRIEL 1490</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -782,7 +782,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30399377</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -805,14 +805,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.416595</v>
+        <v>-58.385244</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.65375</v>
+        <v>-34.651701</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -828,25 +828,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +869,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.435519</v>
+        <v>-58.416595</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.566886</v>
+        <v>-34.65375</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -933,14 +933,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.43774</v>
+        <v>-58.435519</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.565577</v>
+        <v>-34.566886</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -956,25 +956,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.401027</v>
+        <v>-58.43774</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.625071</v>
+        <v>-34.565577</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1020,25 +1020,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1061,14 +1061,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.371599</v>
+        <v>-58.401027</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.623098</v>
+        <v>-34.625071</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1084,25 +1084,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JUNIN 234</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30682500</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cables sueltos y desprolijos</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1125,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.396557</v>
+        <v>-58.371599</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.606731</v>
+        <v>-34.623098</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,25 +1148,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>JUNIN 234</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t>ICD30682500</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables sueltos y desprolijos</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,18 +1189,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.374174</v>
+        <v>-58.396557</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.623403</v>
+        <v>-34.606731</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1222,15 +1222,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,18 +1253,18 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.394943</v>
+        <v>-58.374174</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.594725</v>
+        <v>-34.623403</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1276,25 +1276,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,30 +1317,30 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.450024</v>
+        <v>-58.394943</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.586606</v>
+        <v>-34.594725</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>7216</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1350,15 +1350,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
+          <t>NEWBERY, JORGE AV. 3870</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30801756</t>
+          <t>ICD30800947</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>rienda cortada reparar o retirar</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,48 +1381,48 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.420687</v>
+        <v>-58.450024</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.614694</v>
+        <v>-34.586606</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>ICD30801756</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,48 +1445,48 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.444861</v>
+        <v>-58.420687</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.586807</v>
+        <v>-34.614694</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,30 +1509,30 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.358272</v>
+        <v>-58.444861</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.637051</v>
+        <v>-34.586807</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3567</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1542,15 +1542,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CONCORDIA 4686</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30831757</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,23 +1573,23 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4686, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510011", "y": "-34.591402"}, "direccion": "CONCORDIA 4686, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.510011</v>
+        <v>-58.358272</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.591402</v>
+        <v>-34.637051</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2182,7 +2182,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>QUEVEDO 3352</t>
+          <t>SANABRIA 4785</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD31065552</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,18 +2213,18 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3352, "cod_calle": 18006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.518104", "y": "-34.611915"}, "direccion": "QUEVEDO 3352, CABA", "nombre_calle": "QUEVEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.518104</v>
+        <v>-58.520172</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.611915</v>
+        <v>-34.596414</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2246,15 +2246,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SANABRIA 4785</t>
+          <t>SARMIENTO 4270</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD31075271</t>
+          <t>ICD31436258</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cables cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,48 +2277,48 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.520172</v>
+        <v>-58.425368</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.596414</v>
+        <v>-34.604407</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/26/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SARMIENTO 4270</t>
+          <t>CORDOBA AV. 3421</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD31436258</t>
+          <t>ICD31437105</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t xml:space="preserve">Cable a baja altura </t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,14 +2341,14 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.425368</v>
+        <v>-58.414916</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.604407</v>
+        <v>-34.597799</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2364,25 +2364,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7304</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9/25/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WASHINGTON 3926</t>
+          <t>PALOS 460</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ICD31075927</t>
+          <t>ICD31437928</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2405,48 +2405,48 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3926, "cod_calle": 24003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482836", "y": "-34.552950"}, "direccion": "WASHINGTON 3926, CABA", "nombre_calle": "WASHINGTON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.482836</v>
+        <v>-58.362492</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.55295</v>
+        <v>-34.635242</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2219</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9/26/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 3421</t>
+          <t>ROSETI 1472</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD31437105</t>
+          <t>ICD31266362</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cable a baja altura </t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2469,48 +2469,48 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-58.414916</v>
+        <v>-58.462909</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.597799</v>
+        <v>-34.581823</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>7370</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>9/30/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PALOS 460</t>
+          <t>LA PAMPA 3621</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICD31437928</t>
+          <t>ICD31454876</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2533,48 +2533,48 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3621, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466333", "y": "-34.571822"}, "direccion": "LA PAMPA 3621, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>-58.362492</v>
+        <v>-58.466333</v>
       </c>
       <c r="L33" t="n">
-        <v>-34.635242</v>
+        <v>-34.571822</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ROSETI 1472</t>
+          <t>YERBAL 1301</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ICD31266362</t>
+          <t>ICD31456923</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t xml:space="preserve">Tendido aereo cortado </t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2597,48 +2597,48 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>-58.462909</v>
+        <v>-58.44871</v>
       </c>
       <c r="L34" t="n">
-        <v>-34.581823</v>
+        <v>-34.622159</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7370</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9/30/2025</t>
+          <t>10/6/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LA PAMPA 3621</t>
+          <t>MORENO 2977</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ICD31454876</t>
+          <t>ICD31463441</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2661,48 +2661,48 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3621, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466333", "y": "-34.571822"}, "direccion": "LA PAMPA 3621, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2977, "cod_calle": 13126, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407981", "y": "-34.613828"}, "direccion": "MORENO 2977, CABA", "nombre_calle": "MORENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 4108, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454254", "y": "-34.650857"}, "direccion": "MORENO, PERITO AV. 2977, CABA", "nombre_calle": "MORENO, PERITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 6063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461849", "y": "-34.640198"}, "direccion": "FERNANDEZ MORENO, BALDOMERO 2977, CABA", "nombre_calle": "FERNANDEZ MORENO, BALDOMERO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-58.466333</v>
+        <v>-58.407981</v>
       </c>
       <c r="L35" t="n">
-        <v>-34.571822</v>
+        <v>-34.613828</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>10/7/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>YERBAL 1301</t>
+          <t>FALCON, RAMON L.,CNEL. 4945</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ICD31456923</t>
+          <t>00995424</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tendido aereo cortado </t>
+          <t>Cable en Panza</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2725,48 +2725,48 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>-58.44871</v>
+        <v>-58.49697</v>
       </c>
       <c r="L36" t="n">
-        <v>-34.622159</v>
+        <v>-34.638377</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>7454</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10/6/2025</t>
+          <t>10/8/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MORENO 2977</t>
+          <t>ALVAREZ, CRISOSTOMO 4550</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ICD31463441</t>
+          <t>ICD31464910</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2789,18 +2789,18 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2977, "cod_calle": 13126, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407981", "y": "-34.613828"}, "direccion": "MORENO 2977, CABA", "nombre_calle": "MORENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 4108, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454254", "y": "-34.650857"}, "direccion": "MORENO, PERITO AV. 2977, CABA", "nombre_calle": "MORENO, PERITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 6063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461849", "y": "-34.640198"}, "direccion": "FERNANDEZ MORENO, BALDOMERO 2977, CABA", "nombre_calle": "FERNANDEZ MORENO, BALDOMERO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4550, "cod_calle": 1053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474710", "y": "-34.661789"}, "direccion": "ALVAREZ, CRISOSTOMO 4550, CABA", "nombre_calle": "ALVAREZ, CRISOSTOMO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>-58.407981</v>
+        <v>-58.47471</v>
       </c>
       <c r="L37" t="n">
-        <v>-34.613828</v>
+        <v>-34.661789</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2812,25 +2812,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7450</t>
+          <t>7488</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10/7/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 4945</t>
+          <t>LAMARCA, EMILIO 3486</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>00995424</t>
+          <t>00995591</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cable en Panza</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2853,18 +2853,18 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>-58.49697</v>
+        <v>-58.503893</v>
       </c>
       <c r="L38" t="n">
-        <v>-34.638377</v>
+        <v>-34.600457</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2876,25 +2876,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7454</t>
+          <t>7486</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10/8/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ALVAREZ, CRISOSTOMO 4550</t>
+          <t>ARGERICH 1663</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ICD31464910</t>
+          <t>00995740</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable en panza  y cortados</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2917,30 +2917,30 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4550, "cod_calle": 1053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474710", "y": "-34.661789"}, "direccion": "ALVAREZ, CRISOSTOMO 4550, CABA", "nombre_calle": "ALVAREZ, CRISOSTOMO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1663, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479923", "y": "-34.615531"}, "direccion": "ARGERICH 1663, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>-58.47471</v>
+        <v>-58.479923</v>
       </c>
       <c r="L39" t="n">
-        <v>-34.661789</v>
+        <v>-34.615531</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7488</t>
+          <t>7300</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 3486</t>
+          <t>VEDIA, ENRIQUE DE 2040</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>00995591</t>
+          <t>00995838</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Tendido a baja altura y en panza</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2981,18 +2981,18 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2040, "cod_calle": 23018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490128", "y": "-34.612403"}, "direccion": "VEDIA, ENRIQUE DE 2040, CABA", "nombre_calle": "VEDIA, ENRIQUE DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>-58.503893</v>
+        <v>-58.490128</v>
       </c>
       <c r="L40" t="n">
-        <v>-34.600457</v>
+        <v>-34.612403</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3004,17 +3004,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/13/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ARGERICH 1663</t>
+          <t>LAMARCA, EMILIO 808</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>00995740</t>
+          <t>00996054</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cable en panza  y cortados</t>
+          <t>Cable en panza y cables cortados</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3045,18 +3045,18 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1663, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479923", "y": "-34.615531"}, "direccion": "ARGERICH 1663, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>-58.479923</v>
+        <v>-58.481009</v>
       </c>
       <c r="L41" t="n">
-        <v>-34.615531</v>
+        <v>-34.623627</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3068,25 +3068,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7300</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>VEDIA, ENRIQUE DE 2040</t>
+          <t>VIRGILIO 1332</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>00995838</t>
+          <t>01025343</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y en panza</t>
+          <t>Cable cortado y en panza</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3109,14 +3109,14 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2040, "cod_calle": 23018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490128", "y": "-34.612403"}, "direccion": "VEDIA, ENRIQUE DE 2040, CABA", "nombre_calle": "VEDIA, ENRIQUE DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>-58.490128</v>
+        <v>-58.51048</v>
       </c>
       <c r="L42" t="n">
-        <v>-34.612403</v>
+        <v>-34.626427</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3132,17 +3132,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>7506</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 808</t>
+          <t>MIRANDA 3786</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>00996054</t>
+          <t>01026171</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Cable en panza y cables cortados</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3173,14 +3173,14 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>-58.481009</v>
+        <v>-58.49385</v>
       </c>
       <c r="L43" t="n">
-        <v>-34.623627</v>
+        <v>-34.614267</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>7513</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3206,11 +3206,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VIRGILIO 1332</t>
+          <t>RIVERA INDARTE AV. 196</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cable cortado y en panza</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3237,30 +3237,30 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 196, "cod_calle": 19054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461758", "y": "-34.631104"}, "direccion": "RIVERA INDARTE AV. 196, CABA", "nombre_calle": "RIVERA INDARTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>-58.51048</v>
+        <v>-58.461758</v>
       </c>
       <c r="L44" t="n">
-        <v>-34.626427</v>
+        <v>-34.631104</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3578</t>
+          <t>7515</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3270,11 +3270,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MIRANDA 3786</t>
+          <t>BACACAY AV. 5832</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3301,14 +3301,14 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5832, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.509490", "y": "-34.635305"}, "direccion": "BACACAY AV. 5832, CABA", "nombre_calle": "BACACAY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>-58.49385</v>
+        <v>-58.50949</v>
       </c>
       <c r="L45" t="n">
-        <v>-34.614267</v>
+        <v>-34.635305</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3318,6 +3318,70 @@
       <c r="N45" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7518</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10/15/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SAN PEDRITO AV. 692</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 692, "cod_calle": 20050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.465887", "y": "-34.638906"}, "direccion": "SAN PEDRITO AV. 692, CABA", "nombre_calle": "SAN PEDRITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>-58.465887</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-34.638906</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Optical_Power" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Optical_Power" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5862</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5/26/2025</t>
+          <t>6/2/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHARCAS 3715</t>
+          <t>GUATEMALA 5527</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -526,7 +526,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ICD30466266</t>
+          <t>ICD30466317</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cable en panza Cable cortado</t>
+          <t>estan pidiendo que saquemos fotos de nuevo para cerrar el caso traten de que se vea todo lo mismo que con la foto del reclamo</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -549,14 +549,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3715, "cod_calle": 3219, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.417181", "y": "-34.588033"}, "direccion": "CHARCAS 3715, CABA", "nombre_calle": "CHARCAS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5527, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.431302", "y": "-34.580805"}, "direccion": "GUATEMALA 5527, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.417181</v>
+        <v>-58.431302</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.588033</v>
+        <v>-34.580805</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -572,25 +572,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GUATEMALA 5527</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ICD30466317</t>
+          <t>ICD30345482</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>estan pidiendo que saquemos fotos de nuevo para cerrar el caso traten de que se vea todo lo mismo que con la foto del reclamo</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,18 +613,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5527, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.431302", "y": "-34.580805"}, "direccion": "GUATEMALA 5527, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.431302</v>
+        <v>-58.360551</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.580805</v>
+        <v>-34.632684</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -636,17 +636,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>6917</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/12/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>BRIN, MINISTRO 1375</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ICD30345482</t>
+          <t>ICD30399224</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,14 +677,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.360551</v>
+        <v>-58.355342</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.632684</v>
+        <v>-34.63565</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>6940</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>PERDRIEL 1490</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30399224</t>
+          <t>ICD30399377</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,14 +741,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.355342</v>
+        <v>-58.385244</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.63565</v>
+        <v>-34.651701</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -764,17 +764,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>6946</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/14/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PERDRIEL 1490</t>
+          <t>SAENZ AV. 1161</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -782,7 +782,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICD30399377</t>
+          <t xml:space="preserve">ICD30398322 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -805,14 +805,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.385244</v>
+        <v>-58.416595</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.651701</v>
+        <v>-34.65375</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -828,25 +828,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +869,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.416595</v>
+        <v>-58.435519</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.65375</v>
+        <v>-34.566886</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>5674</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -902,7 +902,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -910,7 +910,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30449383</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -933,14 +933,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.435519</v>
+        <v>-58.43774</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.566886</v>
+        <v>-34.565577</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -956,25 +956,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.43774</v>
+        <v>-58.401027</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.565577</v>
+        <v>-34.625071</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1020,25 +1020,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1061,14 +1061,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.401027</v>
+        <v>-58.371599</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.625071</v>
+        <v>-34.623098</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1084,25 +1084,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>7160</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/5/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>JUNIN 234</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30682500</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables sueltos y desprolijos</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1125,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.371599</v>
+        <v>-58.396557</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.623098</v>
+        <v>-34.606731</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,25 +1148,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>JUNIN 234</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30682500</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cables sueltos y desprolijos</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,18 +1189,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.396557</v>
+        <v>-58.374174</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.606731</v>
+        <v>-34.623403</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1222,15 +1222,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,18 +1253,18 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.374174</v>
+        <v>-58.394943</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.623403</v>
+        <v>-34.594725</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1276,25 +1276,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>7216</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>NEWBERY, JORGE AV. 3870</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>ICD30800947</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>rienda cortada reparar o retirar</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,30 +1317,30 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.394943</v>
+        <v>-58.450024</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.594725</v>
+        <v>-34.586606</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1350,15 +1350,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>ICD30801756</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Cables a baja altura</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,48 +1381,48 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.450024</v>
+        <v>-58.420687</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.586606</v>
+        <v>-34.614694</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30801756</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,48 +1445,48 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.420687</v>
+        <v>-58.444861</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.614694</v>
+        <v>-34.586807</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,40 +1509,40 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.444861</v>
+        <v>-58.358272</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.586807</v>
+        <v>-34.637051</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>CASEROS AV. 3017</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>ICD30925340</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1573,14 +1573,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.358272</v>
+        <v>-58.405983</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.637051</v>
+        <v>-34.637104</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3551</t>
+          <t>3498</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NUEVA YORK 3307</t>
+          <t>CASEROS AV. 3219</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>00995307</t>
+          <t>ICD30925391</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cables en panza y cables cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,30 +1637,30 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3307, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503245", "y": "-34.594867"}, "direccion": "NUEVA YORK 3307, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.503245</v>
+        <v>-58.40948</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.594867</v>
+        <v>-34.637709</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1670,15 +1670,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3017</t>
+          <t>ORTEGA 974</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD30925340</t>
+          <t>ICD31396631</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,18 +1701,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.405983</v>
+        <v>-58.445007</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.637104</v>
+        <v>-34.614987</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1724,7 +1724,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1734,15 +1734,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3219</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30925391</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,30 +1765,30 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.40948</v>
+        <v>-58.467279</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.637709</v>
+        <v>-34.551117</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1798,15 +1798,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ORTEGA 974</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD31396631</t>
+          <t>ICD31397530</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,18 +1829,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.445007</v>
+        <v>-58.386725</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.614987</v>
+        <v>-34.632368</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1852,17 +1852,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>2697</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>Mendoza 2299</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>ICD31464743</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Tendido a baja altura y sin tensar</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,14 +1893,14 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.467279</v>
+        <v>-58.456424</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.551117</v>
+        <v>-34.560403</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1916,25 +1916,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3136</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GAONA AV. 4565</t>
+          <t>SANABRIA 4785</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD30952712</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tendido a Baja altura</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,18 +1957,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4565, "cod_calle": 7025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.487324", "y": "-34.626415"}, "direccion": "GAONA AV. 4565, CABA", "nombre_calle": "GAONA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.487324</v>
+        <v>-58.520172</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.626415</v>
+        <v>-34.596414</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1980,17 +1980,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>INCLAN 4329</t>
+          <t>SARMIENTO 4270</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD31397293</t>
+          <t>ICD31436258</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,18 +2021,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.424297</v>
+        <v>-58.425368</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.633565</v>
+        <v>-34.604407</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2044,25 +2044,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RONDEAU 1501</t>
+          <t>PALOS 460</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD31397530</t>
+          <t>ICD31437928</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,14 +2085,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.386725</v>
+        <v>-58.362492</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.632368</v>
+        <v>-34.635242</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2108,25 +2108,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>2982</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Mendoza 2299</t>
+          <t>ROSETI 1472</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD31464743</t>
+          <t>ICD31266362</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y sin tensar</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,18 +2149,18 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.456424</v>
+        <v>-58.462909</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.560403</v>
+        <v>-34.581823</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2172,25 +2172,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>7370</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/30/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SANABRIA 4785</t>
+          <t>LA PAMPA 3621</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD31075271</t>
+          <t>ICD31454876</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cables cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,18 +2213,18 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3621, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466333", "y": "-34.571822"}, "direccion": "LA PAMPA 3621, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.520172</v>
+        <v>-58.466333</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.596414</v>
+        <v>-34.571822</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2236,25 +2236,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SARMIENTO 4270</t>
+          <t>YERBAL 1301</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD31436258</t>
+          <t>ICD31456923</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t xml:space="preserve">Tendido aereo cortado </t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,18 +2277,18 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.425368</v>
+        <v>-58.44871</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.604407</v>
+        <v>-34.622159</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2300,25 +2300,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2219</t>
+          <t>3353</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9/26/2025</t>
+          <t>10/6/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 3421</t>
+          <t>MORENO 2977</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD31437105</t>
+          <t>ICD31463441</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2333,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cable a baja altura </t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,14 +2341,14 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3421, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414916", "y": "-34.597799"}, "direccion": "CORDOBA AV. 3421, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2977, "cod_calle": 13126, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407981", "y": "-34.613828"}, "direccion": "MORENO 2977, CABA", "nombre_calle": "MORENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 4108, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454254", "y": "-34.650857"}, "direccion": "MORENO, PERITO AV. 2977, CABA", "nombre_calle": "MORENO, PERITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 6063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461849", "y": "-34.640198"}, "direccion": "FERNANDEZ MORENO, BALDOMERO 2977, CABA", "nombre_calle": "FERNANDEZ MORENO, BALDOMERO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.414916</v>
+        <v>-58.407981</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.597799</v>
+        <v>-34.613828</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2364,25 +2364,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>10/7/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PALOS 460</t>
+          <t>FALCON, RAMON L.,CNEL. 4945</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ICD31437928</t>
+          <t>00995424</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
+          <t>Cable en Panza</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2405,48 +2405,48 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.362492</v>
+        <v>-58.49697</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.635242</v>
+        <v>-34.638377</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>7454</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>10/8/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ROSETI 1472</t>
+          <t>ALVAREZ, CRISOSTOMO 4550</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD31266362</t>
+          <t>ICD31464910</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2469,48 +2469,48 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4550, "cod_calle": 1053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474710", "y": "-34.661789"}, "direccion": "ALVAREZ, CRISOSTOMO 4550, CABA", "nombre_calle": "ALVAREZ, CRISOSTOMO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-58.462909</v>
+        <v>-58.47471</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.581823</v>
+        <v>-34.661789</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7370</t>
+          <t>7488</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9/30/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LA PAMPA 3621</t>
+          <t>LAMARCA, EMILIO 3486</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICD31454876</t>
+          <t>00995591</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2533,18 +2533,18 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3621, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466333", "y": "-34.571822"}, "direccion": "LA PAMPA 3621, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>-58.466333</v>
+        <v>-58.503893</v>
       </c>
       <c r="L33" t="n">
-        <v>-34.571822</v>
+        <v>-34.600457</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2556,25 +2556,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>7486</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>YERBAL 1301</t>
+          <t>ARGERICH 1663</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ICD31456923</t>
+          <t>00995740</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tendido aereo cortado </t>
+          <t>Cable en panza  y cortados</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2597,48 +2597,48 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1663, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479923", "y": "-34.615531"}, "direccion": "ARGERICH 1663, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>-58.44871</v>
+        <v>-58.479923</v>
       </c>
       <c r="L34" t="n">
-        <v>-34.622159</v>
+        <v>-34.615531</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>7300</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10/6/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MORENO 2977</t>
+          <t>VEDIA, ENRIQUE DE 2040</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ICD31463441</t>
+          <t>00995838</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Tendido a baja altura y en panza</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2661,48 +2661,48 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2977, "cod_calle": 13126, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407981", "y": "-34.613828"}, "direccion": "MORENO 2977, CABA", "nombre_calle": "MORENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 4108, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454254", "y": "-34.650857"}, "direccion": "MORENO, PERITO AV. 2977, CABA", "nombre_calle": "MORENO, PERITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 6063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461849", "y": "-34.640198"}, "direccion": "FERNANDEZ MORENO, BALDOMERO 2977, CABA", "nombre_calle": "FERNANDEZ MORENO, BALDOMERO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2040, "cod_calle": 23018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490128", "y": "-34.612403"}, "direccion": "VEDIA, ENRIQUE DE 2040, CABA", "nombre_calle": "VEDIA, ENRIQUE DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-58.407981</v>
+        <v>-58.490128</v>
       </c>
       <c r="L35" t="n">
-        <v>-34.613828</v>
+        <v>-34.612403</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7450</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10/7/2025</t>
+          <t>10/13/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 4945</t>
+          <t>LAMARCA, EMILIO 808</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>00995424</t>
+          <t>00996054</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cable en Panza</t>
+          <t>Cable en panza y cables cortados</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2725,14 +2725,14 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>-58.49697</v>
+        <v>-58.481009</v>
       </c>
       <c r="L36" t="n">
-        <v>-34.638377</v>
+        <v>-34.623627</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2748,25 +2748,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7454</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10/8/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ALVAREZ, CRISOSTOMO 4550</t>
+          <t>VIRGILIO 1332</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ICD31464910</t>
+          <t>01025343</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable cortado y en panza</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2789,40 +2789,40 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4550, "cod_calle": 1053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474710", "y": "-34.661789"}, "direccion": "ALVAREZ, CRISOSTOMO 4550, CABA", "nombre_calle": "ALVAREZ, CRISOSTOMO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>-58.47471</v>
+        <v>-58.51048</v>
       </c>
       <c r="L37" t="n">
-        <v>-34.661789</v>
+        <v>-34.626427</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7488</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 3486</t>
+          <t>MIRANDA 3786</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>00995591</t>
+          <t>01026171</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2853,18 +2853,18 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>-58.503893</v>
+        <v>-58.49385</v>
       </c>
       <c r="L38" t="n">
-        <v>-34.600457</v>
+        <v>-34.614267</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2876,25 +2876,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>7513</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ARGERICH 1663</t>
+          <t>RIVERA INDARTE AV. 196</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>00995740</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cable en panza  y cortados</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2917,48 +2917,48 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1663, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479923", "y": "-34.615531"}, "direccion": "ARGERICH 1663, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 196, "cod_calle": 19054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461758", "y": "-34.631104"}, "direccion": "RIVERA INDARTE AV. 196, CABA", "nombre_calle": "RIVERA INDARTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>-58.479923</v>
+        <v>-58.461758</v>
       </c>
       <c r="L39" t="n">
-        <v>-34.615531</v>
+        <v>-34.631104</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7300</t>
+          <t>7515</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VEDIA, ENRIQUE DE 2040</t>
+          <t>BACACAY AV. 5832</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>00995838</t>
+          <t>01041108</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y en panza</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2981,14 +2981,14 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2040, "cod_calle": 23018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490128", "y": "-34.612403"}, "direccion": "VEDIA, ENRIQUE DE 2040, CABA", "nombre_calle": "VEDIA, ENRIQUE DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5832, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.509490", "y": "-34.635305"}, "direccion": "BACACAY AV. 5832, CABA", "nombre_calle": "BACACAY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>-58.490128</v>
+        <v>-58.50949</v>
       </c>
       <c r="L40" t="n">
-        <v>-34.612403</v>
+        <v>-34.635305</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -3004,25 +3004,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7506</t>
+          <t>7518</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 808</t>
+          <t>SAN PEDRITO AV. 692</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>00996054</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cable en panza y cables cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3045,48 +3045,48 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 692, "cod_calle": 20050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.465887", "y": "-34.638906"}, "direccion": "SAN PEDRITO AV. 692, CABA", "nombre_calle": "SAN PEDRITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>-58.481009</v>
+        <v>-58.465887</v>
       </c>
       <c r="L41" t="n">
-        <v>-34.623627</v>
+        <v>-34.638906</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>7531</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/16/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>VIRGILIO 1332</t>
+          <t>BROWN, ALTE. AV. 1165</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>01025343</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cable cortado y en panza</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3109,48 +3109,48 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1165, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.359175", "y": "-34.635034"}, "direccion": "BROWN, ALTE. AV. 1165, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>-58.51048</v>
+        <v>-58.359175</v>
       </c>
       <c r="L42" t="n">
-        <v>-34.626427</v>
+        <v>-34.635034</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3578</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/16/2025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MIRANDA 3786</t>
+          <t>ELPIDIO GONZALEZ 4005</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>01026171</t>
+          <t>01042323</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Tendido aereo a baja altura</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3173,14 +3173,14 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4005, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494871", "y": "-34.616813"}, "direccion": "GONZALEZ, ELPIDIO 4005, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>-58.49385</v>
+        <v>-58.494871</v>
       </c>
       <c r="L43" t="n">
-        <v>-34.614267</v>
+        <v>-34.616813</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -3196,21 +3196,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>7513</t>
+          <t>5856</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 196</t>
+          <t>MALABIA 2312</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Cable colgando</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3237,18 +3237,18 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 196, "cod_calle": 19054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461758", "y": "-34.631104"}, "direccion": "RIVERA INDARTE AV. 196, CABA", "nombre_calle": "RIVERA INDARTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2312, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.419732", "y": "-34.585957"}, "direccion": "MALABIA 2312, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>-58.461758</v>
+        <v>-58.419732</v>
       </c>
       <c r="L44" t="n">
-        <v>-34.631104</v>
+        <v>-34.585957</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3260,21 +3260,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7515</t>
+          <t>5879</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BACACAY AV. 5832</t>
+          <t>DEHEZA 4652</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3301,87 +3301,23 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5832, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.509490", "y": "-34.635305"}, "direccion": "BACACAY AV. 5832, CABA", "nombre_calle": "BACACAY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4652, "cod_calle": 4017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494726", "y": "-34.550952"}, "direccion": "DEHEZA 4652, CABA", "nombre_calle": "DEHEZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>-58.50949</v>
+        <v>-58.494726</v>
       </c>
       <c r="L45" t="n">
-        <v>-34.635305</v>
+        <v>-34.550952</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
           <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>7518</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>10/15/2025</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>SAN PEDRITO AV. 692</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>7</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 692, "cod_calle": 20050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.465887", "y": "-34.638906"}, "direccion": "SAN PEDRITO AV. 692, CABA", "nombre_calle": "SAN PEDRITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>-58.465887</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-34.638906</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>01077458</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>01077538</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>01079974</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>01080236</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>01071557</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3318,6 +3318,326 @@
       <c r="N45" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7534</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10/20/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CABILDO AV. 4443</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>13</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>01071029</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Cable a baja altura obstaculiza contenedor</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4443, "cod_calle": 3005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472225", "y": "-34.543415"}, "direccion": "CABILDO AV. 4443, CABA", "nombre_calle": "CABILDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>-58.472225</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-34.543415</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>7535</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>10/20/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CALIFORNIA 901</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>01080743</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Cable en panza y cortados</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>-58.362419</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-34.644693</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7547</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>10/20/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PEREZ GALDOS, BENITO AV. 37</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>01081746</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cable en panza y cortados</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 37, "cod_calle": 17063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.357696", "y": "-34.628505"}, "direccion": "PEREZ GALDOS, BENITO AV. 37, CABA", "nombre_calle": "PEREZ GALDOS, BENITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>-58.357696</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-34.628505</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>5048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10/20/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PUEYRREDON AV. 443</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>01081536</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Caja de empalme colgando y cables fuera de norma</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 443, "cod_calle": 17132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405539", "y": "-34.605224"}, "direccion": "PUEYRREDON AV. 443, CABA", "nombre_calle": "PUEYRREDON AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 443, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440584", "y": "-34.614360"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 443, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>-58.405539</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-34.605224</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>4740</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10/20/2025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>JUJUY AV. 332</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>01081027</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Cable cortado y cables en panza</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 332, "cod_calle": 10013, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405047", "y": "-34.613855"}, "direccion": "JUJUY AV. 332, CABA", "nombre_calle": "JUJUY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>-58.405047</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-34.613855</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,7 +861,8 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t xml:space="preserve">se subieron las fotos de soldado de la frontera 1057
+</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -892,25 +893,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5674</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 1057</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30449383</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,18 +934,18 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1057, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437740", "y": "-34.565577"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 1057, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.43774</v>
+        <v>-58.401027</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.565577</v>
+        <v>-34.625071</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -956,25 +957,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +990,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,14 +998,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.401027</v>
+        <v>-58.371599</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.625071</v>
+        <v>-34.623098</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1020,17 +1021,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1038,7 +1039,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1061,14 +1062,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.371599</v>
+        <v>-58.374174</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.623098</v>
+        <v>-34.623403</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1084,25 +1085,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7160</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/5/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JUNIN 234</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30682500</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1118,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cables sueltos y desprolijos</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1126,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 234, "cod_calle": 10015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396557", "y": "-34.606731"}, "direccion": "JUNIN 234, CABA", "nombre_calle": "JUNIN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.396557</v>
+        <v>-58.394943</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.606731</v>
+        <v>-34.594725</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,25 +1149,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7216</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>NEWBERY, JORGE AV. 3870</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t>ICD30800947</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1182,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>rienda cortada reparar o retirar</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,48 +1190,48 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.374174</v>
+        <v>-58.450024</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.623403</v>
+        <v>-34.586606</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1246,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,48 +1254,48 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.394943</v>
+        <v>-58.444861</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.594725</v>
+        <v>-34.586807</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1310,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,48 +1318,48 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.450024</v>
+        <v>-58.358272</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.586606</v>
+        <v>-34.637051</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>3496</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>YRIGOYEN, HIPOLITO AV. 3818</t>
+          <t>CASEROS AV. 3017</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30801756</t>
+          <t>ICD30925340</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1374,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cables a baja altura</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,18 +1382,18 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3818, "cod_calle": 26005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.420687", "y": "-34.614694"}, "direccion": "YRIGOYEN, HIPOLITO AV. 3818, CABA", "nombre_calle": "YRIGOYEN, HIPOLITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.420687</v>
+        <v>-58.405983</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.614694</v>
+        <v>-34.637104</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1404,25 +1405,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>3498</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>CASEROS AV. 3219</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>ICD30925391</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1438,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,48 +1446,48 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.444861</v>
+        <v>-58.40948</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.586807</v>
+        <v>-34.637709</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>ORTEGA 974</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>ICD31396631</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1502,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,18 +1510,18 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.358272</v>
+        <v>-58.445007</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.637051</v>
+        <v>-34.614987</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1532,7 +1533,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1542,15 +1543,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3017</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30925340</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,30 +1574,30 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.405983</v>
+        <v>-58.467279</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.637104</v>
+        <v>-34.551117</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>3145</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1606,15 +1607,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3219</t>
+          <t>INCLAN 4329</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD30925391</t>
+          <t>ICD31397293</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1637,18 +1638,18 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.40948</v>
+        <v>-58.424297</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.637709</v>
+        <v>-34.633565</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1660,7 +1661,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1670,15 +1671,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ORTEGA 974</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD31396631</t>
+          <t>ICD31397530</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1693,7 +1694,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1701,18 +1702,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.445007</v>
+        <v>-58.386725</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.614987</v>
+        <v>-34.632368</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1724,25 +1725,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>SANABRIA 4785</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1757,7 +1758,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1765,18 +1766,18 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.467279</v>
+        <v>-58.520172</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.551117</v>
+        <v>-34.596414</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1788,25 +1789,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>2921</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>RONDEAU 1501</t>
+          <t>SARMIENTO 4270</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD31397530</t>
+          <t>ICD31436258</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1821,7 +1822,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1829,18 +1830,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.386725</v>
+        <v>-58.425368</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.632368</v>
+        <v>-34.604407</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1852,25 +1853,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2697</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mendoza 2299</t>
+          <t>PALOS 460</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD31464743</t>
+          <t>ICD31437928</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1885,7 +1886,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y sin tensar</t>
+          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1893,48 +1894,48 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2299, "cod_calle": 13071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.456424", "y": "-34.560403"}, "direccion": "MENDOZA 2299, CABA", "nombre_calle": "MENDOZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2299, "cod_calle": 13072, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358800", "y": "-34.641733"}, "direccion": "DON PEDRO DE MENDOZA AV. 2299, CABA", "nombre_calle": "DON PEDRO DE MENDOZA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.456424</v>
+        <v>-58.362492</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.560403</v>
+        <v>-34.635242</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>10/2/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SANABRIA 4785</t>
+          <t>YERBAL 1301</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD31075271</t>
+          <t>ICD31456923</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1950,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cables cortados</t>
+          <t xml:space="preserve">Tendido aereo cortado </t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,48 +1958,48 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.520172</v>
+        <v>-58.44871</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.596414</v>
+        <v>-34.622159</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>10/7/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SARMIENTO 4270</t>
+          <t>FALCON, RAMON L.,CNEL. 4945</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICD31436258</t>
+          <t>00995424</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2014,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable en Panza</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,48 +2022,48 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.425368</v>
+        <v>-58.49697</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.604407</v>
+        <v>-34.638377</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>7454</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>10/8/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PALOS 460</t>
+          <t>ALVAREZ, CRISOSTOMO 4550</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD31437928</t>
+          <t>ICD31464910</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2078,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,18 +2086,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4550, "cod_calle": 1053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474710", "y": "-34.661789"}, "direccion": "ALVAREZ, CRISOSTOMO 4550, CABA", "nombre_calle": "ALVAREZ, CRISOSTOMO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.362492</v>
+        <v>-58.47471</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.635242</v>
+        <v>-34.661789</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2108,25 +2109,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>7488</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ROSETI 1472</t>
+          <t>LAMARCA, EMILIO 3486</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ICD31266362</t>
+          <t>00995591</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2142,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,18 +2150,18 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1472, "cod_calle": 19088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.462909", "y": "-34.581823"}, "direccion": "ROSETI 1472, CABA", "nombre_calle": "ROSETI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.462909</v>
+        <v>-58.503893</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.581823</v>
+        <v>-34.600457</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2172,25 +2173,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7370</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9/30/2025</t>
+          <t>10/13/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LA PAMPA 3621</t>
+          <t>LAMARCA, EMILIO 808</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ICD31454876</t>
+          <t>00996054</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2206,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cables cortados</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,18 +2214,18 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3621, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466333", "y": "-34.571822"}, "direccion": "LA PAMPA 3621, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.466333</v>
+        <v>-58.481009</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.571822</v>
+        <v>-34.623627</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2236,25 +2237,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>YERBAL 1301</t>
+          <t>VIRGILIO 1332</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ICD31456923</t>
+          <t>01025343</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2270,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tendido aereo cortado </t>
+          <t>Cable cortado y en panza</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,48 +2278,48 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.44871</v>
+        <v>-58.51048</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.622159</v>
+        <v>-34.626427</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3353</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10/6/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MORENO 2977</t>
+          <t>MIRANDA 3786</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD31463441</t>
+          <t>01026171</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2341,48 +2342,48 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2977, "cod_calle": 13126, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407981", "y": "-34.613828"}, "direccion": "MORENO 2977, CABA", "nombre_calle": "MORENO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 4108, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454254", "y": "-34.650857"}, "direccion": "MORENO, PERITO AV. 2977, CABA", "nombre_calle": "MORENO, PERITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 2977, "cod_calle": 6063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461849", "y": "-34.640198"}, "direccion": "FERNANDEZ MORENO, BALDOMERO 2977, CABA", "nombre_calle": "FERNANDEZ MORENO, BALDOMERO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.407981</v>
+        <v>-58.49385</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.613828</v>
+        <v>-34.614267</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7450</t>
+          <t>7513</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10/7/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 4945</t>
+          <t>RIVERA INDARTE AV. 196</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>00995424</t>
+          <t>01077458</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2397,7 +2398,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cable en Panza</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2405,48 +2406,48 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 196, "cod_calle": 19054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461758", "y": "-34.631104"}, "direccion": "RIVERA INDARTE AV. 196, CABA", "nombre_calle": "RIVERA INDARTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.49697</v>
+        <v>-58.461758</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.638377</v>
+        <v>-34.631104</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7454</t>
+          <t>7515</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10/8/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ALVAREZ, CRISOSTOMO 4550</t>
+          <t>BACACAY AV. 5832</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD31464910</t>
+          <t>01041108</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2461,7 +2462,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2469,48 +2470,48 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4550, "cod_calle": 1053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474710", "y": "-34.661789"}, "direccion": "ALVAREZ, CRISOSTOMO 4550, CABA", "nombre_calle": "ALVAREZ, CRISOSTOMO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5832, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.509490", "y": "-34.635305"}, "direccion": "BACACAY AV. 5832, CABA", "nombre_calle": "BACACAY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-58.47471</v>
+        <v>-58.50949</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.661789</v>
+        <v>-34.635305</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7488</t>
+          <t>7518</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 3486</t>
+          <t>SAN PEDRITO AV. 692</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>00995591</t>
+          <t>01077538</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2525,7 +2526,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2533,48 +2534,48 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 692, "cod_calle": 20050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.465887", "y": "-34.638906"}, "direccion": "SAN PEDRITO AV. 692, CABA", "nombre_calle": "SAN PEDRITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>-58.503893</v>
+        <v>-58.465887</v>
       </c>
       <c r="L33" t="n">
-        <v>-34.600457</v>
+        <v>-34.638906</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7486</t>
+          <t>7531</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/16/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ARGERICH 1663</t>
+          <t>BROWN, ALTE. AV. 1165</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>00995740</t>
+          <t>01079974</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2589,7 +2590,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cable en panza  y cortados</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2597,48 +2598,48 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1663, "cod_calle": 1110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479923", "y": "-34.615531"}, "direccion": "ARGERICH 1663, CABA", "nombre_calle": "ARGERICH", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1165, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.359175", "y": "-34.635034"}, "direccion": "BROWN, ALTE. AV. 1165, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>-58.479923</v>
+        <v>-58.359175</v>
       </c>
       <c r="L34" t="n">
-        <v>-34.615531</v>
+        <v>-34.635034</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7300</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/16/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VEDIA, ENRIQUE DE 2040</t>
+          <t>ELPIDIO GONZALEZ 4005</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>00995838</t>
+          <t>01042323</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2653,7 +2654,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y en panza</t>
+          <t>Tendido aereo a baja altura</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2661,14 +2662,14 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2040, "cod_calle": 23018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490128", "y": "-34.612403"}, "direccion": "VEDIA, ENRIQUE DE 2040, CABA", "nombre_calle": "VEDIA, ENRIQUE DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4005, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494871", "y": "-34.616813"}, "direccion": "GONZALEZ, ELPIDIO 4005, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-58.490128</v>
+        <v>-58.494871</v>
       </c>
       <c r="L35" t="n">
-        <v>-34.612403</v>
+        <v>-34.616813</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -2684,25 +2685,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7506</t>
+          <t>5856</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 808</t>
+          <t>MALABIA 2312</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>00996054</t>
+          <t>01080236</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2717,7 +2718,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Cable en panza y cables cortados</t>
+          <t>Cable colgando</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2725,48 +2726,48 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2312, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.419732", "y": "-34.585957"}, "direccion": "MALABIA 2312, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>-58.481009</v>
+        <v>-58.419732</v>
       </c>
       <c r="L36" t="n">
-        <v>-34.623627</v>
+        <v>-34.585957</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>5879</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VIRGILIO 1332</t>
+          <t>DEHEZA 4652</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>01025343</t>
+          <t>01071557</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2781,7 +2782,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cable cortado y en panza</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2789,18 +2790,18 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4652, "cod_calle": 4017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494726", "y": "-34.550952"}, "direccion": "DEHEZA 4652, CABA", "nombre_calle": "DEHEZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>-58.51048</v>
+        <v>-58.494726</v>
       </c>
       <c r="L37" t="n">
-        <v>-34.626427</v>
+        <v>-34.550952</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2812,25 +2813,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3578</t>
+          <t>7534</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MIRANDA 3786</t>
+          <t>CABILDO AV. 4443</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>01026171</t>
+          <t>01071029</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2845,7 +2846,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Cable a baja altura obstaculiza contenedor</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2853,18 +2854,18 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4443, "cod_calle": 3005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472225", "y": "-34.543415"}, "direccion": "CABILDO AV. 4443, CABA", "nombre_calle": "CABILDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>-58.49385</v>
+        <v>-58.472225</v>
       </c>
       <c r="L38" t="n">
-        <v>-34.614267</v>
+        <v>-34.543415</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2876,25 +2877,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7513</t>
+          <t>7535</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 196</t>
+          <t>CALIFORNIA 901</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>01077458</t>
+          <t>01080743</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2917,18 +2918,18 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 196, "cod_calle": 19054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461758", "y": "-34.631104"}, "direccion": "RIVERA INDARTE AV. 196, CABA", "nombre_calle": "RIVERA INDARTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>-58.461758</v>
+        <v>-58.362419</v>
       </c>
       <c r="L39" t="n">
-        <v>-34.631104</v>
+        <v>-34.644693</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2940,25 +2941,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7515</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BACACAY AV. 5832</t>
+          <t>PEREZ GALDOS, BENITO AV. 37</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>01041108</t>
+          <t>01081746</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2973,7 +2974,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2981,48 +2982,48 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5832, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.509490", "y": "-34.635305"}, "direccion": "BACACAY AV. 5832, CABA", "nombre_calle": "BACACAY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 37, "cod_calle": 17063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.357696", "y": "-34.628505"}, "direccion": "PEREZ GALDOS, BENITO AV. 37, CABA", "nombre_calle": "PEREZ GALDOS, BENITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>-58.50949</v>
+        <v>-58.357696</v>
       </c>
       <c r="L40" t="n">
-        <v>-34.635305</v>
+        <v>-34.628505</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>7518</t>
+          <t>5048</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SAN PEDRITO AV. 692</t>
+          <t>PUEYRREDON AV. 443</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>01077538</t>
+          <t>01081536</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3037,7 +3038,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Caja de empalme colgando y cables fuera de norma</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3045,18 +3046,18 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 692, "cod_calle": 20050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.465887", "y": "-34.638906"}, "direccion": "SAN PEDRITO AV. 692, CABA", "nombre_calle": "SAN PEDRITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 443, "cod_calle": 17132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405539", "y": "-34.605224"}, "direccion": "PUEYRREDON AV. 443, CABA", "nombre_calle": "PUEYRREDON AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 443, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440584", "y": "-34.614360"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 443, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>-58.465887</v>
+        <v>-58.405539</v>
       </c>
       <c r="L41" t="n">
-        <v>-34.638906</v>
+        <v>-34.605224</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3068,25 +3069,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>7531</t>
+          <t>4740</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10/16/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 1165</t>
+          <t>JUJUY AV. 332</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>01079974</t>
+          <t>01081027</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3101,7 +3102,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Cable cortado y cables en panza</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3109,533 +3110,21 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1165, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.359175", "y": "-34.635034"}, "direccion": "BROWN, ALTE. AV. 1165, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 332, "cod_calle": 10013, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405047", "y": "-34.613855"}, "direccion": "JUJUY AV. 332, CABA", "nombre_calle": "JUJUY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>-58.359175</v>
+        <v>-58.405047</v>
       </c>
       <c r="L42" t="n">
-        <v>-34.635034</v>
+        <v>-34.613855</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2548</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>10/16/2025</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>ELPIDIO GONZALEZ 4005</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>10</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>01042323</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Tendido aereo a baja altura</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4005, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494871", "y": "-34.616813"}, "direccion": "GONZALEZ, ELPIDIO 4005, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>-58.494871</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-34.616813</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>5856</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>10/17/2025</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>MALABIA 2312</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>14</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>01080236</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Cable colgando</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2312, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.419732", "y": "-34.585957"}, "direccion": "MALABIA 2312, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>-58.419732</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-34.585957</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>5879</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>10/17/2025</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>DEHEZA 4652</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>12</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>01071557</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Caja de empalme colgando</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4652, "cod_calle": 4017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494726", "y": "-34.550952"}, "direccion": "DEHEZA 4652, CABA", "nombre_calle": "DEHEZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>-58.494726</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-34.550952</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>7534</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>10/20/2025</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>CABILDO AV. 4443</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>13</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>01071029</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Cable a baja altura obstaculiza contenedor</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4443, "cod_calle": 3005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472225", "y": "-34.543415"}, "direccion": "CABILDO AV. 4443, CABA", "nombre_calle": "CABILDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>-58.472225</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-34.543415</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>7535</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>10/20/2025</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>CALIFORNIA 901</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>4</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>01080743</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Cable en panza y cortados</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>-58.362419</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-34.644693</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>7547</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>10/20/2025</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>PEREZ GALDOS, BENITO AV. 37</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>4</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>01081746</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Cable en panza y cortados</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 37, "cod_calle": 17063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.357696", "y": "-34.628505"}, "direccion": "PEREZ GALDOS, BENITO AV. 37, CABA", "nombre_calle": "PEREZ GALDOS, BENITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>-58.357696</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-34.628505</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>5048</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>10/20/2025</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>PUEYRREDON AV. 443</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>01081536</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Caja de empalme colgando y cables fuera de norma</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 443, "cod_calle": 17132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405539", "y": "-34.605224"}, "direccion": "PUEYRREDON AV. 443, CABA", "nombre_calle": "PUEYRREDON AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 443, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440584", "y": "-34.614360"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 443, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>-58.405539</v>
-      </c>
-      <c r="L49" t="n">
-        <v>-34.605224</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>4740</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>10/20/2025</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>JUJUY AV. 332</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>01081027</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Cable cortado y cables en panza</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 332, "cod_calle": 10013, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405047", "y": "-34.613855"}, "direccion": "JUJUY AV. 332, CABA", "nombre_calle": "JUJUY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>-58.405047</v>
-      </c>
-      <c r="L50" t="n">
-        <v>-34.613855</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,25 +636,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6917</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BRIN, MINISTRO 1375</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ICD30399224</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,7 +669,8 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>tendido a baja altura tiene pendiente tambien una columna en l mismo lugar ver en conjunto</t>
+          <t xml:space="preserve">se subieron las fotos de soldado de la frontera 1057
+</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,18 +678,18 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1375, "cod_calle": 2114, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.355342", "y": "-34.635650"}, "direccion": "BRIN, MINISTRO 1375, CABA", "nombre_calle": "BRIN, MINISTRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.355342</v>
+        <v>-58.435519</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.63565</v>
+        <v>-34.566886</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -700,25 +701,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6940</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/12/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PERDRIEL 1490</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30399377</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +734,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,14 +742,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1490, "cod_calle": 17057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385244", "y": "-34.651701"}, "direccion": "PERDRIEL 1490, CABA", "nombre_calle": "PERDRIEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.385244</v>
+        <v>-58.401027</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.651701</v>
+        <v>-34.625071</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -764,25 +765,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6946</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/14/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SAENZ AV. 1161</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ICD30398322 </t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +798,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,14 +806,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1161, "cod_calle": 20002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.416595", "y": "-34.653750"}, "direccion": "SAENZ AV. 1161, CABA", "nombre_calle": "SAENZ AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1161, "cod_calle": 20004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.382941", "y": "-34.602931"}, "direccion": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV. 1161, CABA", "nombre_calle": "SAENZ PEÑA, ROQUE, PRES. DIAGONAL NORTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.416595</v>
+        <v>-58.371599</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.65375</v>
+        <v>-34.623098</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -828,25 +829,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,8 +862,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">se subieron las fotos de soldado de la frontera 1057
-</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -870,18 +870,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.435519</v>
+        <v>-58.374174</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.566886</v>
+        <v>-34.623403</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -893,25 +893,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -934,18 +934,18 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.401027</v>
+        <v>-58.394943</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.625071</v>
+        <v>-34.594725</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -957,25 +957,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>7216</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>NEWBERY, JORGE AV. 3870</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30800947</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>rienda cortada reparar o retirar</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -998,48 +998,48 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.371599</v>
+        <v>-58.450024</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.623098</v>
+        <v>-34.586606</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1062,48 +1062,48 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.374174</v>
+        <v>-58.444861</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.623403</v>
+        <v>-34.586807</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1126,18 +1126,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.394943</v>
+        <v>-58.358272</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.594725</v>
+        <v>-34.637051</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1149,25 +1149,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1190,18 +1190,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.450024</v>
+        <v>-58.467279</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.586606</v>
+        <v>-34.551117</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1213,25 +1213,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>ICD31397530</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1254,48 +1254,48 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.444861</v>
+        <v>-58.386725</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.586807</v>
+        <v>-34.632368</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>SANABRIA 4785</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1318,40 +1318,40 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.358272</v>
+        <v>-58.520172</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.637051</v>
+        <v>-34.596414</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3496</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3017</t>
+          <t>PALOS 460</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD30925340</t>
+          <t>ICD31437928</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1382,14 +1382,14 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3017, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405983", "y": "-34.637104"}, "direccion": "CASEROS AV. 3017, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.405983</v>
+        <v>-58.362492</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.637104</v>
+        <v>-34.635242</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1405,25 +1405,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>10/7/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CASEROS AV. 3219</t>
+          <t>FALCON, RAMON L.,CNEL. 4945</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ICD30925391</t>
+          <t>00995424</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en Panza</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1446,48 +1446,48 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3219, "cod_calle": 3085, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409480", "y": "-34.637709"}, "direccion": "CASEROS AV. 3219, CABA", "nombre_calle": "CASEROS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.40948</v>
+        <v>-58.49697</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.637709</v>
+        <v>-34.638377</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>7488</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ORTEGA 974</t>
+          <t>LAMARCA, EMILIO 3486</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ICD31396631</t>
+          <t>00995591</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1510,48 +1510,48 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 974, "cod_calle": 16031, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.445007", "y": "-34.614987"}, "direccion": "ORTEGA 974, CABA", "nombre_calle": "ORTEGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.445007</v>
+        <v>-58.503893</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.614987</v>
+        <v>-34.600457</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>10/13/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>LAMARCA, EMILIO 808</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>00996054</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Cable en panza y cables cortados</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1574,18 +1574,18 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.467279</v>
+        <v>-58.481009</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.551117</v>
+        <v>-34.623627</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1597,25 +1597,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3145</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>INCLAN 4329</t>
+          <t>VIRGILIO 1332</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ICD31397293</t>
+          <t>01025343</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable cortado y en panza</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1638,48 +1638,48 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4329, "cod_calle": 9009, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424297", "y": "-34.633565"}, "direccion": "INCLAN 4329, CABA", "nombre_calle": "INCLAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.424297</v>
+        <v>-58.51048</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.633565</v>
+        <v>-34.626427</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RONDEAU 1501</t>
+          <t>MIRANDA 3786</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ICD31397530</t>
+          <t>01026171</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1702,48 +1702,48 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.386725</v>
+        <v>-58.49385</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.632368</v>
+        <v>-34.614267</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>7515</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SANABRIA 4785</t>
+          <t>BACACAY AV. 5832</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ICD31075271</t>
+          <t>01041108</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cables cortados</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1766,18 +1766,18 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5832, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.509490", "y": "-34.635305"}, "direccion": "BACACAY AV. 5832, CABA", "nombre_calle": "BACACAY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.520172</v>
+        <v>-58.50949</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.596414</v>
+        <v>-34.635305</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1789,25 +1789,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2921</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>10/16/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SARMIENTO 4270</t>
+          <t>ELPIDIO GONZALEZ 4005</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ICD31436258</t>
+          <t>01042323</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido aereo a baja altura</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1830,48 +1830,48 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4270, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425368", "y": "-34.604407"}, "direccion": "SARMIENTO 4270, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 4270, "cod_calle": 20075, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410672", "y": "-34.570296"}, "direccion": "SARMIENTO AV. 4270, CABA", "nombre_calle": "SARMIENTO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4005, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494871", "y": "-34.616813"}, "direccion": "GONZALEZ, ELPIDIO 4005, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.425368</v>
+        <v>-58.494871</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.604407</v>
+        <v>-34.616813</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>5856</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PALOS 460</t>
+          <t>MALABIA 2312</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ICD31437928</t>
+          <t>01080236</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
+          <t>Cable colgando</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1894,18 +1894,18 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2312, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.419732", "y": "-34.585957"}, "direccion": "MALABIA 2312, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.362492</v>
+        <v>-58.419732</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.635242</v>
+        <v>-34.585957</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1917,25 +1917,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>5879</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10/2/2025</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>YERBAL 1301</t>
+          <t>DEHEZA 4652</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ICD31456923</t>
+          <t>01071557</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tendido aereo cortado </t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1958,48 +1958,48 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1301, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448710", "y": "-34.622159"}, "direccion": "YERBAL 1301, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4652, "cod_calle": 4017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494726", "y": "-34.550952"}, "direccion": "DEHEZA 4652, CABA", "nombre_calle": "DEHEZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.44871</v>
+        <v>-58.494726</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.622159</v>
+        <v>-34.550952</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7450</t>
+          <t>7534</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10/7/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 4945</t>
+          <t>CABILDO AV. 4443</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>00995424</t>
+          <t>01071029</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cable en Panza</t>
+          <t>Cable a baja altura obstaculiza contenedor</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2022,18 +2022,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4443, "cod_calle": 3005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472225", "y": "-34.543415"}, "direccion": "CABILDO AV. 4443, CABA", "nombre_calle": "CABILDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.49697</v>
+        <v>-58.472225</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.638377</v>
+        <v>-34.543415</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2045,25 +2045,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7454</t>
+          <t>7535</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10/8/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ALVAREZ, CRISOSTOMO 4550</t>
+          <t>CALIFORNIA 901</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICD31464910</t>
+          <t>01080743</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2086,18 +2086,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4550, "cod_calle": 1053, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474710", "y": "-34.661789"}, "direccion": "ALVAREZ, CRISOSTOMO 4550, CABA", "nombre_calle": "ALVAREZ, CRISOSTOMO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.47471</v>
+        <v>-58.362419</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.661789</v>
+        <v>-34.644693</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2109,25 +2109,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7488</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 3486</t>
+          <t>PEREZ GALDOS, BENITO AV. 37</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>00995591</t>
+          <t>01081746</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2150,48 +2150,48 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 37, "cod_calle": 17063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.357696", "y": "-34.628505"}, "direccion": "PEREZ GALDOS, BENITO AV. 37, CABA", "nombre_calle": "PEREZ GALDOS, BENITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.503893</v>
+        <v>-58.357696</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.600457</v>
+        <v>-34.628505</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7506</t>
+          <t>5048</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 808</t>
+          <t>PUEYRREDON AV. 443</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>00996054</t>
+          <t>01081536</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cable en panza y cables cortados</t>
+          <t>Caja de empalme colgando y cables fuera de norma</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2214,48 +2214,48 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 443, "cod_calle": 17132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405539", "y": "-34.605224"}, "direccion": "PUEYRREDON AV. 443, CABA", "nombre_calle": "PUEYRREDON AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 443, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440584", "y": "-34.614360"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 443, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.481009</v>
+        <v>-58.405539</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.623627</v>
+        <v>-34.605224</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>4740</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>VIRGILIO 1332</t>
+          <t>JUJUY AV. 332</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>01025343</t>
+          <t>01081027</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cable cortado y en panza</t>
+          <t>Cable cortado y cables en panza</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2278,48 +2278,48 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 332, "cod_calle": 10013, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405047", "y": "-34.613855"}, "direccion": "JUJUY AV. 332, CABA", "nombre_calle": "JUJUY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.51048</v>
+        <v>-58.405047</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.626427</v>
+        <v>-34.613855</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3578</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/27/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MIRANDA 3786</t>
+          <t>AVELLANEDA AV. 2448</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>01026171</t>
+          <t>01164255</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>NAP Colgando</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2342,40 +2342,40 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2448, "cod_calle": 1141, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.465414", "y": "-34.624536"}, "direccion": "AVELLANEDA AV. 2448, CABA", "nombre_calle": "AVELLANEDA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.49385</v>
+        <v>-58.465414</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.614267</v>
+        <v>-34.624536</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7513</t>
+          <t>7415</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/24/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RIVERA INDARTE AV. 196</t>
+          <t>GRANADEROS 36</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>01077458</t>
+          <t>01162895</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2398,7 +2398,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2406,14 +2406,14 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 196, "cod_calle": 19054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.461758", "y": "-34.631104"}, "direccion": "RIVERA INDARTE AV. 196, CABA", "nombre_calle": "RIVERA INDARTE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 36, "cod_calle": 7077, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.459137", "y": "-34.627101"}, "direccion": "GRANADEROS 36, CABA", "nombre_calle": "GRANADEROS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.461758</v>
+        <v>-58.459137</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.631104</v>
+        <v>-34.627101</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2421,710 +2421,6 @@
         </is>
       </c>
       <c r="N31" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>7515</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>10/15/2025</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>BACACAY AV. 5832</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>10</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>01041108</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Reparar rienda</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5832, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.509490", "y": "-34.635305"}, "direccion": "BACACAY AV. 5832, CABA", "nombre_calle": "BACACAY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>-58.50949</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-34.635305</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>7518</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>10/15/2025</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>SAN PEDRITO AV. 692</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>7</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>01077538</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 692, "cod_calle": 20050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.465887", "y": "-34.638906"}, "direccion": "SAN PEDRITO AV. 692, CABA", "nombre_calle": "SAN PEDRITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>-58.465887</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-34.638906</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>7531</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>10/16/2025</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>BROWN, ALTE. AV. 1165</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>01079974</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Cable en panza y cortados</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1165, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.359175", "y": "-34.635034"}, "direccion": "BROWN, ALTE. AV. 1165, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>-58.359175</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-34.635034</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2548</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>10/16/2025</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>ELPIDIO GONZALEZ 4005</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>10</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>01042323</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Tendido aereo a baja altura</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4005, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494871", "y": "-34.616813"}, "direccion": "GONZALEZ, ELPIDIO 4005, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>-58.494871</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-34.616813</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>5856</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>10/17/2025</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>MALABIA 2312</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>14</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>01080236</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Cable colgando</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2312, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.419732", "y": "-34.585957"}, "direccion": "MALABIA 2312, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>-58.419732</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-34.585957</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>5879</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>10/17/2025</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>DEHEZA 4652</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>12</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>01071557</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Caja de empalme colgando</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4652, "cod_calle": 4017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494726", "y": "-34.550952"}, "direccion": "DEHEZA 4652, CABA", "nombre_calle": "DEHEZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>-58.494726</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-34.550952</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>7534</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>10/20/2025</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>CABILDO AV. 4443</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>13</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>01071029</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Cable a baja altura obstaculiza contenedor</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4443, "cod_calle": 3005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472225", "y": "-34.543415"}, "direccion": "CABILDO AV. 4443, CABA", "nombre_calle": "CABILDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>-58.472225</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-34.543415</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>7535</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>10/20/2025</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CALIFORNIA 901</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>4</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>01080743</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Cable en panza y cortados</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>-58.362419</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-34.644693</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>7547</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>10/20/2025</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>PEREZ GALDOS, BENITO AV. 37</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>01081746</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Cable en panza y cortados</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 37, "cod_calle": 17063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.357696", "y": "-34.628505"}, "direccion": "PEREZ GALDOS, BENITO AV. 37, CABA", "nombre_calle": "PEREZ GALDOS, BENITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>-58.357696</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-34.628505</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>5048</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>10/20/2025</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>PUEYRREDON AV. 443</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>01081536</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Caja de empalme colgando y cables fuera de norma</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 443, "cod_calle": 17132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405539", "y": "-34.605224"}, "direccion": "PUEYRREDON AV. 443, CABA", "nombre_calle": "PUEYRREDON AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 443, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440584", "y": "-34.614360"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 443, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>-58.405539</v>
-      </c>
-      <c r="L41" t="n">
-        <v>-34.605224</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>4740</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>10/20/2025</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>JUJUY AV. 332</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>01081027</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Cable cortado y cables en panza</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 332, "cod_calle": 10013, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405047", "y": "-34.613855"}, "direccion": "JUJUY AV. 332, CABA", "nombre_calle": "JUJUY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>-58.405047</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-34.613855</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,25 +508,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6/2/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GUATEMALA 5527</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ICD30466317</t>
+          <t>ICD30345482</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>estan pidiendo que saquemos fotos de nuevo para cerrar el caso traten de que se vea todo lo mismo que con la foto del reclamo</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -549,18 +549,18 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5527, "cod_calle": 7093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.431302", "y": "-34.580805"}, "direccion": "GUATEMALA 5527, CABA", "nombre_calle": "GUATEMALA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.431302</v>
+        <v>-58.360551</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.580805</v>
+        <v>-34.632684</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -572,25 +572,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ICD30345482</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +605,8 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t xml:space="preserve">se subieron las fotos de soldado de la frontera 1057
+</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,18 +614,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.360551</v>
+        <v>-58.435519</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.632684</v>
+        <v>-34.566886</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -636,25 +637,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,8 +670,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">se subieron las fotos de soldado de la frontera 1057
-</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -678,18 +678,18 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.435519</v>
+        <v>-58.401027</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.566886</v>
+        <v>-34.625071</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -701,25 +701,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -742,14 +742,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.401027</v>
+        <v>-58.371599</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.625071</v>
+        <v>-34.623098</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -765,17 +765,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -806,14 +806,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.371599</v>
+        <v>-58.374174</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.623098</v>
+        <v>-34.623403</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -839,15 +839,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -870,18 +870,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.374174</v>
+        <v>-58.394943</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.623403</v>
+        <v>-34.594725</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -893,25 +893,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>7216</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>NEWBERY, JORGE AV. 3870</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>ICD30800947</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>rienda cortada reparar o retirar</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -934,40 +934,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.394943</v>
+        <v>-58.450024</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.594725</v>
+        <v>-34.586606</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -998,14 +998,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.450024</v>
+        <v>-58.444861</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.586606</v>
+        <v>-34.586807</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1021,25 +1021,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1062,48 +1062,48 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.444861</v>
+        <v>-58.358272</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.586807</v>
+        <v>-34.637051</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1126,30 +1126,30 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.358272</v>
+        <v>-58.467279</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.637051</v>
+        <v>-34.551117</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>ICD31397530</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1190,48 +1190,48 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.467279</v>
+        <v>-58.386725</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.551117</v>
+        <v>-34.632368</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RONDEAU 1501</t>
+          <t>SANABRIA 4785</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD31397530</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1254,48 +1254,48 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.386725</v>
+        <v>-58.520172</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.632368</v>
+        <v>-34.596414</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SANABRIA 4785</t>
+          <t>PALOS 460</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD31075271</t>
+          <t>ICD31437928</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cables cortados</t>
+          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1318,48 +1318,48 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.520172</v>
+        <v>-58.362492</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.596414</v>
+        <v>-34.635242</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>7450</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>10/7/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PALOS 460</t>
+          <t>FALCON, RAMON L.,CNEL. 4945</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ICD31437928</t>
+          <t>00995424</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
+          <t>Cable en Panza</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1382,48 +1382,48 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.362492</v>
+        <v>-58.49697</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.635242</v>
+        <v>-34.638377</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7450</t>
+          <t>7488</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10/7/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FALCON, RAMON L.,CNEL. 4945</t>
+          <t>LAMARCA, EMILIO 3486</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00995424</t>
+          <t>00995591</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cable en Panza</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1446,18 +1446,18 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4945, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.496970", "y": "-34.638377"}, "direccion": "FALCON, RAMON L.,CNEL. 4945, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.49697</v>
+        <v>-58.503893</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.638377</v>
+        <v>-34.600457</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1469,17 +1469,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7488</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/13/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 3486</t>
+          <t>LAMARCA, EMILIO 808</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>00995591</t>
+          <t>00996054</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cable en panza y cables cortados</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1510,18 +1510,18 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.503893</v>
+        <v>-58.481009</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.600457</v>
+        <v>-34.623627</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1533,25 +1533,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7506</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 808</t>
+          <t>VIRGILIO 1332</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>00996054</t>
+          <t>01025343</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cable en panza y cables cortados</t>
+          <t>Cable cortado y en panza</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1574,14 +1574,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.481009</v>
+        <v>-58.51048</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.623627</v>
+        <v>-34.626427</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>3578</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1607,15 +1607,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VIRGILIO 1332</t>
+          <t>MIRANDA 3786</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>01025343</t>
+          <t>01026171</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Cable cortado y en panza</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1638,14 +1638,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.51048</v>
+        <v>-58.49385</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.626427</v>
+        <v>-34.614267</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3578</t>
+          <t>7515</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1671,15 +1671,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MIRANDA 3786</t>
+          <t>BACACAY AV. 5832</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>01026171</t>
+          <t>01041108</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Reparar rienda</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1702,14 +1702,14 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3786, "cod_calle": 13088, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.493850", "y": "-34.614267"}, "direccion": "MIRANDA 3786, CABA", "nombre_calle": "MIRANDA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5832, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.509490", "y": "-34.635305"}, "direccion": "BACACAY AV. 5832, CABA", "nombre_calle": "BACACAY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.49385</v>
+        <v>-58.50949</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.614267</v>
+        <v>-34.635305</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1725,17 +1725,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7515</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/16/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BACACAY AV. 5832</t>
+          <t>ELPIDIO GONZALEZ 4005</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>01041108</t>
+          <t>01042323</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Reparar rienda</t>
+          <t>Tendido aereo a baja altura</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5832, "cod_calle": 2002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.509490", "y": "-34.635305"}, "direccion": "BACACAY AV. 5832, CABA", "nombre_calle": "BACACAY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4005, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494871", "y": "-34.616813"}, "direccion": "GONZALEZ, ELPIDIO 4005, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.50949</v>
+        <v>-58.494871</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.635305</v>
+        <v>-34.616813</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1789,25 +1789,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>5856</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10/16/2025</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ELPIDIO GONZALEZ 4005</t>
+          <t>MALABIA 2312</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>01042323</t>
+          <t>01080236</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tendido aereo a baja altura</t>
+          <t>Cable colgando</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1830,30 +1830,30 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4005, "cod_calle": 7065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494871", "y": "-34.616813"}, "direccion": "GONZALEZ, ELPIDIO 4005, CABA", "nombre_calle": "GONZALEZ, ELPIDIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2312, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.419732", "y": "-34.585957"}, "direccion": "MALABIA 2312, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.494871</v>
+        <v>-58.419732</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.616813</v>
+        <v>-34.585957</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5856</t>
+          <t>5879</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1863,15 +1863,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MALABIA 2312</t>
+          <t>DEHEZA 4652</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>01080236</t>
+          <t>01071557</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Cable colgando</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1894,48 +1894,48 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2312, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.419732", "y": "-34.585957"}, "direccion": "MALABIA 2312, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4652, "cod_calle": 4017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494726", "y": "-34.550952"}, "direccion": "DEHEZA 4652, CABA", "nombre_calle": "DEHEZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.419732</v>
+        <v>-58.494726</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.585957</v>
+        <v>-34.550952</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5879</t>
+          <t>7534</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10/17/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DEHEZA 4652</t>
+          <t>CABILDO AV. 4443</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>01071557</t>
+          <t>01071029</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Cable a baja altura obstaculiza contenedor</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1958,14 +1958,14 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4652, "cod_calle": 4017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494726", "y": "-34.550952"}, "direccion": "DEHEZA 4652, CABA", "nombre_calle": "DEHEZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4443, "cod_calle": 3005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472225", "y": "-34.543415"}, "direccion": "CABILDO AV. 4443, CABA", "nombre_calle": "CABILDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.494726</v>
+        <v>-58.472225</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.550952</v>
+        <v>-34.543415</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1981,7 +1981,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7534</t>
+          <t>7535</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1991,15 +1991,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CABILDO AV. 4443</t>
+          <t>CALIFORNIA 901</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>01071029</t>
+          <t>01080743</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cable a baja altura obstaculiza contenedor</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2022,30 +2022,30 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4443, "cod_calle": 3005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472225", "y": "-34.543415"}, "direccion": "CABILDO AV. 4443, CABA", "nombre_calle": "CABILDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.472225</v>
+        <v>-58.362419</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.543415</v>
+        <v>-34.644693</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>7535</t>
+          <t>7547</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CALIFORNIA 901</t>
+          <t>PEREZ GALDOS, BENITO AV. 37</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>01080743</t>
+          <t>01081746</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2086,14 +2086,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 37, "cod_calle": 17063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.357696", "y": "-34.628505"}, "direccion": "PEREZ GALDOS, BENITO AV. 37, CABA", "nombre_calle": "PEREZ GALDOS, BENITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.362419</v>
+        <v>-58.357696</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.644693</v>
+        <v>-34.628505</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>5048</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PEREZ GALDOS, BENITO AV. 37</t>
+          <t>PUEYRREDON AV. 443</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>01081746</t>
+          <t>01081536</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Caja de empalme colgando y cables fuera de norma</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2150,18 +2150,18 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 37, "cod_calle": 17063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.357696", "y": "-34.628505"}, "direccion": "PEREZ GALDOS, BENITO AV. 37, CABA", "nombre_calle": "PEREZ GALDOS, BENITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 443, "cod_calle": 17132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405539", "y": "-34.605224"}, "direccion": "PUEYRREDON AV. 443, CABA", "nombre_calle": "PUEYRREDON AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 443, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440584", "y": "-34.614360"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 443, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.357696</v>
+        <v>-58.405539</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.628505</v>
+        <v>-34.605224</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2173,7 +2173,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5048</t>
+          <t>4740</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PUEYRREDON AV. 443</t>
+          <t>JUJUY AV. 332</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>01081536</t>
+          <t>01081027</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando y cables fuera de norma</t>
+          <t>Cable cortado y cables en panza</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2214,14 +2214,14 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 443, "cod_calle": 17132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405539", "y": "-34.605224"}, "direccion": "PUEYRREDON AV. 443, CABA", "nombre_calle": "PUEYRREDON AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 443, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440584", "y": "-34.614360"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 443, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 332, "cod_calle": 10013, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405047", "y": "-34.613855"}, "direccion": "JUJUY AV. 332, CABA", "nombre_calle": "JUJUY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.405539</v>
+        <v>-58.405047</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.605224</v>
+        <v>-34.613855</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2237,25 +2237,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4740</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10/20/2025</t>
+          <t>10/27/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JUJUY AV. 332</t>
+          <t>AVELLANEDA AV. 2448</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>01081027</t>
+          <t>01164255</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cable cortado y cables en panza</t>
+          <t>NAP Colgando</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2278,18 +2278,18 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 332, "cod_calle": 10013, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405047", "y": "-34.613855"}, "direccion": "JUJUY AV. 332, CABA", "nombre_calle": "JUJUY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2448, "cod_calle": 1141, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.465414", "y": "-34.624536"}, "direccion": "AVELLANEDA AV. 2448, CABA", "nombre_calle": "AVELLANEDA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.405047</v>
+        <v>-58.465414</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.613855</v>
+        <v>-34.624536</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2301,17 +2301,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>7415</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10/27/2025</t>
+          <t>10/24/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AVELLANEDA AV. 2448</t>
+          <t>GRANADEROS 36</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>01164255</t>
+          <t>01162895</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>NAP Colgando</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2342,14 +2342,14 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2448, "cod_calle": 1141, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.465414", "y": "-34.624536"}, "direccion": "AVELLANEDA AV. 2448, CABA", "nombre_calle": "AVELLANEDA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 36, "cod_calle": 7077, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.459137", "y": "-34.627101"}, "direccion": "GRANADEROS 36, CABA", "nombre_calle": "GRANADEROS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.465414</v>
+        <v>-58.459137</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.624536</v>
+        <v>-34.627101</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2365,25 +2365,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7415</t>
+          <t>7640</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>10/24/2025</t>
+          <t>10/28/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GRANADEROS 36</t>
+          <t>CIUDAD DE LA PAZ 258</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>01162895</t>
+          <t>01183611</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2398,31 +2398,607 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>Cable en panza o cortados</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 258, "cod_calle": 3128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440983", "y": "-34.574792"}, "direccion": "CIUDAD DE LA PAZ 258, CABA", "nombre_calle": "CIUDAD DE LA PAZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>-58.440983</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-34.574792</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7680</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>10/28/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>LARREA 811</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>01196663</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 811, "cod_calle": 12065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402416", "y": "-34.598847"}, "direccion": "LARREA 811, CABA", "nombre_calle": "LARREA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>-58.402416</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-34.598847</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3447</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10/28/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AZOPARDO 1071</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>01196692</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
           <t>Tendido a baja altura</t>
         </is>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 36, "cod_calle": 7077, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.459137", "y": "-34.627101"}, "direccion": "GRANADEROS 36, CABA", "nombre_calle": "GRANADEROS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>-58.459137</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-34.627101</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1071, "cod_calle": 1149, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.367154", "y": "-34.620075"}, "direccion": "AZOPARDO 1071, CABA", "nombre_calle": "AZOPARDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>-58.367154</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-34.620075</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3487</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>10/28/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ACOSTA, MARIANO AV. 171</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>10</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>01188247</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 171, "cod_calle": 1006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.480436", "y": "-34.635569"}, "direccion": "ACOSTA, MARIANO AV. 171, CABA", "nombre_calle": "ACOSTA, MARIANO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>-58.480436</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-34.635569</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7696</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>10/29/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CORDOBA AV. 1776</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1776, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.392498", "y": "-34.599695"}, "direccion": "CORDOBA AV. 1776, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>-58.392498</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-34.599695</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7698</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>10/30/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>24 DE NOVIEMBRE 151</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 151, "cod_calle": 23025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411626", "y": "-34.612418"}, "direccion": "24 DE NOVIEMBRE 151, CABA", "nombre_calle": "24 DE NOVIEMBRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>-58.411626</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-34.612418</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>7711</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>10/30/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>LARREA 608</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Cable en panza cables cortados</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 608, "cod_calle": 12065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402363", "y": "-34.601960"}, "direccion": "LARREA 608, CABA", "nombre_calle": "LARREA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>-58.402363</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-34.60196</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7722</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>10/30/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CONCORDIA 1401</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>11</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1401, "cod_calle": 3151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484849", "y": "-34.618754"}, "direccion": "CONCORDIA 1401, CABA", "nombre_calle": "CONCORDIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>-58.484849</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-34.618754</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>7729</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>10/30/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SAN JOSE 343</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 343, "cod_calle": 20038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386186", "y": "-34.612745"}, "direccion": "SAN JOSE 343, CABA", "nombre_calle": "SAN JOSE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 343, "cod_calle": 20039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437866", "y": "-34.622981"}, "direccion": "SAN JOSE DE CALASANZ 343, CABA", "nombre_calle": "SAN JOSE DE CALASANZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>-58.386186</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-34.612745</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7740</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>10/30/2025</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DEL LIBERTADOR AV. 8620</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>13</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 8620, "cod_calle": 12107, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466588", "y": "-34.536500"}, "direccion": "DEL LIBERTADOR AV. 8620, CABA", "nombre_calle": "DEL LIBERTADOR AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>-58.466588</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-34.5365</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Optical_Power" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Optical_Power" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,25 +508,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7721</t>
+          <t>6265</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11/4/2025</t>
+          <t>8/7/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CAMPANA 1558</t>
+          <t>BROWN, ALTE. AV. 881</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01282226</t>
+          <t>ICD30345482</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cable en panza cable cortado</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -549,40 +549,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1558, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.484671", "y": "-34.616467"}, "direccion": "CAMPANA 1558, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.484671</v>
+        <v>-58.360551</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.616467</v>
+        <v>-34.632684</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7762</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11/3/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CABELLO 3591</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -590,7 +590,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>01287347</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +605,8 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Caja empalme colgando</t>
+          <t xml:space="preserve">se subieron las fotos de soldado de la frontera 1057
+</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,14 +614,14 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3591, "cod_calle": 3003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410213", "y": "-34.580844"}, "direccion": "CABELLO 3591, CABA", "nombre_calle": "CABELLO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.410213</v>
+        <v>-58.435519</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.580844</v>
+        <v>-34.566886</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -636,25 +637,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7770</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11/3/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GAINZA, MARTIN DE, GRAL. 461</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>01287423</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,7 +670,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tendido baja altura</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,18 +678,18 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 461, "cod_calle": 7003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446599", "y": "-34.617002"}, "direccion": "GAINZA, MARTIN DE, GRAL. 461, CABA", "nombre_calle": "GAINZA, MARTIN DE, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.446599</v>
+        <v>-58.401027</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.617002</v>
+        <v>-34.625071</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -700,25 +701,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7761</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11/3/2025</t>
+          <t>8/29/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CABELLO 3476</t>
+          <t>COCHABAMBA 424</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>01287504</t>
+          <t>ICD30532721</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +734,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Caja empalme colgando</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,18 +742,18 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3476, "cod_calle": 3003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409438", "y": "-34.581180"}, "direccion": "CABELLO 3476, CABA", "nombre_calle": "CABELLO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.409438</v>
+        <v>-58.371599</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.58118</v>
+        <v>-34.623098</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -764,17 +765,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7776</t>
+          <t>7198</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11/3/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA AV. 1616</t>
+          <t>PERU 1305</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -782,7 +783,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 01287593</t>
+          <t>ICD30737428</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +798,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cables colgando</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,14 +806,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1616, "cod_calle": 9010, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.389202", "y": "-34.618098"}, "direccion": "INDEPENDENCIA AV. 1616, CABA", "nombre_calle": "INDEPENDENCIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.389202</v>
+        <v>-58.374174</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.618098</v>
+        <v>-34.623403</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -828,25 +829,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7742</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/31/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>01233183</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +862,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +870,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4611, "cod_calle": 3086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470919", "y": "-34.665309"}, "direccion": "CASTAÑARES AV. 4611, CABA", "nombre_calle": "CASTAÑARES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.470919</v>
+        <v>-58.394943</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.665309</v>
+        <v>-34.594725</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,25 +893,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7749</t>
+          <t>7216</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/31/2025</t>
+          <t>9/15/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PUMACAHUA 101</t>
+          <t>NEWBERY, JORGE AV. 3870</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>01233302</t>
+          <t>ICD30800947</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +926,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cables cortados</t>
+          <t>rienda cortada reparar o retirar</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,48 +934,48 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 101, "cod_calle": 17136, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454525", "y": "-34.627736"}, "direccion": "PUMACAHUA 101, CABA", "nombre_calle": "PUMACAHUA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.454525</v>
+        <v>-58.450024</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.627736</v>
+        <v>-34.586606</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7698</t>
+          <t>7235</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/30/2025</t>
+          <t>9/16/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24 DE NOVIEMBRE 151</t>
+          <t>RAVIGNANI, EMILIO, DR. 1115</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>01229548</t>
+          <t>ICD30814381</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -997,48 +998,48 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 151, "cod_calle": 23025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411626", "y": "-34.612418"}, "direccion": "24 DE NOVIEMBRE 151, CABA", "nombre_calle": "24 DE NOVIEMBRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.411626</v>
+        <v>-58.444861</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.612418</v>
+        <v>-34.586807</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7711</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/30/2025</t>
+          <t>9/17/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LARREA 608</t>
+          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>01229574</t>
+          <t>ICD30836224</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1053,7 +1054,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Cable en panza cables cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1061,18 +1062,18 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 608, "cod_calle": 12065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402363", "y": "-34.601960"}, "direccion": "LARREA 608, CABA", "nombre_calle": "LARREA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.402363</v>
+        <v>-58.358272</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.60196</v>
+        <v>-34.637051</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1084,25 +1085,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7729</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10/30/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SAN JOSE 343</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>01229615</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1118,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,48 +1126,48 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 343, "cod_calle": 20038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386186", "y": "-34.612745"}, "direccion": "SAN JOSE 343, CABA", "nombre_calle": "SAN JOSE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 343, "cod_calle": 20039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437866", "y": "-34.622981"}, "direccion": "SAN JOSE DE CALASANZ 343, CABA", "nombre_calle": "SAN JOSE DE CALASANZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.386186</v>
+        <v>-58.467279</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.612745</v>
+        <v>-34.551117</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7740</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10/30/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DEL LIBERTADOR AV. 8620</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>01233285</t>
+          <t>ICD31397530</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1189,48 +1190,48 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 8620, "cod_calle": 12107, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466588", "y": "-34.536500"}, "direccion": "DEL LIBERTADOR AV. 8620, CABA", "nombre_calle": "DEL LIBERTADOR AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.466588</v>
+        <v>-58.386725</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.5365</v>
+        <v>-34.632368</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7696</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10/29/2025</t>
+          <t>9/24/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 1776</t>
+          <t>SANABRIA 4785</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>01229517</t>
+          <t>ICD31075271</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1245,7 +1246,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,48 +1254,48 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1776, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.392498", "y": "-34.599695"}, "direccion": "CORDOBA AV. 1776, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.392498</v>
+        <v>-58.520172</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.599695</v>
+        <v>-34.596414</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7640</t>
+          <t>5971</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10/28/2025</t>
+          <t>9/29/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 258</t>
+          <t>PALOS 460</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>01183611</t>
+          <t>ICD31437928</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1310,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cable en panza o cortados</t>
+          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,18 +1318,18 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 258, "cod_calle": 3128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440983", "y": "-34.574792"}, "direccion": "CIUDAD DE LA PAZ 258, CABA", "nombre_calle": "CIUDAD DE LA PAZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.440983</v>
+        <v>-58.362492</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.574792</v>
+        <v>-34.635242</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1340,25 +1341,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7680</t>
+          <t>7488</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/28/2025</t>
+          <t>10/9/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LARREA 811</t>
+          <t>LAMARCA, EMILIO 3486</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>01196663</t>
+          <t>00995591</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1374,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,48 +1382,48 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 811, "cod_calle": 12065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402416", "y": "-34.598847"}, "direccion": "LARREA 811, CABA", "nombre_calle": "LARREA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.402416</v>
+        <v>-58.503893</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.598847</v>
+        <v>-34.600457</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3447</t>
+          <t>7506</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10/28/2025</t>
+          <t>10/13/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AZOPARDO 1071</t>
+          <t>LAMARCA, EMILIO 808</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>01196692</t>
+          <t>00996054</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1437,7 +1438,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cables cortados</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,40 +1446,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1071, "cod_calle": 1149, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.367154", "y": "-34.620075"}, "direccion": "AZOPARDO 1071, CABA", "nombre_calle": "AZOPARDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.367154</v>
+        <v>-58.481009</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.620075</v>
+        <v>-34.623627</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10/28/2025</t>
+          <t>10/15/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ACOSTA, MARIANO AV. 171</t>
+          <t>VIRGILIO 1332</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1486,7 +1487,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>01188247</t>
+          <t>01025343</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1501,7 +1502,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable cortado y en panza</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,14 +1510,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 171, "cod_calle": 1006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.480436", "y": "-34.635569"}, "direccion": "ACOSTA, MARIANO AV. 171, CABA", "nombre_calle": "ACOSTA, MARIANO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.480436</v>
+        <v>-58.51048</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.635569</v>
+        <v>-34.626427</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1532,25 +1533,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>5856</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10/27/2025</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AVELLANEDA AV. 2448</t>
+          <t>MALABIA 2312</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>01164255</t>
+          <t>01080236</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1565,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>NAP Colgando</t>
+          <t>Cable colgando</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,18 +1574,18 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2448, "cod_calle": 1141, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.465414", "y": "-34.624536"}, "direccion": "AVELLANEDA AV. 2448, CABA", "nombre_calle": "AVELLANEDA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2312, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.419732", "y": "-34.585957"}, "direccion": "MALABIA 2312, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.465414</v>
+        <v>-58.419732</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.624536</v>
+        <v>-34.585957</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1596,25 +1597,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7415</t>
+          <t>5879</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10/24/2025</t>
+          <t>10/17/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GRANADEROS 36</t>
+          <t>DEHEZA 4652</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>01162895</t>
+          <t>01071557</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1629,7 +1630,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1637,23 +1638,23 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 36, "cod_calle": 7077, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.459137", "y": "-34.627101"}, "direccion": "GRANADEROS 36, CABA", "nombre_calle": "GRANADEROS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4652, "cod_calle": 4017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494726", "y": "-34.550952"}, "direccion": "DEHEZA 4652, CABA", "nombre_calle": "DEHEZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.459137</v>
+        <v>-58.494726</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.627101</v>
+        <v>-34.550952</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
@@ -1916,25 +1917,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4740</t>
+          <t>7640</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10/20/2025</t>
+          <t>10/28/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>JUJUY AV. 332</t>
+          <t>CIUDAD DE LA PAZ 258</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>01081027</t>
+          <t>01183611</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1949,7 +1950,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cable cortado y cables en panza</t>
+          <t>Cable en panza o cortados</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1957,18 +1958,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 332, "cod_calle": 10013, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405047", "y": "-34.613855"}, "direccion": "JUJUY AV. 332, CABA", "nombre_calle": "JUJUY AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 258, "cod_calle": 3128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440983", "y": "-34.574792"}, "direccion": "CIUDAD DE LA PAZ 258, CABA", "nombre_calle": "CIUDAD DE LA PAZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.405047</v>
+        <v>-58.440983</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.613855</v>
+        <v>-34.574792</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1980,25 +1981,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5856</t>
+          <t>7680</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10/17/2025</t>
+          <t>10/28/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MALABIA 2312</t>
+          <t>LARREA 811</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>01080236</t>
+          <t>01196663</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2013,7 +2014,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cable colgando</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2021,18 +2022,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2312, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.419732", "y": "-34.585957"}, "direccion": "MALABIA 2312, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 811, "cod_calle": 12065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402416", "y": "-34.598847"}, "direccion": "LARREA 811, CABA", "nombre_calle": "LARREA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.419732</v>
+        <v>-58.402416</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.585957</v>
+        <v>-34.598847</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2044,25 +2045,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5879</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10/17/2025</t>
+          <t>10/28/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DEHEZA 4652</t>
+          <t>AZOPARDO 1071</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>01071557</t>
+          <t>01196692</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2077,7 +2078,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2085,40 +2086,40 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4652, "cod_calle": 4017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494726", "y": "-34.550952"}, "direccion": "DEHEZA 4652, CABA", "nombre_calle": "DEHEZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1071, "cod_calle": 1149, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.367154", "y": "-34.620075"}, "direccion": "AZOPARDO 1071, CABA", "nombre_calle": "AZOPARDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.494726</v>
+        <v>-58.367154</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.550952</v>
+        <v>-34.620075</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>10/28/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VIRGILIO 1332</t>
+          <t>ACOSTA, MARIANO AV. 171</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -2126,7 +2127,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>01025343</t>
+          <t>01188247</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2141,7 +2142,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cable cortado y en panza</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2149,14 +2150,14 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 171, "cod_calle": 1006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.480436", "y": "-34.635569"}, "direccion": "ACOSTA, MARIANO AV. 171, CABA", "nombre_calle": "ACOSTA, MARIANO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.51048</v>
+        <v>-58.480436</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.626427</v>
+        <v>-34.635569</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2172,25 +2173,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7506</t>
+          <t>7696</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>10/29/2025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 808</t>
+          <t>CORDOBA AV. 1776</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>00996054</t>
+          <t>01229517</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2205,7 +2206,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Cable en panza y cables cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2213,48 +2214,48 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1776, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.392498", "y": "-34.599695"}, "direccion": "CORDOBA AV. 1776, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>-58.481009</v>
+        <v>-58.392498</v>
       </c>
       <c r="L28" t="n">
-        <v>-34.623627</v>
+        <v>-34.599695</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>7488</t>
+          <t>7698</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>10/30/2025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 3486</t>
+          <t>24 DE NOVIEMBRE 151</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>00995591</t>
+          <t>01229548</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2269,7 +2270,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2277,48 +2278,48 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 151, "cod_calle": 23025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411626", "y": "-34.612418"}, "direccion": "24 DE NOVIEMBRE 151, CABA", "nombre_calle": "24 DE NOVIEMBRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>-58.503893</v>
+        <v>-58.411626</v>
       </c>
       <c r="L29" t="n">
-        <v>-34.600457</v>
+        <v>-34.612418</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>7711</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>10/30/2025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PALOS 460</t>
+          <t>LARREA 608</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ICD31437928</t>
+          <t>01229574</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2333,7 +2334,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
+          <t>Cable en panza cables cortados</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2341,18 +2342,18 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 608, "cod_calle": 12065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402363", "y": "-34.601960"}, "direccion": "LARREA 608, CABA", "nombre_calle": "LARREA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>-58.362492</v>
+        <v>-58.402363</v>
       </c>
       <c r="L30" t="n">
-        <v>-34.635242</v>
+        <v>-34.60196</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2364,25 +2365,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>7729</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>10/30/2025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SANABRIA 4785</t>
+          <t>SAN JOSE 343</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ICD31075271</t>
+          <t>01229615</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2397,7 +2398,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cables cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2405,40 +2406,40 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 343, "cod_calle": 20038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386186", "y": "-34.612745"}, "direccion": "SAN JOSE 343, CABA", "nombre_calle": "SAN JOSE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 343, "cod_calle": 20039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437866", "y": "-34.622981"}, "direccion": "SAN JOSE DE CALASANZ 343, CABA", "nombre_calle": "SAN JOSE DE CALASANZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>-58.520172</v>
+        <v>-58.386186</v>
       </c>
       <c r="L31" t="n">
-        <v>-34.596414</v>
+        <v>-34.612745</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>7740</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>10/30/2025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>DEL LIBERTADOR AV. 8620</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -2446,7 +2447,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>01233285</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2461,7 +2462,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2469,14 +2470,14 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 8620, "cod_calle": 12107, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466588", "y": "-34.536500"}, "direccion": "DEL LIBERTADOR AV. 8620, CABA", "nombre_calle": "DEL LIBERTADOR AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>-58.467279</v>
+        <v>-58.466588</v>
       </c>
       <c r="L32" t="n">
-        <v>-34.551117</v>
+        <v>-34.5365</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2492,25 +2493,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>7742</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>10/31/2025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RONDEAU 1501</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ICD31397530</t>
+          <t>01233183</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2525,7 +2526,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2533,18 +2534,18 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4611, "cod_calle": 3086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470919", "y": "-34.665309"}, "direccion": "CASTAÑARES AV. 4611, CABA", "nombre_calle": "CASTAÑARES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>-58.386725</v>
+        <v>-58.470919</v>
       </c>
       <c r="L33" t="n">
-        <v>-34.632368</v>
+        <v>-34.665309</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2556,25 +2557,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>7749</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>10/31/2025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>PUMACAHUA 101</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>01233302</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2589,7 +2590,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Tendido a baja altura y cables cortados</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2597,18 +2598,18 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 101, "cod_calle": 17136, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454525", "y": "-34.627736"}, "direccion": "PUMACAHUA 101, CABA", "nombre_calle": "PUMACAHUA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>-58.358272</v>
+        <v>-58.454525</v>
       </c>
       <c r="L34" t="n">
-        <v>-34.637051</v>
+        <v>-34.627736</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2620,25 +2621,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>7762</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>11/3/2025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>CABELLO 3591</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>01287347</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2653,7 +2654,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Caja empalme colgando</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2661,48 +2662,48 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3591, "cod_calle": 3003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410213", "y": "-34.580844"}, "direccion": "CABELLO 3591, CABA", "nombre_calle": "CABELLO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>-58.444861</v>
+        <v>-58.410213</v>
       </c>
       <c r="L35" t="n">
-        <v>-34.586807</v>
+        <v>-34.580844</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>7761</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>11/3/2025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>CABELLO 3476</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>01287504</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2717,7 +2718,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Caja empalme colgando</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2725,40 +2726,40 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3476, "cod_calle": 3003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409438", "y": "-34.581180"}, "direccion": "CABELLO 3476, CABA", "nombre_calle": "CABELLO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>-58.450024</v>
+        <v>-58.409438</v>
       </c>
       <c r="L36" t="n">
-        <v>-34.586606</v>
+        <v>-34.58118</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>7776</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>11/3/2025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>INDEPENDENCIA AV. 1616</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -2766,7 +2767,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t xml:space="preserve"> 01287593</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2781,7 +2782,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cables colgando</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2789,14 +2790,14 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1616, "cod_calle": 9010, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.389202", "y": "-34.618098"}, "direccion": "INDEPENDENCIA AV. 1616, CABA", "nombre_calle": "INDEPENDENCIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>-58.374174</v>
+        <v>-58.389202</v>
       </c>
       <c r="L37" t="n">
-        <v>-34.623403</v>
+        <v>-34.618098</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2812,25 +2813,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>2934</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>11/5/2025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>VALLE, ARISTOBULO DEL 485</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2845,7 +2846,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>cables sueltos</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2853,18 +2854,18 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 485, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361555", "y": "-34.633293"}, "direccion": "VALLE, ARISTOBULO DEL 485, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>-58.394943</v>
+        <v>-58.361555</v>
       </c>
       <c r="L38" t="n">
-        <v>-34.594725</v>
+        <v>-34.633293</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2876,25 +2877,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>7596</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>11/5/2025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>SANCHEZ DE LORIA 1743</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2909,7 +2910,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2917,14 +2918,14 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1743, "cod_calle": 12137, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411794", "y": "-34.630876"}, "direccion": "SANCHEZ DE LORIA 1743, CABA", "nombre_calle": "SANCHEZ DE LORIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>-58.371599</v>
+        <v>-58.411794</v>
       </c>
       <c r="L39" t="n">
-        <v>-34.623098</v>
+        <v>-34.630876</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2940,25 +2941,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>7720</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>11/5/2025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>CAMPANA 1684</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>01315587</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2973,7 +2974,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>cable cortado cable en panza</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2981,48 +2982,48 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1684, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.485521", "y": "-34.615398"}, "direccion": "CAMPANA 1684, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>-58.401027</v>
+        <v>-58.485521</v>
       </c>
       <c r="L40" t="n">
-        <v>-34.625071</v>
+        <v>-34.615398</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>11/5/2025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>MEDRANO AV. 46</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3037,8 +3038,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">se subieron las fotos de soldado de la frontera 1057
-</t>
+          <t>Cableado en panza</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -3046,18 +3046,18 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 46, "cod_calle": 13061, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.421220", "y": "-34.610756"}, "direccion": "MEDRANO AV. 46, CABA", "nombre_calle": "MEDRANO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>-58.435519</v>
+        <v>-58.42122</v>
       </c>
       <c r="L41" t="n">
-        <v>-34.566886</v>
+        <v>-34.610756</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3069,25 +3069,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>3144</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>BOEDO 283</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ICD30345482</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>Tendido a baja altura caido en vereda</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3110,21 +3110,341 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 283, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.417132", "y": "-34.615292"}, "direccion": "BOEDO 283, CABA", "nombre_calle": "BOEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>-58.360551</v>
+        <v>-58.417132</v>
       </c>
       <c r="L42" t="n">
-        <v>-34.632684</v>
+        <v>-34.615292</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7790</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>LASCANO 6224</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tendido a baja altura </t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 6224, "cod_calle": 12071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.521665", "y": "-34.629438"}, "direccion": "LASCANO 6224, CABA", "nombre_calle": "LASCANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>-58.521665</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-34.629438</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7306</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FREIRE, RAMON, CAP. GRAL. 4106</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>12</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Cables en panza  y cortados</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4106, "cod_calle": 6057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479450", "y": "-34.548889"}, "direccion": "FREIRE, RAMON, CAP. GRAL. 4106, CABA", "nombre_calle": "FREIRE, RAMON, CAP. GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>-58.47945</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-34.548889</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>7658</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GONZALEZ, JOAQUIN V. 2491</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>11</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2491, "cod_calle": 7066, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.499102", "y": "-34.610279"}, "direccion": "GONZALEZ, JOAQUIN V. 2491, CABA", "nombre_calle": "GONZALEZ, JOAQUIN V.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>-58.499102</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-34.610279</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>6384</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NUEVA YORK 3458</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>11</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3458, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504853", "y": "-34.595983"}, "direccion": "NUEVA YORK 3458, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>-58.504853</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-34.595983</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6403</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AZCUENAGA 1902</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1902, "cod_calle": 1147, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.395099", "y": "-34.587531"}, "direccion": "AZCUENAGA 1902, CABA", "nombre_calle": "AZCUENAGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>-58.395099</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-34.587531</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,25 +508,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6265</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8/7/2025</t>
+          <t>8/20/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BROWN, ALTE. AV. 881</t>
+          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ICD30345482</t>
+          <t>ICD30449367</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +541,8 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t xml:space="preserve">se subieron las fotos de soldado de la frontera 1057
+</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -549,18 +550,18 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 881, "cod_calle": 2115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.360551", "y": "-34.632684"}, "direccion": "BROWN, ALTE. AV. 881, CABA", "nombre_calle": "BROWN, ALTE. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.360551</v>
+        <v>-58.435519</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.632684</v>
+        <v>-34.566886</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -572,25 +573,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,8 +606,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">se subieron las fotos de soldado de la frontera 1057
-</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -614,18 +614,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.435519</v>
+        <v>-58.401027</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.566886</v>
+        <v>-34.625071</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -637,25 +637,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -678,18 +678,18 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.401027</v>
+        <v>-58.394943</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.625071</v>
+        <v>-34.594725</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -701,25 +701,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3999</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8/29/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>COCHABAMBA 424</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30532721</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -742,40 +742,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 424, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371599", "y": "-34.623098"}, "direccion": "COCHABAMBA 424, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.371599</v>
+        <v>-58.467279</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.623098</v>
+        <v>-34.551117</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7198</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PERU 1305</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICD30737428</t>
+          <t>ICD31397530</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -806,14 +806,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1305, "cod_calle": 17071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.374174", "y": "-34.623403"}, "direccion": "PERU 1305, CABA", "nombre_calle": "PERU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.374174</v>
+        <v>-58.386725</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.623403</v>
+        <v>-34.632368</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -829,25 +829,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>7535</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>CALIFORNIA 901</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>01080743</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -870,18 +870,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.394943</v>
+        <v>-58.362419</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.594725</v>
+        <v>-34.644693</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -893,25 +893,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7216</t>
+          <t>7696</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9/15/2025</t>
+          <t>10/29/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NEWBERY, JORGE AV. 3870</t>
+          <t>CORDOBA AV. 1776</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ICD30800947</t>
+          <t>01229517</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>rienda cortada reparar o retirar</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -934,48 +934,48 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3870, "cod_calle": 14019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.450024", "y": "-34.586606"}, "direccion": "NEWBERY, JORGE AV. 3870, CABA", "nombre_calle": "NEWBERY, JORGE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1776, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.392498", "y": "-34.599695"}, "direccion": "CORDOBA AV. 1776, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.450024</v>
+        <v>-58.392498</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.586606</v>
+        <v>-34.599695</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7235</t>
+          <t>7698</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9/16/2025</t>
+          <t>10/30/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RAVIGNANI, EMILIO, DR. 1115</t>
+          <t>24 DE NOVIEMBRE 151</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ICD30814381</t>
+          <t>01229548</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -998,48 +998,48 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1115, "cod_calle": 19015, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444861", "y": "-34.586807"}, "direccion": "RAVIGNANI, EMILIO, DR. 1115, CABA", "nombre_calle": "RAVIGNANI, EMILIO, DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 151, "cod_calle": 23025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411626", "y": "-34.612418"}, "direccion": "24 DE NOVIEMBRE 151, CABA", "nombre_calle": "24 DE NOVIEMBRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.444861</v>
+        <v>-58.411626</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.586807</v>
+        <v>-34.612418</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3592</t>
+          <t>7742</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9/17/2025</t>
+          <t>10/31/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ARAOZ DE LAMADRID, GREGORIO, GRAL. 431</t>
+          <t>CASTAÑARES AV. 4611</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ICD30836224</t>
+          <t>01233183</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Caja de empalme colgando</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1062,18 +1062,18 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 431, "cod_calle": 1163, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.358272", "y": "-34.637051"}, "direccion": "ARAOZ DE LAMADRID, GREGORIO, GRAL. 431, CABA", "nombre_calle": "ARAOZ DE LAMADRID, GREGORIO, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4611, "cod_calle": 3086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470919", "y": "-34.665309"}, "direccion": "CASTAÑARES AV. 4611, CABA", "nombre_calle": "CASTAÑARES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.358272</v>
+        <v>-58.470919</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.637051</v>
+        <v>-34.665309</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1085,25 +1085,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>7761</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>11/3/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>CABELLO 3476</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>01287504</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Caja empalme colgando</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1126,48 +1126,48 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3476, "cod_calle": 3003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409438", "y": "-34.581180"}, "direccion": "CABELLO 3476, CABA", "nombre_calle": "CABELLO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.467279</v>
+        <v>-58.409438</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.551117</v>
+        <v>-34.58118</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>2934</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>11/5/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RONDEAU 1501</t>
+          <t>VALLE, ARISTOBULO DEL 485</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ICD31397530</t>
+          <t>01469872</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>cables sueltos</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1190,14 +1190,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 485, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361555", "y": "-34.633293"}, "direccion": "VALLE, ARISTOBULO DEL 485, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.386725</v>
+        <v>-58.361555</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.632368</v>
+        <v>-34.633293</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1213,25 +1213,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>7596</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9/24/2025</t>
+          <t>11/5/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SANABRIA 4785</t>
+          <t>SANCHEZ DE LORIA 1743</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ICD31075271</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Cables cortados</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1254,48 +1254,48 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4785, "cod_calle": 20021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.520172", "y": "-34.596414"}, "direccion": "SANABRIA 4785, CABA", "nombre_calle": "SANABRIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1743, "cod_calle": 12137, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411794", "y": "-34.630876"}, "direccion": "SANCHEZ DE LORIA 1743, CABA", "nombre_calle": "SANCHEZ DE LORIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.520172</v>
+        <v>-58.411794</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.596414</v>
+        <v>-34.630876</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5971</t>
+          <t>7720</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>9/29/2025</t>
+          <t>11/5/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PALOS 460</t>
+          <t>CAMPANA 1684</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ICD31437928</t>
+          <t>01315587</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tendido cruza la calle obstaculiza trabajos de camion de contenedores de basura</t>
+          <t>cable cortado cable en panza</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1318,48 +1318,48 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 460, "cod_calle": 17011, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362492", "y": "-34.635242"}, "direccion": "PALOS 460, CABA", "nombre_calle": "PALOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1684, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.485521", "y": "-34.615398"}, "direccion": "CAMPANA 1684, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.362492</v>
+        <v>-58.485521</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.635242</v>
+        <v>-34.615398</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7488</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10/9/2025</t>
+          <t>11/5/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 3486</t>
+          <t>MEDRANO AV. 46</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>00995591</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>Cableado en panza</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1382,48 +1382,48 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3486, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.503893", "y": "-34.600457"}, "direccion": "LAMARCA, EMILIO 3486, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 46, "cod_calle": 13061, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.421220", "y": "-34.610756"}, "direccion": "MEDRANO AV. 46, CABA", "nombre_calle": "MEDRANO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.503893</v>
+        <v>-58.42122</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.600457</v>
+        <v>-34.610756</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7506</t>
+          <t>3144</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10/13/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LAMARCA, EMILIO 808</t>
+          <t>BOEDO 283</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>00996054</t>
+          <t>01411421</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Cable en panza y cables cortados</t>
+          <t>Tendido a baja altura caido en vereda</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1446,40 +1446,40 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 808, "cod_calle": 12038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481009", "y": "-34.623627"}, "direccion": "LAMARCA, EMILIO 808, CABA", "nombre_calle": "LAMARCA, EMILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 283, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.417132", "y": "-34.615292"}, "direccion": "BOEDO 283, CABA", "nombre_calle": "BOEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.481009</v>
+        <v>-58.417132</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.623627</v>
+        <v>-34.615292</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>7790</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10/15/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VIRGILIO 1332</t>
+          <t>LASCANO 6224</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>01025343</t>
+          <t>01388475</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Cable cortado y en panza</t>
+          <t xml:space="preserve">Tendido a baja altura </t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1510,14 +1510,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1332, "cod_calle": 23073, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.510480", "y": "-34.626427"}, "direccion": "VIRGILIO 1332, CABA", "nombre_calle": "VIRGILIO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6224, "cod_calle": 12071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.521665", "y": "-34.629438"}, "direccion": "LASCANO 6224, CABA", "nombre_calle": "LASCANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.51048</v>
+        <v>-58.521665</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.626427</v>
+        <v>-34.629438</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1533,25 +1533,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5856</t>
+          <t>7658</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10/17/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MALABIA 2312</t>
+          <t>GONZALEZ, JOAQUIN V. 2491</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>01080236</t>
+          <t>01388738</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Cable colgando</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1574,48 +1574,48 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2312, "cod_calle": 13016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.419732", "y": "-34.585957"}, "direccion": "MALABIA 2312, CABA", "nombre_calle": "MALABIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2491, "cod_calle": 7066, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.499102", "y": "-34.610279"}, "direccion": "GONZALEZ, JOAQUIN V. 2491, CABA", "nombre_calle": "GONZALEZ, JOAQUIN V.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.419732</v>
+        <v>-58.499102</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.585957</v>
+        <v>-34.610279</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5879</t>
+          <t>6384</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10/17/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DEHEZA 4652</t>
+          <t>NUEVA YORK 3458</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>01071557</t>
+          <t>01389286</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1638,18 +1638,18 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4652, "cod_calle": 4017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.494726", "y": "-34.550952"}, "direccion": "DEHEZA 4652, CABA", "nombre_calle": "DEHEZA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3458, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504853", "y": "-34.595983"}, "direccion": "NUEVA YORK 3458, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.494726</v>
+        <v>-58.504853</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.550952</v>
+        <v>-34.595983</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1661,25 +1661,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7534</t>
+          <t>6403</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>10/20/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CABILDO AV. 4443</t>
+          <t>AZCUENAGA 1902</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>01071029</t>
+          <t>01411645</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Cable a baja altura obstaculiza contenedor</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1702,48 +1702,48 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4443, "cod_calle": 3005, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.472225", "y": "-34.543415"}, "direccion": "CABILDO AV. 4443, CABA", "nombre_calle": "CABILDO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1902, "cod_calle": 1147, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.395099", "y": "-34.587531"}, "direccion": "AZCUENAGA 1902, CABA", "nombre_calle": "AZCUENAGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.472225</v>
+        <v>-58.395099</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.543415</v>
+        <v>-34.587531</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7535</t>
+          <t xml:space="preserve">5931 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>10/20/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CALIFORNIA 901</t>
+          <t>PASO 280</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>01080743</t>
+          <t xml:space="preserve">01470174 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1766,18 +1766,18 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 280, "cod_calle": 17029, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403566", "y": "-34.606691"}, "direccion": "PASO 280, CABA", "nombre_calle": "PASO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.362419</v>
+        <v>-58.403566</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.644693</v>
+        <v>-34.606691</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1789,25 +1789,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>S01061021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10/20/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PEREZ GALDOS, BENITO AV. 37</t>
+          <t>GAINZA, MARTIN DE, GRAL. 461</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>01081746</t>
+          <t xml:space="preserve">01517700 </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>cable cortado colgando</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1830,18 +1830,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 37, "cod_calle": 17063, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.357696", "y": "-34.628505"}, "direccion": "PEREZ GALDOS, BENITO AV. 37, CABA", "nombre_calle": "PEREZ GALDOS, BENITO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 461, "cod_calle": 7003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446599", "y": "-34.617002"}, "direccion": "GAINZA, MARTIN DE, GRAL. 461, CABA", "nombre_calle": "GAINZA, MARTIN DE, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.357696</v>
+        <v>-58.446599</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.628505</v>
+        <v>-34.617002</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1853,25 +1853,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5048</t>
+          <t xml:space="preserve">7857 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10/20/2025</t>
+          <t>11/19/2025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PUEYRREDON AV. 443</t>
+          <t>IBARROLA 6589</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>01081536</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando y cables fuera de norma</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1894,48 +1894,48 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 443, "cod_calle": 17132, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405539", "y": "-34.605224"}, "direccion": "PUEYRREDON AV. 443, CABA", "nombre_calle": "PUEYRREDON AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 443, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440584", "y": "-34.614360"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 443, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6589, "cod_calle": 9002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519208", "y": "-34.641423"}, "direccion": "IBARROLA 6589, CABA", "nombre_calle": "IBARROLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.405539</v>
+        <v>-58.519208</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.605224</v>
+        <v>-34.641423</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>7640</t>
+          <t>S00096307</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10/28/2025</t>
+          <t>11/20/2025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CIUDAD DE LA PAZ 258</t>
+          <t>FALCON, RAMON L.,CNEL. 4999</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>01183611</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Cable en panza o cortados</t>
+          <t>nodo colgando</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1958,48 +1958,48 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 258, "cod_calle": 3128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440983", "y": "-34.574792"}, "direccion": "CIUDAD DE LA PAZ 258, CABA", "nombre_calle": "CIUDAD DE LA PAZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4999, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.497673", "y": "-34.638462"}, "direccion": "FALCON, RAMON L.,CNEL. 4999, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.440983</v>
+        <v>-58.497673</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.574792</v>
+        <v>-34.638462</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7680</t>
+          <t>S00972944</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10/28/2025</t>
+          <t>11/20/2025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LARREA 811</t>
+          <t>BATALLA DEL PARI 473</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>01196663</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2022,48 +2022,48 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 811, "cod_calle": 12065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402416", "y": "-34.598847"}, "direccion": "LARREA 811, CABA", "nombre_calle": "LARREA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 473, "cod_calle": 17139, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.452302", "y": "-34.599299"}, "direccion": "BATALLA DEL PARI 473, CABA", "nombre_calle": "BATALLA DEL PARI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.402416</v>
+        <v>-58.452302</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.598847</v>
+        <v>-34.599299</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3447</t>
+          <t>S01183783</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10/28/2025</t>
+          <t>11/20/2025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AZOPARDO 1071</t>
+          <t>24 DE NOVIEMBRE 2133</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>01196692</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2086,14 +2086,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1071, "cod_calle": 1149, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.367154", "y": "-34.620075"}, "direccion": "AZOPARDO 1071, CABA", "nombre_calle": "AZOPARDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2133, "cod_calle": 23025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409282", "y": "-34.635897"}, "direccion": "24 DE NOVIEMBRE 2133, CABA", "nombre_calle": "24 DE NOVIEMBRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.367154</v>
+        <v>-58.409282</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.620075</v>
+        <v>-34.635897</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2109,25 +2109,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>S00199889</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10/28/2025</t>
+          <t>11/20/2025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ACOSTA, MARIANO AV. 171</t>
+          <t>BALCARCE 1024</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>01188247</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>tendido aereo caido</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2150,1301 +2150,21 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 171, "cod_calle": 1006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.480436", "y": "-34.635569"}, "direccion": "ACOSTA, MARIANO AV. 171, CABA", "nombre_calle": "ACOSTA, MARIANO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1024, "cod_calle": 2014, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.370054", "y": "-34.619689"}, "direccion": "BALCARCE 1024, CABA", "nombre_calle": "BALCARCE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.480436</v>
+        <v>-58.370054</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.635569</v>
+        <v>-34.619689</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>7696</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>10/29/2025</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CORDOBA AV. 1776</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>01229517</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1776, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.392498", "y": "-34.599695"}, "direccion": "CORDOBA AV. 1776, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>-58.392498</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-34.599695</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>7698</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>10/30/2025</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>24 DE NOVIEMBRE 151</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>01229548</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 151, "cod_calle": 23025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411626", "y": "-34.612418"}, "direccion": "24 DE NOVIEMBRE 151, CABA", "nombre_calle": "24 DE NOVIEMBRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>-58.411626</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-34.612418</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>7711</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>10/30/2025</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>LARREA 608</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>3</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>01229574</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Cable en panza cables cortados</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 608, "cod_calle": 12065, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402363", "y": "-34.601960"}, "direccion": "LARREA 608, CABA", "nombre_calle": "LARREA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>-58.402363</v>
-      </c>
-      <c r="L30" t="n">
-        <v>-34.60196</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>7729</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>10/30/2025</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>SAN JOSE 343</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>01229615</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 343, "cod_calle": 20038, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386186", "y": "-34.612745"}, "direccion": "SAN JOSE 343, CABA", "nombre_calle": "SAN JOSE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 343, "cod_calle": 20039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.437866", "y": "-34.622981"}, "direccion": "SAN JOSE DE CALASANZ 343, CABA", "nombre_calle": "SAN JOSE DE CALASANZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>-58.386186</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-34.612745</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>7740</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>10/30/2025</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>DEL LIBERTADOR AV. 8620</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>13</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>01233285</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 8620, "cod_calle": 12107, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466588", "y": "-34.536500"}, "direccion": "DEL LIBERTADOR AV. 8620, CABA", "nombre_calle": "DEL LIBERTADOR AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>-58.466588</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-34.5365</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>7742</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>10/31/2025</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>CASTAÑARES AV. 4611</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>8</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>01233183</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Caja de empalme colgando</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4611, "cod_calle": 3086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470919", "y": "-34.665309"}, "direccion": "CASTAÑARES AV. 4611, CABA", "nombre_calle": "CASTAÑARES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>-58.470919</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-34.665309</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>7749</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>10/31/2025</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>PUMACAHUA 101</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>7</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>01233302</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura y cables cortados</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 101, "cod_calle": 17136, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454525", "y": "-34.627736"}, "direccion": "PUMACAHUA 101, CABA", "nombre_calle": "PUMACAHUA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>-58.454525</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-34.627736</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>7762</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>11/3/2025</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>CABELLO 3591</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>14</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>01287347</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Caja empalme colgando</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3591, "cod_calle": 3003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.410213", "y": "-34.580844"}, "direccion": "CABELLO 3591, CABA", "nombre_calle": "CABELLO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>-58.410213</v>
-      </c>
-      <c r="L35" t="n">
-        <v>-34.580844</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>7761</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>11/3/2025</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>CABELLO 3476</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>14</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>01287504</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Caja empalme colgando</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3476, "cod_calle": 3003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409438", "y": "-34.581180"}, "direccion": "CABELLO 3476, CABA", "nombre_calle": "CABELLO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>-58.409438</v>
-      </c>
-      <c r="L36" t="n">
-        <v>-34.58118</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Palermo</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>7776</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>11/3/2025</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>INDEPENDENCIA AV. 1616</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 01287593</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Cables colgando</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1616, "cod_calle": 9010, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.389202", "y": "-34.618098"}, "direccion": "INDEPENDENCIA AV. 1616, CABA", "nombre_calle": "INDEPENDENCIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>-58.389202</v>
-      </c>
-      <c r="L37" t="n">
-        <v>-34.618098</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2934</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>11/5/2025</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>VALLE, ARISTOBULO DEL 485</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>4</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>cables sueltos</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 485, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361555", "y": "-34.633293"}, "direccion": "VALLE, ARISTOBULO DEL 485, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>-58.361555</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-34.633293</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>7596</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>11/5/2025</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SANCHEZ DE LORIA 1743</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>5</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1743, "cod_calle": 12137, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411794", "y": "-34.630876"}, "direccion": "SANCHEZ DE LORIA 1743, CABA", "nombre_calle": "SANCHEZ DE LORIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>-58.411794</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-34.630876</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>7720</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>11/5/2025</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>CAMPANA 1684</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>11</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>01315587</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>cable cortado cable en panza</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1684, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.485521", "y": "-34.615398"}, "direccion": "CAMPANA 1684, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>-58.485521</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-34.615398</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2748</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>11/5/2025</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>MEDRANO AV. 46</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>5</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Cableado en panza</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 46, "cod_calle": 13061, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.421220", "y": "-34.610756"}, "direccion": "MEDRANO AV. 46, CABA", "nombre_calle": "MEDRANO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>-58.42122</v>
-      </c>
-      <c r="L41" t="n">
-        <v>-34.610756</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>3144</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>BOEDO 283</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>5</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura caido en vereda</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 283, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.417132", "y": "-34.615292"}, "direccion": "BOEDO 283, CABA", "nombre_calle": "BOEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>-58.417132</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-34.615292</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>7790</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>LASCANO 6224</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>10</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tendido a baja altura </t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 6224, "cod_calle": 12071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.521665", "y": "-34.629438"}, "direccion": "LASCANO 6224, CABA", "nombre_calle": "LASCANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>-58.521665</v>
-      </c>
-      <c r="L43" t="n">
-        <v>-34.629438</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>7306</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FREIRE, RAMON, CAP. GRAL. 4106</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>12</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Cables en panza  y cortados</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4106, "cod_calle": 6057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479450", "y": "-34.548889"}, "direccion": "FREIRE, RAMON, CAP. GRAL. 4106, CABA", "nombre_calle": "FREIRE, RAMON, CAP. GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>-58.47945</v>
-      </c>
-      <c r="L44" t="n">
-        <v>-34.548889</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>7658</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>GONZALEZ, JOAQUIN V. 2491</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>11</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2491, "cod_calle": 7066, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.499102", "y": "-34.610279"}, "direccion": "GONZALEZ, JOAQUIN V. 2491, CABA", "nombre_calle": "GONZALEZ, JOAQUIN V.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>-58.499102</v>
-      </c>
-      <c r="L45" t="n">
-        <v>-34.610279</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>6384</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>NUEVA YORK 3458</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>11</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3458, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504853", "y": "-34.595983"}, "direccion": "NUEVA YORK 3458, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>-58.504853</v>
-      </c>
-      <c r="L46" t="n">
-        <v>-34.595983</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>6403</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>AZCUENAGA 1902</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1902, "cod_calle": 1147, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.395099", "y": "-34.587531"}, "direccion": "AZCUENAGA 1902, CABA", "nombre_calle": "AZCUENAGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>-58.395099</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-34.587531</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01604476 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>01549429</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01549537 </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01549613 </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01565483 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01565494 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2167,6 +2167,134 @@
       <c r="N27" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7878 </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>11/26/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>LA PAMPA 3635</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>13</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">01593444 </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>tendido bajo</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3635, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466521", "y": "-34.571932"}, "direccion": "LA PAMPA 3635, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>-58.466521</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-34.571932</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>S00964409</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>11/28/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CERETTI 3556</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>12</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>cable cortado</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3556, "cod_calle": 3115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502145", "y": "-34.566981"}, "direccion": "CERETTI 3556, CABA", "nombre_calle": "CERETTI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-58.502145</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-34.566981</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,25 +508,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>7037</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8/20/2025</t>
+          <t>8/25/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SOLDADO DE LA INDEPENDENCIA 857</t>
+          <t>COCHABAMBA 2556</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ICD30449367</t>
+          <t>ICD30508273</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,8 +541,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">se subieron las fotos de soldado de la frontera 1057
-</t>
+          <t>Tendido a baja altura y cortados</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -550,18 +549,18 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 857, "cod_calle": 20103, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435519", "y": "-34.566886"}, "direccion": "SOLDADO DE LA INDEPENDENCIA 857, CABA", "nombre_calle": "SOLDADO DE LA INDEPENDENCIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.435519</v>
+        <v>-58.401027</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.566886</v>
+        <v>-34.625071</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -573,25 +572,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>7128</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8/25/2025</t>
+          <t>9/9/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COCHABAMBA 2556</t>
+          <t>ARENALES 1928</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ICD30508273</t>
+          <t>ICD30794466</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -606,7 +605,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tendido a baja altura y cortados</t>
+          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -614,18 +613,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2556, "cod_calle": 3134, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.401027", "y": "-34.625071"}, "direccion": "COCHABAMBA 2556, CABA", "nombre_calle": "COCHABAMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.401027</v>
+        <v>-58.394943</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.625071</v>
+        <v>-34.594725</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -637,25 +636,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9/9/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ARENALES 1928</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ICD30794466</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -670,7 +669,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Tendido colgando y desordenado se solicita emprolijarlo</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -678,30 +677,30 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1928, "cod_calle": 1104, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.394943", "y": "-34.594725"}, "direccion": "ARENALES 1928, CABA", "nombre_calle": "ARENALES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.394943</v>
+        <v>-58.467279</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.594725</v>
+        <v>-34.551117</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>4249</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -711,15 +710,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>RONDEAU 1501</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>ICD31397530</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -734,7 +733,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Tendido a baja altura</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -742,48 +741,48 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.467279</v>
+        <v>-58.386725</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.551117</v>
+        <v>-34.632368</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4249</t>
+          <t>7535</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>10/20/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RONDEAU 1501</t>
+          <t>CALIFORNIA 901</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ICD31397530</t>
+          <t>01080743</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -798,7 +797,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tendido a baja altura</t>
+          <t>Cable en panza y cortados</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -806,14 +805,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1501, "cod_calle": 19082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.386725", "y": "-34.632368"}, "direccion": "RONDEAU 1501, CABA", "nombre_calle": "RONDEAU", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.386725</v>
+        <v>-58.362419</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.632368</v>
+        <v>-34.644693</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -829,25 +828,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7535</t>
+          <t>7696</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10/20/2025</t>
+          <t>10/29/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CALIFORNIA 901</t>
+          <t>CORDOBA AV. 1776</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>01080743</t>
+          <t>01229517</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -862,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cable en panza y cortados</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -870,14 +869,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 901, "cod_calle": 1164, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.362419", "y": "-34.644693"}, "direccion": "CALIFORNIA 901, CABA", "nombre_calle": "CALIFORNIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1776, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.392498", "y": "-34.599695"}, "direccion": "CORDOBA AV. 1776, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.362419</v>
+        <v>-58.392498</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.644693</v>
+        <v>-34.599695</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -893,25 +892,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7696</t>
+          <t>7698</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10/29/2025</t>
+          <t>10/30/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 1776</t>
+          <t>24 DE NOVIEMBRE 151</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>01229517</t>
+          <t>01229548</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -934,18 +933,18 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1776, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.392498", "y": "-34.599695"}, "direccion": "CORDOBA AV. 1776, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 151, "cod_calle": 23025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411626", "y": "-34.612418"}, "direccion": "24 DE NOVIEMBRE 151, CABA", "nombre_calle": "24 DE NOVIEMBRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.392498</v>
+        <v>-58.411626</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.599695</v>
+        <v>-34.612418</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -957,25 +956,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7698</t>
+          <t>7761</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>10/30/2025</t>
+          <t>11/3/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24 DE NOVIEMBRE 151</t>
+          <t>CABELLO 3476</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>01229548</t>
+          <t>01287504</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -990,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>Caja empalme colgando</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -998,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 151, "cod_calle": 23025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411626", "y": "-34.612418"}, "direccion": "24 DE NOVIEMBRE 151, CABA", "nombre_calle": "24 DE NOVIEMBRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3476, "cod_calle": 3003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409438", "y": "-34.581180"}, "direccion": "CABELLO 3476, CABA", "nombre_calle": "CABELLO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.411626</v>
+        <v>-58.409438</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.612418</v>
+        <v>-34.58118</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1021,25 +1020,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7742</t>
+          <t>2934</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>10/31/2025</t>
+          <t>11/5/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CASTAÑARES AV. 4611</t>
+          <t>VALLE, ARISTOBULO DEL 485</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>01233183</t>
+          <t>01469872</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1054,7 +1053,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Caja de empalme colgando</t>
+          <t>cables sueltos</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1062,18 +1061,18 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4611, "cod_calle": 3086, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470919", "y": "-34.665309"}, "direccion": "CASTAÑARES AV. 4611, CABA", "nombre_calle": "CASTAÑARES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 485, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361555", "y": "-34.633293"}, "direccion": "VALLE, ARISTOBULO DEL 485, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.470919</v>
+        <v>-58.361555</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.665309</v>
+        <v>-34.633293</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1085,25 +1084,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7761</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>11/3/2025</t>
+          <t>11/5/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CABELLO 3476</t>
+          <t>MEDRANO AV. 46</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>01287504</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1118,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Caja empalme colgando</t>
+          <t>Cableado en panza</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1126,18 +1125,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3476, "cod_calle": 3003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409438", "y": "-34.581180"}, "direccion": "CABELLO 3476, CABA", "nombre_calle": "CABELLO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 46, "cod_calle": 13061, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.421220", "y": "-34.610756"}, "direccion": "MEDRANO AV. 46, CABA", "nombre_calle": "MEDRANO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.409438</v>
+        <v>-58.42122</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.58118</v>
+        <v>-34.610756</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1149,25 +1148,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>7790</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11/5/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>VALLE, ARISTOBULO DEL 485</t>
+          <t>LASCANO 6224</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>01469872</t>
+          <t>01388475</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1182,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cables sueltos</t>
+          <t xml:space="preserve">Tendido a baja altura </t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1190,48 +1189,48 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 485, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361555", "y": "-34.633293"}, "direccion": "VALLE, ARISTOBULO DEL 485, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6224, "cod_calle": 12071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.521665", "y": "-34.629438"}, "direccion": "LASCANO 6224, CABA", "nombre_calle": "LASCANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.361555</v>
+        <v>-58.521665</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.633293</v>
+        <v>-34.629438</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7596</t>
+          <t>6403</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>11/5/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SANCHEZ DE LORIA 1743</t>
+          <t>AZCUENAGA 1902</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">01604476 </t>
+          <t>01411645</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1254,18 +1253,18 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1743, "cod_calle": 12137, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.411794", "y": "-34.630876"}, "direccion": "SANCHEZ DE LORIA 1743, CABA", "nombre_calle": "SANCHEZ DE LORIA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1902, "cod_calle": 1147, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.395099", "y": "-34.587531"}, "direccion": "AZCUENAGA 1902, CABA", "nombre_calle": "AZCUENAGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.411794</v>
+        <v>-58.395099</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.630876</v>
+        <v>-34.587531</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1277,25 +1276,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7720</t>
+          <t xml:space="preserve">5931 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11/5/2025</t>
+          <t>11/17/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CAMPANA 1684</t>
+          <t>PASO 280</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>01315587</t>
+          <t xml:space="preserve">01470174 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1310,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cable cortado cable en panza</t>
+          <t>Cables cortados</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1318,48 +1317,48 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1684, "cod_calle": 3039, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.485521", "y": "-34.615398"}, "direccion": "CAMPANA 1684, CABA", "nombre_calle": "CAMPANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 280, "cod_calle": 17029, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403566", "y": "-34.606691"}, "direccion": "PASO 280, CABA", "nombre_calle": "PASO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.485521</v>
+        <v>-58.403566</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.615398</v>
+        <v>-34.606691</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>S00199889</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11/5/2025</t>
+          <t>11/20/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MEDRANO AV. 46</t>
+          <t>BALCARCE 1024</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01565494 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1374,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Cableado en panza</t>
+          <t>tendido aereo caido</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1382,18 +1381,18 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 46, "cod_calle": 13061, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.421220", "y": "-34.610756"}, "direccion": "MEDRANO AV. 46, CABA", "nombre_calle": "MEDRANO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1024, "cod_calle": 2014, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.370054", "y": "-34.619689"}, "direccion": "BALCARCE 1024, CABA", "nombre_calle": "BALCARCE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.42122</v>
+        <v>-58.370054</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.610756</v>
+        <v>-34.619689</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1405,25 +1404,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t xml:space="preserve">7878 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>11/26/2025</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BOEDO 283</t>
+          <t>LA PAMPA 3635</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>01411421</t>
+          <t xml:space="preserve">01593444 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1438,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tendido a baja altura caido en vereda</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1446,48 +1445,48 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 283, "cod_calle": 2087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.417132", "y": "-34.615292"}, "direccion": "BOEDO 283, CABA", "nombre_calle": "BOEDO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3635, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466521", "y": "-34.571932"}, "direccion": "LA PAMPA 3635, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.417132</v>
+        <v>-58.466521</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.615292</v>
+        <v>-34.571932</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7790</t>
+          <t xml:space="preserve">6476 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>12/2/2025</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LASCANO 6224</t>
+          <t>24 DE NOVIEMBRE 1625</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>01388475</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1502,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tendido a baja altura </t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1510,791 +1509,23 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 6224, "cod_calle": 12071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.521665", "y": "-34.629438"}, "direccion": "LASCANO 6224, CABA", "nombre_calle": "LASCANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1625, "cod_calle": 23025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409893", "y": "-34.630365"}, "direccion": "24 DE NOVIEMBRE 1625, CABA", "nombre_calle": "24 DE NOVIEMBRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.521665</v>
+        <v>-58.409893</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.629438</v>
+        <v>-34.630365</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>7658</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>GONZALEZ, JOAQUIN V. 2491</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>11</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>01388738</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2491, "cod_calle": 7066, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.499102", "y": "-34.610279"}, "direccion": "GONZALEZ, JOAQUIN V. 2491, CABA", "nombre_calle": "GONZALEZ, JOAQUIN V.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>-58.499102</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-34.610279</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6384</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>NUEVA YORK 3458</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>01389286</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3458, "cod_calle": 14027, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.504853", "y": "-34.595983"}, "direccion": "NUEVA YORK 3458, CABA", "nombre_calle": "NUEVA YORK", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K19" t="n">
-        <v>-58.504853</v>
-      </c>
-      <c r="L19" t="n">
-        <v>-34.595983</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>6403</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>AZCUENAGA 1902</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>01411645</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1902, "cod_calle": 1147, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.395099", "y": "-34.587531"}, "direccion": "AZCUENAGA 1902, CABA", "nombre_calle": "AZCUENAGA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K20" t="n">
-        <v>-58.395099</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-34.587531</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
           <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5931 </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>11/17/2025</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PASO 280</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">01470174 </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Cables cortados</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 280, "cod_calle": 17029, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.403566", "y": "-34.606691"}, "direccion": "PASO 280, CABA", "nombre_calle": "PASO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>-58.403566</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-34.606691</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>S01061021</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>11/19/2025</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>GAINZA, MARTIN DE, GRAL. 461</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>6</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">01517700 </t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>cable cortado colgando</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 461, "cod_calle": 7003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.446599", "y": "-34.617002"}, "direccion": "GAINZA, MARTIN DE, GRAL. 461, CABA", "nombre_calle": "GAINZA, MARTIN DE, GRAL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>-58.446599</v>
-      </c>
-      <c r="L22" t="n">
-        <v>-34.617002</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7857 </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>11/19/2025</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>IBARROLA 6589</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>9</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>01549429</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 6589, "cod_calle": 9002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519208", "y": "-34.641423"}, "direccion": "IBARROLA 6589, CABA", "nombre_calle": "IBARROLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>-58.519208</v>
-      </c>
-      <c r="L23" t="n">
-        <v>-34.641423</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>S00096307</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>11/20/2025</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FALCON, RAMON L.,CNEL. 4999</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>10</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">01549537 </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>nodo colgando</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4999, "cod_calle": 6006, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.497673", "y": "-34.638462"}, "direccion": "FALCON, RAMON L.,CNEL. 4999, CABA", "nombre_calle": "FALCON, RAMON L.,CNEL.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>-58.497673</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-34.638462</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>S00972944</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>11/20/2025</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>BATALLA DEL PARI 473</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>15</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">01549613 </t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>cable en panza</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 473, "cod_calle": 17139, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.452302", "y": "-34.599299"}, "direccion": "BATALLA DEL PARI 473, CABA", "nombre_calle": "BATALLA DEL PARI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>-58.452302</v>
-      </c>
-      <c r="L25" t="n">
-        <v>-34.599299</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>S01183783</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>11/20/2025</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>24 DE NOVIEMBRE 2133</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>4</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">01565483 </t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>cable en panza</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2133, "cod_calle": 23025, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.409282", "y": "-34.635897"}, "direccion": "24 DE NOVIEMBRE 2133, CABA", "nombre_calle": "24 DE NOVIEMBRE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>-58.409282</v>
-      </c>
-      <c r="L26" t="n">
-        <v>-34.635897</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>S00199889</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>11/20/2025</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>BALCARCE 1024</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">01565494 </t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>tendido aereo caido</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1024, "cod_calle": 2014, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.370054", "y": "-34.619689"}, "direccion": "BALCARCE 1024, CABA", "nombre_calle": "BALCARCE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>-58.370054</v>
-      </c>
-      <c r="L27" t="n">
-        <v>-34.619689</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7878 </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>11/26/2025</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>LA PAMPA 3635</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>13</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">01593444 </t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>tendido bajo</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3635, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466521", "y": "-34.571932"}, "direccion": "LA PAMPA 3635, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>-58.466521</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-34.571932</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Colegiales</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>S00964409</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>11/28/2025</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>CERETTI 3556</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>12</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>cable cortado</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3556, "cod_calle": 3115, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.502145", "y": "-34.566981"}, "direccion": "CERETTI 3556, CABA", "nombre_calle": "CERETTI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>-58.502145</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-34.566981</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Paternal</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve"> 01229548</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1524,6 +1524,134 @@
         </is>
       </c>
       <c r="N17" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4757 </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GARAY, JUAN DE AV. 819</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>tendido bajo</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 819, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376986", "y": "-34.625210"}, "direccion": "GARAY, JUAN DE AV. 819, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>-58.376986</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-34.62521</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4756 </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GARAY, JUAN DE AV. 799</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>tendido bajo</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 799, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376455", "y": "-34.624886"}, "direccion": "GARAY, JUAN DE AV. 799, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>-58.376455</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-34.624886</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,25 +508,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7937</t>
+          <t>7281</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/19/2025</t>
+          <t>9/22/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOULOGNE MER 323</t>
+          <t>AZURDUY JUANA 2449</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>ICD30952422</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>cables colgando</t>
+          <t>Cable en panza y cortado</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -549,48 +549,48 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 323, "cod_calle": 2106, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407174", "y": "-34.606292"}, "direccion": "BOULOGNE SUR MER 323, CABA", "nombre_calle": "BOULOGNE SUR MER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.407174</v>
+        <v>-58.467279</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.606292</v>
+        <v>-34.551117</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t xml:space="preserve">4757 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/19/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 4830</t>
+          <t>GARAY, JUAN DE AV. 819</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01831884 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cables sueltos cortados</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,18 +613,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4830, "cod_calle": 20057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.427883", "y": "-34.577829"}, "direccion": "SANTA FE AV. 4830, CABA", "nombre_calle": "SANTA FE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 819, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376986", "y": "-34.625210"}, "direccion": "GARAY, JUAN DE AV. 819, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.427883</v>
+        <v>-58.376986</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.577829</v>
+        <v>-34.62521</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -636,25 +636,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S00299847</t>
+          <t xml:space="preserve">4756 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12/15/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VALLE, ARISTOBULO DEL 1357</t>
+          <t>GARAY, JUAN DE AV. 799</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">01831840 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -677,14 +677,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1357, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371495", "y": "-34.635725"}, "direccion": "VALLE, ARISTOBULO DEL 1357, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 799, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376455", "y": "-34.624886"}, "direccion": "GARAY, JUAN DE AV. 799, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.371495</v>
+        <v>-58.376455</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.635725</v>
+        <v>-34.624886</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -700,25 +700,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">4757 </t>
+          <t>S00299847</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>12/15/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GARAY, JUAN DE AV. 819</t>
+          <t>VALLE, ARISTOBULO DEL 1357</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">01831884 </t>
+          <t xml:space="preserve">01939674 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -741,14 +741,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 819, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376986", "y": "-34.625210"}, "direccion": "GARAY, JUAN DE AV. 819, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1357, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371495", "y": "-34.635725"}, "direccion": "VALLE, ARISTOBULO DEL 1357, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.376986</v>
+        <v>-58.371495</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.62521</v>
+        <v>-34.635725</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -764,25 +764,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">4756 </t>
+          <t>7937</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>12/19/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GARAY, JUAN DE AV. 799</t>
+          <t>BOULOGNE MER 323</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">01831840 </t>
+          <t xml:space="preserve">01939828 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cables colgando</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,18 +805,18 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 799, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376455", "y": "-34.624886"}, "direccion": "GARAY, JUAN DE AV. 799, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 323, "cod_calle": 2106, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407174", "y": "-34.606292"}, "direccion": "BOULOGNE SUR MER 323, CABA", "nombre_calle": "BOULOGNE SUR MER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.376455</v>
+        <v>-58.407174</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.624886</v>
+        <v>-34.606292</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -828,25 +828,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>5004</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>12/19/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>SANTA FE AV. 4830</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t xml:space="preserve">01939765 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>cables sueltos cortados</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,23 +869,87 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4830, "cod_calle": 20057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.427883", "y": "-34.577829"}, "direccion": "SANTA FE AV. 4830, CABA", "nombre_calle": "SANTA FE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.467279</v>
+        <v>-58.427883</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.551117</v>
+        <v>-34.577829</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7092</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>12/26/2025</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SANTA FE AV. 2051</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>tendido bajo</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2051, "cod_calle": 20057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396730", "y": "-34.595570"}, "direccion": "SANTA FE AV. 2051, CABA", "nombre_calle": "SANTA FE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>-58.39673</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-34.59557</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,7 +910,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02013965 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -950,6 +950,134 @@
       <c r="N8" t="inlineStr">
         <is>
           <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7146</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>12/29/2025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>TUCUMAN 1511</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>tendido bajo</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1511, "cod_calle": 21060, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388356", "y": "-34.601692"}, "direccion": "TUCUMAN 1511, CABA", "nombre_calle": "TUCUMAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>-58.388356</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-34.601692</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>7987</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12/30/2025</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Terrada 2309</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cables colgando </t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2309, "cod_calle": 21021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482084", "y": "-34.608289"}, "direccion": "TERRADA 2309, CABA", "nombre_calle": "TERRADA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-58.482084</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-34.608289</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,25 +508,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7281</t>
+          <t>6262</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9/22/2025</t>
+          <t>6/25/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AZURDUY JUANA 2449</t>
+          <t>MIGUELETES 1330</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ICD30952422</t>
+          <t>ICD30465943</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cable en panza y cortado</t>
+          <t>Cables en panza</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -549,18 +549,18 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2449, "cod_calle": 1151, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.467279", "y": "-34.551117"}, "direccion": "AZURDUY JUANA 2449, CABA", "nombre_calle": "AZURDUY JUANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1330, "cod_calle": 13079, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440291", "y": "-34.562841"}, "direccion": "MIGUELETES 1330, CABA", "nombre_calle": "MIGUELETES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.467279</v>
+        <v>-58.440291</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.551117</v>
+        <v>-34.562841</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4757 </t>
+          <t xml:space="preserve">4756 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GARAY, JUAN DE AV. 819</t>
+          <t>GARAY, JUAN DE AV. 799</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -590,7 +590,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">01831884 </t>
+          <t xml:space="preserve">01831840 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -613,14 +613,14 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 819, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376986", "y": "-34.625210"}, "direccion": "GARAY, JUAN DE AV. 819, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 799, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376455", "y": "-34.624886"}, "direccion": "GARAY, JUAN DE AV. 799, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.376986</v>
+        <v>-58.376455</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.62521</v>
+        <v>-34.624886</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -636,25 +636,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">4756 </t>
+          <t>8016</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>1/8/2026</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GARAY, JUAN DE AV. 799</t>
+          <t>RIVADAVIA AV. 2560</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">01831840 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cables sueltos</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,18 +677,18 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 799, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376455", "y": "-34.624886"}, "direccion": "GARAY, JUAN DE AV. 799, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2560, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402591", "y": "-34.610010"}, "direccion": "RIVADAVIA AV. 2560, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.376455</v>
+        <v>-58.402591</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.624886</v>
+        <v>-34.61001</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -700,25 +700,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S00299847</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/15/2025</t>
+          <t>1/8/2026</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>VALLE, ARISTOBULO DEL 1357</t>
+          <t>LA PAMPA 3650</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">01939674 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>caja sobre rejas</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,48 +741,48 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1357, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371495", "y": "-34.635725"}, "direccion": "VALLE, ARISTOBULO DEL 1357, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3650, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466489", "y": "-34.572064"}, "direccion": "LA PAMPA 3650, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.371495</v>
+        <v>-58.466489</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.635725</v>
+        <v>-34.572064</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7937</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/19/2025</t>
+          <t>1/8/2026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BOULOGNE MER 323</t>
+          <t>SAN JUAN AV. 4267</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">01939828 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cables colgando</t>
+          <t>cables en panza</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,18 +805,18 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 323, "cod_calle": 2106, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.407174", "y": "-34.606292"}, "direccion": "BOULOGNE SUR MER 323, CABA", "nombre_calle": "BOULOGNE SUR MER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4267, "cod_calle": 20040, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425002", "y": "-34.626654"}, "direccion": "SAN JUAN AV. 4267, CABA", "nombre_calle": "SAN JUAN AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.407174</v>
+        <v>-58.425002</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.606292</v>
+        <v>-34.626654</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -828,25 +828,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5004</t>
+          <t>8029</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12/19/2025</t>
+          <t>1/8/2026</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 4830</t>
+          <t>MALVINAS ARGENTINAS 49</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">01939765 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>cables sueltos cortados</t>
+          <t>cable en panza, cortado</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +869,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4830, "cod_calle": 20057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.427883", "y": "-34.577829"}, "direccion": "SANTA FE AV. 4830, CABA", "nombre_calle": "SANTA FE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 49, "cod_calle": 13020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451796", "y": "-34.625377"}, "direccion": "MALVINAS ARGENTINAS 49, CABA", "nombre_calle": "MALVINAS ARGENTINAS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.427883</v>
+        <v>-58.451796</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.577829</v>
+        <v>-34.625377</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,25 +892,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7092</t>
+          <t>8048</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12/26/2025</t>
+          <t>1/8/2026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SANTA FE AV. 2051</t>
+          <t>ARANGUREN, JUAN F., DR. 4355</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">02013965 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>riesgo de caida de equipo</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,44 +933,44 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2051, "cod_calle": 20057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.396730", "y": "-34.595570"}, "direccion": "SANTA FE AV. 2051, CABA", "nombre_calle": "SANTA FE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4355, "cod_calle": 1094, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.489757", "y": "-34.630158"}, "direccion": "ARANGUREN, JUAN F., DR. 4355, CABA", "nombre_calle": "ARANGUREN, JUAN F., DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.39673</v>
+        <v>-58.489757</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.59557</v>
+        <v>-34.630158</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7146</t>
+          <t>Z7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/29/2025</t>
+          <t>1/12/2026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TUCUMAN 1511</t>
+          <t>JULIAN ALVAREZ 928</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cables colgando</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,18 +997,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1511, "cod_calle": 21060, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.388356", "y": "-34.601692"}, "direccion": "TUCUMAN 1511, CABA", "nombre_calle": "TUCUMAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 928, "cod_calle": 1057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430574", "y": "-34.597043"}, "direccion": "ALVAREZ, JULIAN 928, CABA", "nombre_calle": "ALVAREZ, JULIAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.388356</v>
+        <v>-58.430574</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.601692</v>
+        <v>-34.597043</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1020,62 +1020,574 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7987</t>
+          <t>Z1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/30/2025</t>
+          <t>1/12/2026</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Terrada 2309</t>
+          <t>LAVALLEJA 990</t>
         </is>
       </c>
       <c r="D10" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>cable cortado</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 990, "cod_calle": 12090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.429174", "y": "-34.597484"}, "direccion": "LAVALLEJA 990, CABA", "nombre_calle": "LAVALLEJA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-58.429174</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-34.597484</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Z2</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1/12/2026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LAVALLEJA 1030</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>altura insufciente</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1030, "cod_calle": 12090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.428659", "y": "-34.597153"}, "direccion": "LAVALLEJA 1030, CABA", "nombre_calle": "LAVALLEJA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-58.428659</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-34.597153</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1/12/2026</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>QUILMES 181</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>cable colgando</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 181, "cod_calle": 18007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.418079", "y": "-34.641658"}, "direccion": "QUILMES 181, CABA", "nombre_calle": "QUILMES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>-58.418079</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-34.641658</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Z4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1/12/2026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>QUILMES 256</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>cables colgando</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 256, "cod_calle": 18007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.417736", "y": "-34.642492"}, "direccion": "QUILMES 256, CABA", "nombre_calle": "QUILMES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>-58.417736</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-34.642492</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Z5</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1/12/2026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SERRANO 1074</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>cable colgando</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1074, "cod_calle": 20090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435899", "y": "-34.592365"}, "direccion": "SERRANO 1074, CABA", "nombre_calle": "SERRANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>-58.435899</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-34.592365</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Z6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1/12/2026</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CORRIENTES AV. 5733</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>rg11 colgando</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 5733, "cod_calle": 3174, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443697", "y": "-34.595202"}, "direccion": "CORRIENTES AV. 5733, CABA", "nombre_calle": "CORRIENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>-58.443697</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-34.595202</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Z8</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1/12/2026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ALVAREZ JONTE AV. 1808</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>11</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Pendiente ADM</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cables colgando </t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2309, "cod_calle": 21021, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.482084", "y": "-34.608289"}, "direccion": "TERRADA 2309, CABA", "nombre_calle": "TERRADA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K10" t="n">
-        <v>-58.482084</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-34.608289</v>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>cdo colgando</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1808, "cod_calle": 1056, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469350", "y": "-34.602268"}, "direccion": "ALVAREZ JONTE 1808, CABA", "nombre_calle": "ALVAREZ JONTE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>-58.46935</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-34.602268</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Paternal</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>S01268691</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1/12/2026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ESTADOS UNIDOS 1943</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>cables colgando</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1943, "cod_calle": 5087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.393711", "y": "-34.619471"}, "direccion": "ESTADOS UNIDOS 1943, CABA", "nombre_calle": "ESTADOS UNIDOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>-58.393711</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-34.619471</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>S01335742</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1/12/2026</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Tinogasta 5182</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>11</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>cables bajos</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 5182, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519521", "y": "-34.615739"}, "direccion": "TINOGASTA 5182, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>-58.519521</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-34.615739</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ICD30465943</t>
+          <t xml:space="preserve">02281899 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02289539 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02271594 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02289689 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Z7</t>
+          <t>Z1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>JULIAN ALVAREZ 928</t>
+          <t>LAVALLEJA 990</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -989,7 +989,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cables colgando</t>
+          <t>cable cortado</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,14 +997,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 928, "cod_calle": 1057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.430574", "y": "-34.597043"}, "direccion": "ALVAREZ, JULIAN 928, CABA", "nombre_calle": "ALVAREZ, JULIAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 990, "cod_calle": 12090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.429174", "y": "-34.597484"}, "direccion": "LAVALLEJA 990, CABA", "nombre_calle": "LAVALLEJA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.430574</v>
+        <v>-58.429174</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.597043</v>
+        <v>-34.597484</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1030,11 +1030,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LAVALLEJA 990</t>
+          <t>QUILMES 181</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cable cortado</t>
+          <t>cable colgando</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1061,18 +1061,18 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 990, "cod_calle": 12090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.429174", "y": "-34.597484"}, "direccion": "LAVALLEJA 990, CABA", "nombre_calle": "LAVALLEJA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 181, "cod_calle": 18007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.418079", "y": "-34.641658"}, "direccion": "QUILMES 181, CABA", "nombre_calle": "QUILMES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.429174</v>
+        <v>-58.418079</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.597484</v>
+        <v>-34.641658</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Z2</t>
+          <t>Z4</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1094,11 +1094,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LAVALLEJA 1030</t>
+          <t>QUILMES 256</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>altura insufciente</t>
+          <t>cables colgando</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1125,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1030, "cod_calle": 12090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.428659", "y": "-34.597153"}, "direccion": "LAVALLEJA 1030, CABA", "nombre_calle": "LAVALLEJA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 256, "cod_calle": 18007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.417736", "y": "-34.642492"}, "direccion": "QUILMES 256, CABA", "nombre_calle": "QUILMES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.428659</v>
+        <v>-58.417736</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.597153</v>
+        <v>-34.642492</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,7 +1148,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Z3</t>
+          <t>Z6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1158,11 +1158,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>QUILMES 181</t>
+          <t>CORRIENTES AV. 5733</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cable colgando</t>
+          <t>rg11 colgando</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,18 +1189,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 181, "cod_calle": 18007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.418079", "y": "-34.641658"}, "direccion": "QUILMES 181, CABA", "nombre_calle": "QUILMES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5733, "cod_calle": 3174, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443697", "y": "-34.595202"}, "direccion": "CORRIENTES AV. 5733, CABA", "nombre_calle": "CORRIENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.418079</v>
+        <v>-58.443697</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.641658</v>
+        <v>-34.595202</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Z4</t>
+          <t>S01268691</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1222,11 +1222,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>QUILMES 256</t>
+          <t>ESTADOS UNIDOS 1943</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1253,18 +1253,18 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 256, "cod_calle": 18007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.417736", "y": "-34.642492"}, "direccion": "QUILMES 256, CABA", "nombre_calle": "QUILMES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1943, "cod_calle": 5087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.393711", "y": "-34.619471"}, "direccion": "ESTADOS UNIDOS 1943, CABA", "nombre_calle": "ESTADOS UNIDOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.417736</v>
+        <v>-58.393711</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.642492</v>
+        <v>-34.619471</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Z5</t>
+          <t>S01335742</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1286,15 +1286,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SERRANO 1074</t>
+          <t>Tinogasta 5182</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02289819 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cable colgando</t>
+          <t>cables bajos</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,48 +1317,48 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1074, "cod_calle": 20090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.435899", "y": "-34.592365"}, "direccion": "SERRANO 1074, CABA", "nombre_calle": "SERRANO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5182, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519521", "y": "-34.615739"}, "direccion": "TINOGASTA 5182, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.435899</v>
+        <v>-58.519521</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.592365</v>
+        <v>-34.615739</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Z6</t>
+          <t>8133</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CORRIENTES AV. 5733</t>
+          <t>YERBAL 5612</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02282092 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>rg11 colgando</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1381,44 +1381,44 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5733, "cod_calle": 3174, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443697", "y": "-34.595202"}, "direccion": "CORRIENTES AV. 5733, CABA", "nombre_calle": "CORRIENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.505213", "y": "-34.637279"}, "direccion": "YERBAL 5612, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.443697</v>
+        <v>-58.505213</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.595202</v>
+        <v>-34.637279</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Z8</t>
+          <t>8134</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ALVAREZ JONTE AV. 1808</t>
+          <t>ESTADO DE PALESTINA 511</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cdo colgando</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1445,44 +1445,44 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1808, "cod_calle": 1056, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469350", "y": "-34.602268"}, "direccion": "ALVAREZ JONTE 1808, CABA", "nombre_calle": "ALVAREZ JONTE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 511, "cod_calle": 19016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426036", "y": "-34.605725"}, "direccion": "ESTADO DE PALESTINA 511, CABA", "nombre_calle": "ESTADO DE PALESTINA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.46935</v>
+        <v>-58.426036</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.602268</v>
+        <v>-34.605725</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>S01268691</t>
+          <t>8135</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ESTADOS UNIDOS 1943</t>
+          <t>PERON, JUAN DOMINGO, TTE. GENERAL 4010</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cables colgando</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1509,18 +1509,18 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1943, "cod_calle": 5087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.393711", "y": "-34.619471"}, "direccion": "ESTADOS UNIDOS 1943, CABA", "nombre_calle": "ESTADOS UNIDOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4010, "cod_calle": 3050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.422975", "y": "-34.605999"}, "direccion": "PERON, JUAN DOMINGO, TTE. GENERAL 4010, CABA", "nombre_calle": "PERON, JUAN DOMINGO, TTE. GENERAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.393711</v>
+        <v>-58.422975</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.619471</v>
+        <v>-34.605999</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1532,62 +1532,254 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S01335742</t>
+          <t>S00922329</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tinogasta 5182</t>
+          <t>PUEYRREDON, HONORIO, DR. AV. 620</t>
         </is>
       </c>
       <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>tendido bajo</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441834", "y": "-34.612760"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 620, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>-58.441834</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-34.61276</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>S00984490</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1/16/2026</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>HABANA 2235</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>cable en panza</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2235, "cod_calle": 8001, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491963", "y": "-34.584559"}, "direccion": "HABANA 2235, CABA", "nombre_calle": "HABANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>-58.491963</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-34.584559</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S01108235</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1/16/2026</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>PUEYRREDON, HONORIO, DR. AV. 632</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>tendido bajo</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 632, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441881", "y": "-34.612693"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 632, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>-58.441881</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-34.612693</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>S01335725</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1/16/2026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>TINOGASTA 5196</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>11</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Pendiente ADM</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>cables bajos</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5182, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519521", "y": "-34.615739"}, "direccion": "TINOGASTA 5182, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K18" t="n">
-        <v>-58.519521</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-34.615739</v>
-      </c>
-      <c r="M18" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>tendido bajo</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 5196, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519645", "y": "-34.615857"}, "direccion": "TINOGASTA 5196, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>-58.519645</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-34.615857</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Devoto</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Capital Norte</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,72 +422,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Caso</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>F. De Reclamo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Direccion</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Comuna</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>OT</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Proveedor Asignado</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Observaciones</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Attachments</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>API_Response</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Coordenada_X</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Coordenada_Y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Operacion</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Zona</t>
         </is>
@@ -508,25 +496,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t xml:space="preserve">4756 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6/25/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MIGUELETES 1330</t>
+          <t>GARAY, JUAN DE AV. 799</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">02281899 </t>
+          <t xml:space="preserve">01831840 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +529,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Cables en panza</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -549,48 +537,48 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1330, "cod_calle": 13079, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.440291", "y": "-34.562841"}, "direccion": "MIGUELETES 1330, CABA", "nombre_calle": "MIGUELETES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 799, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376455", "y": "-34.624886"}, "direccion": "GARAY, JUAN DE AV. 799, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.440291</v>
+        <v>-58.376455</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.562841</v>
+        <v>-34.624886</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">4756 </t>
+          <t>8016</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>1/8/2026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GARAY, JUAN DE AV. 799</t>
+          <t>RIVADAVIA AV. 2560</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">01831840 </t>
+          <t xml:space="preserve">02339328 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +593,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cables sueltos</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,18 +601,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 799, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376455", "y": "-34.624886"}, "direccion": "GARAY, JUAN DE AV. 799, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2560, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402591", "y": "-34.610010"}, "direccion": "RIVADAVIA AV. 2560, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.376455</v>
+        <v>-58.402591</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.624886</v>
+        <v>-34.61001</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -636,7 +624,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8016</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -646,15 +634,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 2560</t>
+          <t>LA PAMPA 3650</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02289539 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -669,7 +657,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cables sueltos</t>
+          <t>caja sobre rejas</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,30 +665,30 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2560, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402591", "y": "-34.610010"}, "direccion": "RIVADAVIA AV. 2560, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3650, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466489", "y": "-34.572064"}, "direccion": "LA PAMPA 3650, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.402591</v>
+        <v>-58.466489</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.61001</v>
+        <v>-34.572064</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -710,15 +698,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LA PAMPA 3650</t>
+          <t>SAN JUAN AV. 4267</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">02289539 </t>
+          <t xml:space="preserve">02340191 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -733,7 +721,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>caja sobre rejas</t>
+          <t>cables en panza</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,30 +729,30 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3650, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466489", "y": "-34.572064"}, "direccion": "LA PAMPA 3650, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4267, "cod_calle": 20040, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425002", "y": "-34.626654"}, "direccion": "SAN JUAN AV. 4267, CABA", "nombre_calle": "SAN JUAN AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.466489</v>
+        <v>-58.425002</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.572064</v>
+        <v>-34.626654</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8030</t>
+          <t>8029</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -774,15 +762,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SAN JUAN AV. 4267</t>
+          <t>MALVINAS ARGENTINAS 49</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02271594 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cables en panza</t>
+          <t>cable en panza, cortado</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,14 +793,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4267, "cod_calle": 20040, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425002", "y": "-34.626654"}, "direccion": "SAN JUAN AV. 4267, CABA", "nombre_calle": "SAN JUAN AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 49, "cod_calle": 13020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451796", "y": "-34.625377"}, "direccion": "MALVINAS ARGENTINAS 49, CABA", "nombre_calle": "MALVINAS ARGENTINAS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.425002</v>
+        <v>-58.451796</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.626654</v>
+        <v>-34.625377</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -828,25 +816,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8029</t>
+          <t>Z1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1/8/2026</t>
+          <t>1/12/2026</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MALVINAS ARGENTINAS 49</t>
+          <t>LAVALLEJA 990</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">02271594 </t>
+          <t xml:space="preserve">02340700 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -861,7 +849,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>cable en panza, cortado</t>
+          <t>cable cortado</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +857,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 49, "cod_calle": 13020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451796", "y": "-34.625377"}, "direccion": "MALVINAS ARGENTINAS 49, CABA", "nombre_calle": "MALVINAS ARGENTINAS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 990, "cod_calle": 12090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.429174", "y": "-34.597484"}, "direccion": "LAVALLEJA 990, CABA", "nombre_calle": "LAVALLEJA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.451796</v>
+        <v>-58.429174</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.625377</v>
+        <v>-34.597484</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -892,25 +880,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>Z6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1/8/2026</t>
+          <t>1/12/2026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ARANGUREN, JUAN F., DR. 4355</t>
+          <t>CORRIENTES AV. 5733</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">02289689 </t>
+          <t>02341081</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -925,7 +913,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>riesgo de caida de equipo</t>
+          <t>rg11 colgando</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -933,30 +921,30 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4355, "cod_calle": 1094, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.489757", "y": "-34.630158"}, "direccion": "ARANGUREN, JUAN F., DR. 4355, CABA", "nombre_calle": "ARANGUREN, JUAN F., DR.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5733, "cod_calle": 3174, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443697", "y": "-34.595202"}, "direccion": "CORRIENTES AV. 5733, CABA", "nombre_calle": "CORRIENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.489757</v>
+        <v>-58.443697</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.630158</v>
+        <v>-34.595202</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>S01335742</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -966,15 +954,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LAVALLEJA 990</t>
+          <t>Tinogasta 5182</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02289819 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -989,7 +977,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cable cortado</t>
+          <t>cables bajos</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -997,48 +985,48 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 990, "cod_calle": 12090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.429174", "y": "-34.597484"}, "direccion": "LAVALLEJA 990, CABA", "nombre_calle": "LAVALLEJA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5182, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519521", "y": "-34.615739"}, "direccion": "TINOGASTA 5182, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.429174</v>
+        <v>-58.519521</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.597484</v>
+        <v>-34.615739</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Z3</t>
+          <t>8133</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>QUILMES 181</t>
+          <t>YERBAL 5612</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02282092 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1053,7 +1041,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cable colgando</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1061,48 +1049,48 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 181, "cod_calle": 18007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.418079", "y": "-34.641658"}, "direccion": "QUILMES 181, CABA", "nombre_calle": "QUILMES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.505213", "y": "-34.637279"}, "direccion": "YERBAL 5612, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.418079</v>
+        <v>-58.505213</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.641658</v>
+        <v>-34.637279</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Z4</t>
+          <t>8134</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>QUILMES 256</t>
+          <t>ESTADO DE PALESTINA 511</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02340391 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1117,7 +1105,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cables colgando</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1125,18 +1113,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 256, "cod_calle": 18007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.417736", "y": "-34.642492"}, "direccion": "QUILMES 256, CABA", "nombre_calle": "QUILMES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 511, "cod_calle": 19016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426036", "y": "-34.605725"}, "direccion": "ESTADO DE PALESTINA 511, CABA", "nombre_calle": "ESTADO DE PALESTINA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.417736</v>
+        <v>-58.426036</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.642492</v>
+        <v>-34.605725</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1148,25 +1136,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Z6</t>
+          <t>8135</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CORRIENTES AV. 5733</t>
+          <t>PERON, JUAN DOMINGO, TTE. GENERAL 4010</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02340534 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1181,7 +1169,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>rg11 colgando</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1189,18 +1177,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5733, "cod_calle": 3174, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443697", "y": "-34.595202"}, "direccion": "CORRIENTES AV. 5733, CABA", "nombre_calle": "CORRIENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4010, "cod_calle": 3050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.422975", "y": "-34.605999"}, "direccion": "PERON, JUAN DOMINGO, TTE. GENERAL 4010, CABA", "nombre_calle": "PERON, JUAN DOMINGO, TTE. GENERAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.443697</v>
+        <v>-58.422975</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.595202</v>
+        <v>-34.605999</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1212,21 +1200,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S01268691</t>
+          <t>S00922329</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ESTADOS UNIDOS 1943</t>
+          <t>PUEYRREDON, HONORIO, DR. AV. 620</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1245,7 +1233,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cables colgando</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1253,18 +1241,18 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1943, "cod_calle": 5087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.393711", "y": "-34.619471"}, "direccion": "ESTADOS UNIDOS 1943, CABA", "nombre_calle": "ESTADOS UNIDOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441834", "y": "-34.612760"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 620, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.393711</v>
+        <v>-58.441834</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.619471</v>
+        <v>-34.61276</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1276,25 +1264,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S01335742</t>
+          <t>S00984490</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tinogasta 5182</t>
+          <t>HABANA 2235</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">02289819 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1309,7 +1297,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cables bajos</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1317,18 +1305,18 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5182, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519521", "y": "-34.615739"}, "direccion": "TINOGASTA 5182, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2235, "cod_calle": 8001, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491963", "y": "-34.584559"}, "direccion": "HABANA 2235, CABA", "nombre_calle": "HABANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.519521</v>
+        <v>-58.491963</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.615739</v>
+        <v>-34.584559</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1340,25 +1328,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8133</t>
+          <t>S01108235</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>YERBAL 5612</t>
+          <t>PUEYRREDON, HONORIO, DR. AV. 632</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">02282092 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1381,44 +1369,44 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.505213", "y": "-34.637279"}, "direccion": "YERBAL 5612, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 632, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441881", "y": "-34.612693"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 632, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.505213</v>
+        <v>-58.441881</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.637279</v>
+        <v>-34.612693</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8134</t>
+          <t>S01335725</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 511</t>
+          <t>TINOGASTA 5196</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1445,44 +1433,44 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 511, "cod_calle": 19016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426036", "y": "-34.605725"}, "direccion": "ESTADO DE PALESTINA 511, CABA", "nombre_calle": "ESTADO DE PALESTINA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5196, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519645", "y": "-34.615857"}, "direccion": "TINOGASTA 5196, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.426036</v>
+        <v>-58.519645</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.605725</v>
+        <v>-34.615857</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8135</t>
+          <t>6185</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>1/19/2026</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PERON, JUAN DOMINGO, TTE. GENERAL 4010</t>
+          <t>VALLESE, FELIPE 3254</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1509,44 +1497,44 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4010, "cod_calle": 3050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.422975", "y": "-34.605999"}, "direccion": "PERON, JUAN DOMINGO, TTE. GENERAL 4010, CABA", "nombre_calle": "PERON, JUAN DOMINGO, TTE. GENERAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3254, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477574", "y": "-34.624423"}, "direccion": "VALLESE, FELIPE 3254, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.422975</v>
+        <v>-58.477574</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.605999</v>
+        <v>-34.624423</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S00922329</t>
+          <t xml:space="preserve">900009312910 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/20/2026</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 620</t>
+          <t>BERUTI 2838</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1565,7 +1553,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cables sueltos</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1573,18 +1561,18 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441834", "y": "-34.612760"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 620, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2838, "cod_calle": 2071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404687", "y": "-34.590840"}, "direccion": "BERUTI 2838, CABA", "nombre_calle": "BERUTI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.441834</v>
+        <v>-58.404687</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.61276</v>
+        <v>-34.59084</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1596,21 +1584,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>S00984490</t>
+          <t>8164</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/21/2026</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HABANA 2235</t>
+          <t>REGIMIENTO DE PATRICIOS AV. 76</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1627,54 +1615,50 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>cable en panza</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2235, "cod_calle": 8001, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491963", "y": "-34.584559"}, "direccion": "HABANA 2235, CABA", "nombre_calle": "HABANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 76, "cod_calle": 17034, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.370501", "y": "-34.630402"}, "direccion": "REGIMIENTO DE PATRICIOS AV. 76, CABA", "nombre_calle": "REGIMIENTO DE PATRICIOS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.491963</v>
+        <v>-58.370501</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.584559</v>
+        <v>-34.630402</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S01108235</t>
+          <t>8165</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/21/2026</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 632</t>
+          <t>CORDOBA AV. 4068</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1701,18 +1685,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 632, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441881", "y": "-34.612693"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 632, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4068, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424451", "y": "-34.597333"}, "direccion": "CORDOBA AV. 4068, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.441881</v>
+        <v>-58.424451</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.612693</v>
+        <v>-34.597333</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1724,64 +1708,896 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S01335725</t>
+          <t>8189</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TINOGASTA 5196</t>
+          <t>JUSTO, JUAN B. AV. 3451</t>
         </is>
       </c>
       <c r="D21" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>cable en panza</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3451, "cod_calle": 10018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453653", "y": "-34.601069"}, "direccion": "JUSTO, JUAN B. AV. 3451, CABA", "nombre_calle": "JUSTO, JUAN B. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>-58.453653</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-34.601069</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>8190</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1/22/2026</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PUEYRREDON, HONORIO, DR. AV. 2057</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>15</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>cables en panza</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2057, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.452676", "y": "-34.599088"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 2057, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>-58.452676</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-34.599088</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Paternal</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8191</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1/22/2026</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>OLLEROS 2570</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>13</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>cable en panza</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2570, "cod_calle": 16022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444664", "y": "-34.571930"}, "direccion": "OLLEROS 2570, CABA", "nombre_calle": "OLLEROS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>-58.444664</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-34.57193</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>8193</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1/22/2026</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>UGARTE, MANUEL 3354</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>cable en panza</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3354, "cod_calle": 22020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471508", "y": "-34.561344"}, "direccion": "UGARTE, MANUEL 3354, CABA", "nombre_calle": "UGARTE, MANUEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>-58.471508</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-34.561344</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>8195</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1/22/2026</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DONADO 2370</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>12</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>cable en panza</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2370, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477236", "y": "-34.570467"}, "direccion": "DONADO 2370, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>-58.477236</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-34.570467</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>8196</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1/22/2026</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DONADO 2362</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>12</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>cable en panza</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2362, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477176", "y": "-34.570527"}, "direccion": "DONADO 2362, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>-58.477176</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-34.570527</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Colegiales</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>S00957139</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1/23/2026</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NEUQUEN 2670</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>cables en panza</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2670, "cod_calle": 14017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470728", "y": "-34.620244"}, "direccion": "NEUQUEN 2670, CABA", "nombre_calle": "NEUQUEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>-58.470728</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-34.620244</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>S01034361</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1/23/2026</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>VALLE 1380</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1380, "cod_calle": 23007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.447100", "y": "-34.626298"}, "direccion": "VALLE 1380, CABA", "nombre_calle": "VALLE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371607", "y": "-34.635830"}, "direccion": "VALLE, ARISTOBULO DEL 1380, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454048", "y": "-34.616371"}, "direccion": "VALLESE, FELIPE 1380, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>-58.4471</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-34.626298</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>S01221416</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1/23/2026</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>JUNCAL 1303</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>cable en panza, suelto</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 1303, "cod_calle": 10014, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385838", "y": "-34.592779"}, "direccion": "JUNCAL 1303, CABA", "nombre_calle": "JUNCAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-58.385838</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-34.592779</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>S01249816</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1/23/2026</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MILLER 3936</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>12</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>cable en panza, cable cortado</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 3936, "cod_calle": 13083, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492138", "y": "-34.557438"}, "direccion": "MILLER 3936, CABA", "nombre_calle": "MILLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>-58.492138</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-34.557438</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>S01285994</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1/23/2026</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>LA PLATA AV. 2046</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>cable en panza</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2046, "cod_calle": 12054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423773", "y": "-34.638704"}, "direccion": "LA PLATA AV. 2046, CABA", "nombre_calle": "LA PLATA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>-58.423773</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-34.638704</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Boedo</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>S01389304</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1/23/2026</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>IRIGOYEN 401</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 401, "cod_calle": 9018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506623", "y": "-34.635508"}, "direccion": "IRIGOYEN 401, CABA", "nombre_calle": "IRIGOYEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 401, "cod_calle": 9019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.380489", "y": "-34.613056"}, "direccion": "IRIGOYEN, BERNARDO DE 401, CABA", "nombre_calle": "IRIGOYEN, BERNARDO DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>-58.506623</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-34.635508</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Devoto</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>S01395394</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1/23/2026</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>LLAVALLOL 2126</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>11</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Pendiente ADM</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>tendido bajo</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5196, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519645", "y": "-34.615857"}, "direccion": "TINOGASTA 5196, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>-58.519645</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-34.615857</v>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Cable en panza</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 2126, "cod_calle": 12161, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490446", "y": "-34.610893"}, "direccion": "LLAVALLOL 2126, CABA", "nombre_calle": "LLAVALLOL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>-58.490446</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-34.610893</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Devoto</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>Capital Norte</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>S01405275</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1/23/2026</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SUAREZ 547</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Pendiente ADM</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>tendido a baja altura</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 547, "cod_calle": 20118, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361047", "y": "-34.636149"}, "direccion": "SUAREZ 547, CABA", "nombre_calle": "SUAREZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 547, "cod_calle": 20119, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.527314", "y": "-34.645255"}, "direccion": "SUAREZ, JOSE LEON 547, CABA", "nombre_calle": "SUAREZ, JOSE LEON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>-58.361047</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-34.636149</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,25 +560,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8016</t>
+          <t>S01335742</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1/8/2026</t>
+          <t>1/12/2026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RIVADAVIA AV. 2560</t>
+          <t>Tinogasta 5182</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02339328 </t>
+          <t xml:space="preserve">02289819 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cables sueltos</t>
+          <t>cables bajos</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -601,48 +601,48 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2560, "cod_calle": 19046, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.402591", "y": "-34.610010"}, "direccion": "RIVADAVIA AV. 2560, CABA", "nombre_calle": "RIVADAVIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5182, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519521", "y": "-34.615739"}, "direccion": "TINOGASTA 5182, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.402591</v>
+        <v>-58.519521</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.61001</v>
+        <v>-34.615739</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8133</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1/8/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LA PAMPA 3650</t>
+          <t>YERBAL 5612</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">02289539 </t>
+          <t xml:space="preserve">02282092 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>caja sobre rejas</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -665,18 +665,18 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3650, "cod_calle": 12168, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.466489", "y": "-34.572064"}, "direccion": "LA PAMPA 3650, CABA", "nombre_calle": "LA PAMPA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.505213", "y": "-34.637279"}, "direccion": "YERBAL 5612, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.466489</v>
+        <v>-58.505213</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.572064</v>
+        <v>-34.637279</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -688,17 +688,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8030</t>
+          <t>8134</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1/8/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SAN JUAN AV. 4267</t>
+          <t>ESTADO DE PALESTINA 511</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -706,7 +706,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">02340191 </t>
+          <t xml:space="preserve">02340391 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cables en panza</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -729,18 +729,18 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4267, "cod_calle": 20040, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.425002", "y": "-34.626654"}, "direccion": "SAN JUAN AV. 4267, CABA", "nombre_calle": "SAN JUAN AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 511, "cod_calle": 19016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426036", "y": "-34.605725"}, "direccion": "ESTADO DE PALESTINA 511, CABA", "nombre_calle": "ESTADO DE PALESTINA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.425002</v>
+        <v>-58.426036</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.626654</v>
+        <v>-34.605725</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -752,25 +752,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8029</t>
+          <t>8135</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1/8/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MALVINAS ARGENTINAS 49</t>
+          <t>PERON, JUAN DOMINGO, TTE. GENERAL 4010</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">02271594 </t>
+          <t xml:space="preserve">02340534 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>cable en panza, cortado</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -793,18 +793,18 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 49, "cod_calle": 13020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451796", "y": "-34.625377"}, "direccion": "MALVINAS ARGENTINAS 49, CABA", "nombre_calle": "MALVINAS ARGENTINAS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4010, "cod_calle": 3050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.422975", "y": "-34.605999"}, "direccion": "PERON, JUAN DOMINGO, TTE. GENERAL 4010, CABA", "nombre_calle": "PERON, JUAN DOMINGO, TTE. GENERAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.451796</v>
+        <v>-58.422975</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.625377</v>
+        <v>-34.605999</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -816,25 +816,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>S00922329</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LAVALLEJA 990</t>
+          <t>PUEYRREDON, HONORIO, DR. AV. 620</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">02340700 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>cable cortado</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -857,18 +857,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 990, "cod_calle": 12090, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.429174", "y": "-34.597484"}, "direccion": "LAVALLEJA 990, CABA", "nombre_calle": "LAVALLEJA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441834", "y": "-34.612760"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 620, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.429174</v>
+        <v>-58.441834</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.597484</v>
+        <v>-34.61276</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -880,25 +880,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Z6</t>
+          <t>S00984490</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CORRIENTES AV. 5733</t>
+          <t>HABANA 2235</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>02341081</t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>rg11 colgando</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -921,48 +921,48 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5733, "cod_calle": 3174, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.443697", "y": "-34.595202"}, "direccion": "CORRIENTES AV. 5733, CABA", "nombre_calle": "CORRIENTES AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2235, "cod_calle": 8001, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491963", "y": "-34.584559"}, "direccion": "HABANA 2235, CABA", "nombre_calle": "HABANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.443697</v>
+        <v>-58.491963</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.595202</v>
+        <v>-34.584559</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S01335742</t>
+          <t>S01108235</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tinogasta 5182</t>
+          <t>PUEYRREDON, HONORIO, DR. AV. 632</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">02289819 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cables bajos</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -985,48 +985,48 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5182, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519521", "y": "-34.615739"}, "direccion": "TINOGASTA 5182, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 632, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441881", "y": "-34.612693"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 632, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.519521</v>
+        <v>-58.441881</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.615739</v>
+        <v>-34.612693</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8133</t>
+          <t>S01335725</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>YERBAL 5612</t>
+          <t>TINOGASTA 5196</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">02282092 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1049,14 +1049,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.505213", "y": "-34.637279"}, "direccion": "YERBAL 5612, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5196, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519645", "y": "-34.615857"}, "direccion": "TINOGASTA 5196, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.505213</v>
+        <v>-58.519645</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.637279</v>
+        <v>-34.615857</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1072,25 +1072,25 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8134</t>
+          <t>6185</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>1/19/2026</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 511</t>
+          <t>VALLESE, FELIPE 3254</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">02340391 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1113,48 +1113,48 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 511, "cod_calle": 19016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426036", "y": "-34.605725"}, "direccion": "ESTADO DE PALESTINA 511, CABA", "nombre_calle": "ESTADO DE PALESTINA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3254, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477574", "y": "-34.624423"}, "direccion": "VALLESE, FELIPE 3254, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.426036</v>
+        <v>-58.477574</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.605725</v>
+        <v>-34.624423</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8135</t>
+          <t xml:space="preserve">900009312910 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>1/20/2026</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PERON, JUAN DOMINGO, TTE. GENERAL 4010</t>
+          <t>BERUTI 2838</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">02340534 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cables sueltos</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1177,18 +1177,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4010, "cod_calle": 3050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.422975", "y": "-34.605999"}, "direccion": "PERON, JUAN DOMINGO, TTE. GENERAL 4010, CABA", "nombre_calle": "PERON, JUAN DOMINGO, TTE. GENERAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2838, "cod_calle": 2071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404687", "y": "-34.590840"}, "direccion": "BERUTI 2838, CABA", "nombre_calle": "BERUTI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.422975</v>
+        <v>-58.404687</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.605999</v>
+        <v>-34.59084</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1200,21 +1200,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>S00922329</t>
+          <t>8164</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/21/2026</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 620</t>
+          <t>REGIMIENTO DE PATRICIOS AV. 76</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1231,28 +1231,24 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>tendido bajo</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441834", "y": "-34.612760"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 620, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 76, "cod_calle": 17034, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.370501", "y": "-34.630402"}, "direccion": "REGIMIENTO DE PATRICIOS AV. 76, CABA", "nombre_calle": "REGIMIENTO DE PATRICIOS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.441834</v>
+        <v>-58.370501</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.61276</v>
+        <v>-34.630402</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1264,21 +1260,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S00984490</t>
+          <t>8189</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HABANA 2235</t>
+          <t>JUSTO, JUAN B. AV. 3451</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1305,14 +1301,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2235, "cod_calle": 8001, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491963", "y": "-34.584559"}, "direccion": "HABANA 2235, CABA", "nombre_calle": "HABANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3451, "cod_calle": 10018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453653", "y": "-34.601069"}, "direccion": "JUSTO, JUAN B. AV. 3451, CABA", "nombre_calle": "JUSTO, JUAN B. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.491963</v>
+        <v>-58.453653</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.584559</v>
+        <v>-34.601069</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1328,21 +1324,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>S01108235</t>
+          <t>8190</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 632</t>
+          <t>PUEYRREDON, HONORIO, DR. AV. 2057</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1361,7 +1357,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cables en panza</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1369,44 +1365,44 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 632, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441881", "y": "-34.612693"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 632, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2057, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.452676", "y": "-34.599088"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 2057, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.441881</v>
+        <v>-58.452676</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.612693</v>
+        <v>-34.599088</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S01335725</t>
+          <t>8191</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TINOGASTA 5196</t>
+          <t>OLLEROS 2570</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1425,7 +1421,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1433,44 +1429,44 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5196, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519645", "y": "-34.615857"}, "direccion": "TINOGASTA 5196, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2570, "cod_calle": 16022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444664", "y": "-34.571930"}, "direccion": "OLLEROS 2570, CABA", "nombre_calle": "OLLEROS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.519645</v>
+        <v>-58.444664</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.615857</v>
+        <v>-34.57193</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6185</t>
+          <t>8193</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/19/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 3254</t>
+          <t>UGARTE, MANUEL 3354</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1489,7 +1485,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1497,18 +1493,18 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3254, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477574", "y": "-34.624423"}, "direccion": "VALLESE, FELIPE 3254, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3354, "cod_calle": 22020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471508", "y": "-34.561344"}, "direccion": "UGARTE, MANUEL 3354, CABA", "nombre_calle": "UGARTE, MANUEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.477574</v>
+        <v>-58.471508</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.624423</v>
+        <v>-34.561344</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1520,21 +1516,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">900009312910 </t>
+          <t>8195</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/20/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BERUTI 2838</t>
+          <t>DONADO 2370</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1553,7 +1549,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cables sueltos</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1561,44 +1557,44 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2838, "cod_calle": 2071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404687", "y": "-34.590840"}, "direccion": "BERUTI 2838, CABA", "nombre_calle": "BERUTI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2370, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477236", "y": "-34.570467"}, "direccion": "DONADO 2370, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.404687</v>
+        <v>-58.477236</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.59084</v>
+        <v>-34.570467</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8164</t>
+          <t>8196</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/21/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>REGIMIENTO DE PATRICIOS AV. 76</t>
+          <t>DONADO 2362</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1615,50 +1611,54 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>cable en panza</t>
+        </is>
+      </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 76, "cod_calle": 17034, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.370501", "y": "-34.630402"}, "direccion": "REGIMIENTO DE PATRICIOS AV. 76, CABA", "nombre_calle": "REGIMIENTO DE PATRICIOS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2362, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477176", "y": "-34.570527"}, "direccion": "DONADO 2362, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.370501</v>
+        <v>-58.477176</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.630402</v>
+        <v>-34.570527</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8165</t>
+          <t>S00957139</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/21/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CORDOBA AV. 4068</t>
+          <t>NEUQUEN 2670</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cables en panza</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1685,18 +1685,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4068, "cod_calle": 3165, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.424451", "y": "-34.597333"}, "direccion": "CORDOBA AV. 4068, CABA", "nombre_calle": "CORDOBA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2670, "cod_calle": 14017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470728", "y": "-34.620244"}, "direccion": "NEUQUEN 2670, CABA", "nombre_calle": "NEUQUEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.424451</v>
+        <v>-58.470728</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.597333</v>
+        <v>-34.620244</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1708,21 +1708,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8189</t>
+          <t>S01034361</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>JUSTO, JUAN B. AV. 3451</t>
+          <t>VALLE 1380</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1749,44 +1749,44 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3451, "cod_calle": 10018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453653", "y": "-34.601069"}, "direccion": "JUSTO, JUAN B. AV. 3451, CABA", "nombre_calle": "JUSTO, JUAN B. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1380, "cod_calle": 23007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.447100", "y": "-34.626298"}, "direccion": "VALLE 1380, CABA", "nombre_calle": "VALLE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371607", "y": "-34.635830"}, "direccion": "VALLE, ARISTOBULO DEL 1380, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454048", "y": "-34.616371"}, "direccion": "VALLESE, FELIPE 1380, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.453653</v>
+        <v>-58.4471</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.601069</v>
+        <v>-34.626298</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8190</t>
+          <t>S01221416</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 2057</t>
+          <t>JUNCAL 1303</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cables en panza</t>
+          <t>cable en panza, suelto</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1813,44 +1813,44 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2057, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.452676", "y": "-34.599088"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 2057, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1303, "cod_calle": 10014, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385838", "y": "-34.592779"}, "direccion": "JUNCAL 1303, CABA", "nombre_calle": "JUNCAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.452676</v>
+        <v>-58.385838</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.599088</v>
+        <v>-34.592779</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8191</t>
+          <t>S01249816</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>OLLEROS 2570</t>
+          <t>MILLER 3936</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>cable en panza, cable cortado</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1877,44 +1877,44 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2570, "cod_calle": 16022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444664", "y": "-34.571930"}, "direccion": "OLLEROS 2570, CABA", "nombre_calle": "OLLEROS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3936, "cod_calle": 13083, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492138", "y": "-34.557438"}, "direccion": "MILLER 3936, CABA", "nombre_calle": "MILLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.444664</v>
+        <v>-58.492138</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.57193</v>
+        <v>-34.557438</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8193</t>
+          <t>S01285994</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 3354</t>
+          <t>LA PLATA AV. 2046</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1941,44 +1941,44 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3354, "cod_calle": 22020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471508", "y": "-34.561344"}, "direccion": "UGARTE, MANUEL 3354, CABA", "nombre_calle": "UGARTE, MANUEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2046, "cod_calle": 12054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423773", "y": "-34.638704"}, "direccion": "LA PLATA AV. 2046, CABA", "nombre_calle": "LA PLATA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.471508</v>
+        <v>-58.423773</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.561344</v>
+        <v>-34.638704</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8195</t>
+          <t>S01389304</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DONADO 2370</t>
+          <t>IRIGOYEN 401</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2005,18 +2005,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2370, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477236", "y": "-34.570467"}, "direccion": "DONADO 2370, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 401, "cod_calle": 9018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506623", "y": "-34.635508"}, "direccion": "IRIGOYEN 401, CABA", "nombre_calle": "IRIGOYEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 401, "cod_calle": 9019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.380489", "y": "-34.613056"}, "direccion": "IRIGOYEN, BERNARDO DE 401, CABA", "nombre_calle": "IRIGOYEN, BERNARDO DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.477236</v>
+        <v>-58.506623</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.570467</v>
+        <v>-34.635508</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2028,21 +2028,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8196</t>
+          <t>S01395394</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DONADO 2362</t>
+          <t>LLAVALLOL 2126</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2069,18 +2069,18 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2362, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477176", "y": "-34.570527"}, "direccion": "DONADO 2362, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2126, "cod_calle": 12161, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490446", "y": "-34.610893"}, "direccion": "LLAVALLOL 2126, CABA", "nombre_calle": "LLAVALLOL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.477176</v>
+        <v>-58.490446</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.570527</v>
+        <v>-34.610893</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S00957139</t>
+          <t>S01405275</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2102,11 +2102,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NEUQUEN 2670</t>
+          <t>SUAREZ 547</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>cables en panza</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2133,469 +2133,21 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2670, "cod_calle": 14017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470728", "y": "-34.620244"}, "direccion": "NEUQUEN 2670, CABA", "nombre_calle": "NEUQUEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 547, "cod_calle": 20118, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361047", "y": "-34.636149"}, "direccion": "SUAREZ 547, CABA", "nombre_calle": "SUAREZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 547, "cod_calle": 20119, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.527314", "y": "-34.645255"}, "direccion": "SUAREZ, JOSE LEON 547, CABA", "nombre_calle": "SUAREZ, JOSE LEON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.470728</v>
+        <v>-58.361047</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.620244</v>
+        <v>-34.636149</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>S01034361</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1/23/2026</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>VALLE 1380</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>6</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1380, "cod_calle": 23007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.447100", "y": "-34.626298"}, "direccion": "VALLE 1380, CABA", "nombre_calle": "VALLE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371607", "y": "-34.635830"}, "direccion": "VALLE, ARISTOBULO DEL 1380, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454048", "y": "-34.616371"}, "direccion": "VALLESE, FELIPE 1380, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>-58.4471</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-34.626298</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>S01221416</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1/23/2026</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>JUNCAL 1303</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>cable en panza, suelto</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1303, "cod_calle": 10014, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385838", "y": "-34.592779"}, "direccion": "JUNCAL 1303, CABA", "nombre_calle": "JUNCAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>-58.385838</v>
-      </c>
-      <c r="L29" t="n">
-        <v>-34.592779</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>S01249816</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1/23/2026</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>MILLER 3936</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>12</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>cable en panza, cable cortado</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3936, "cod_calle": 13083, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492138", "y": "-34.557438"}, "direccion": "MILLER 3936, CABA", "nombre_calle": "MILLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>-58.492138</v>
-      </c>
-      <c r="L30" t="n">
-        <v>-34.557438</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Saavedra</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>S01285994</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1/23/2026</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>LA PLATA AV. 2046</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>5</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>cable en panza</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2046, "cod_calle": 12054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423773", "y": "-34.638704"}, "direccion": "LA PLATA AV. 2046, CABA", "nombre_calle": "LA PLATA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>-58.423773</v>
-      </c>
-      <c r="L31" t="n">
-        <v>-34.638704</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Boedo</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>S01389304</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1/23/2026</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>IRIGOYEN 401</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>10</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 401, "cod_calle": 9018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506623", "y": "-34.635508"}, "direccion": "IRIGOYEN 401, CABA", "nombre_calle": "IRIGOYEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 401, "cod_calle": 9019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.380489", "y": "-34.613056"}, "direccion": "IRIGOYEN, BERNARDO DE 401, CABA", "nombre_calle": "IRIGOYEN, BERNARDO DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>-58.506623</v>
-      </c>
-      <c r="L32" t="n">
-        <v>-34.635508</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>S01395394</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1/23/2026</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>LLAVALLOL 2126</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>11</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Cable en panza</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2126, "cod_calle": 12161, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490446", "y": "-34.610893"}, "direccion": "LLAVALLOL 2126, CABA", "nombre_calle": "LLAVALLOL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>-58.490446</v>
-      </c>
-      <c r="L33" t="n">
-        <v>-34.610893</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Devoto</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Capital Norte</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>S01405275</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1/23/2026</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>SUAREZ 547</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Pendiente ADM</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>tendido a baja altura</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 547, "cod_calle": 20118, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361047", "y": "-34.636149"}, "direccion": "SUAREZ 547, CABA", "nombre_calle": "SUAREZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 547, "cod_calle": 20119, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.527314", "y": "-34.645255"}, "direccion": "SUAREZ, JOSE LEON 547, CABA", "nombre_calle": "SUAREZ, JOSE LEON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>-58.361047</v>
-      </c>
-      <c r="L34" t="n">
-        <v>-34.636149</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>San Telmo</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,25 +496,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">4756 </t>
+          <t>S01357585</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>1/29/2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GARAY, JUAN DE AV. 799</t>
+          <t>ZELARRAYAN 5900</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">01831840 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -529,7 +529,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>tendido baja altura</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -537,18 +537,18 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 799, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.376455", "y": "-34.624886"}, "direccion": "GARAY, JUAN DE AV. 799, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5900, "cod_calle": 27016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481308", "y": "-34.675726"}, "direccion": "ZELARRAYAN 5900, CABA", "nombre_calle": "ZELARRAYAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.376455</v>
+        <v>-58.481308</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.624886</v>
+        <v>-34.675726</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -560,25 +560,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S01335742</t>
+          <t>S00012171</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1/12/2026</t>
+          <t>1/29/2026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tinogasta 5182</t>
+          <t>ZAPIOLA 4512</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">02289819 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cables bajos</t>
+          <t>cable en panza, cortado</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -601,18 +601,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5182, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519521", "y": "-34.615739"}, "direccion": "TINOGASTA 5182, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4512, "cod_calle": 27008, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.478846", "y": "-34.544833"}, "direccion": "ZAPIOLA 4512, CABA", "nombre_calle": "ZAPIOLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.519521</v>
+        <v>-58.478846</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.615739</v>
+        <v>-34.544833</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -624,25 +624,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8133</t>
+          <t>S01408162</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>1/26/2026</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>YERBAL 5612</t>
+          <t>GARAY, JUAN DE AV. 2871</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">02282092 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cables colgando</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -665,48 +665,48 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.505213", "y": "-34.637279"}, "direccion": "YERBAL 5612, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2871, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404800", "y": "-34.629021"}, "direccion": "GARAY, JUAN DE AV. 2871, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.505213</v>
+        <v>-58.4048</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.637279</v>
+        <v>-34.629021</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8134</t>
+          <t>S00957139</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 511</t>
+          <t>NEUQUEN 2670</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">02340391 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cables en panza</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -729,18 +729,18 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 511, "cod_calle": 19016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426036", "y": "-34.605725"}, "direccion": "ESTADO DE PALESTINA 511, CABA", "nombre_calle": "ESTADO DE PALESTINA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2670, "cod_calle": 14017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470728", "y": "-34.620244"}, "direccion": "NEUQUEN 2670, CABA", "nombre_calle": "NEUQUEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.426036</v>
+        <v>-58.470728</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.605725</v>
+        <v>-34.620244</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -752,25 +752,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8135</t>
+          <t>S01034361</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PERON, JUAN DOMINGO, TTE. GENERAL 4010</t>
+          <t>VALLE 1380</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">02340534 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -793,18 +793,18 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4010, "cod_calle": 3050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.422975", "y": "-34.605999"}, "direccion": "PERON, JUAN DOMINGO, TTE. GENERAL 4010, CABA", "nombre_calle": "PERON, JUAN DOMINGO, TTE. GENERAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1380, "cod_calle": 23007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.447100", "y": "-34.626298"}, "direccion": "VALLE 1380, CABA", "nombre_calle": "VALLE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371607", "y": "-34.635830"}, "direccion": "VALLE, ARISTOBULO DEL 1380, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454048", "y": "-34.616371"}, "direccion": "VALLESE, FELIPE 1380, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.422975</v>
+        <v>-58.4471</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.605999</v>
+        <v>-34.626298</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -816,21 +816,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S00922329</t>
+          <t>S01221416</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 620</t>
+          <t>JUNCAL 1303</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cable en panza, suelto</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -857,18 +857,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441834", "y": "-34.612760"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 620, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1303, "cod_calle": 10014, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385838", "y": "-34.592779"}, "direccion": "JUNCAL 1303, CABA", "nombre_calle": "JUNCAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.441834</v>
+        <v>-58.385838</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.61276</v>
+        <v>-34.592779</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -880,17 +880,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S00984490</t>
+          <t>S01249816</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HABANA 2235</t>
+          <t>MILLER 3936</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>cable en panza, cable cortado</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -921,18 +921,18 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2235, "cod_calle": 8001, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491963", "y": "-34.584559"}, "direccion": "HABANA 2235, CABA", "nombre_calle": "HABANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3936, "cod_calle": 13083, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492138", "y": "-34.557438"}, "direccion": "MILLER 3936, CABA", "nombre_calle": "MILLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.491963</v>
+        <v>-58.492138</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.584559</v>
+        <v>-34.557438</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -944,21 +944,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S01108235</t>
+          <t>S01285994</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 632</t>
+          <t>LA PLATA AV. 2046</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -985,18 +985,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 632, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441881", "y": "-34.612693"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 632, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2046, "cod_calle": 12054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423773", "y": "-34.638704"}, "direccion": "LA PLATA AV. 2046, CABA", "nombre_calle": "LA PLATA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.441881</v>
+        <v>-58.423773</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.612693</v>
+        <v>-34.638704</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1008,21 +1008,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S01335725</t>
+          <t>S01389304</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TINOGASTA 5196</t>
+          <t>IRIGOYEN 401</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1049,14 +1049,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5196, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519645", "y": "-34.615857"}, "direccion": "TINOGASTA 5196, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 401, "cod_calle": 9018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506623", "y": "-34.635508"}, "direccion": "IRIGOYEN 401, CABA", "nombre_calle": "IRIGOYEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 401, "cod_calle": 9019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.380489", "y": "-34.613056"}, "direccion": "IRIGOYEN, BERNARDO DE 401, CABA", "nombre_calle": "IRIGOYEN, BERNARDO DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.519645</v>
+        <v>-58.506623</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.615857</v>
+        <v>-34.635508</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1072,21 +1072,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6185</t>
+          <t>S01395394</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1/19/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 3254</t>
+          <t>LLAVALLOL 2126</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1113,14 +1113,14 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3254, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477574", "y": "-34.624423"}, "direccion": "VALLESE, FELIPE 3254, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2126, "cod_calle": 12161, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490446", "y": "-34.610893"}, "direccion": "LLAVALLOL 2126, CABA", "nombre_calle": "LLAVALLOL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.477574</v>
+        <v>-58.490446</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.624423</v>
+        <v>-34.610893</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1136,21 +1136,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">900009312910 </t>
+          <t>S01405275</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1/20/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BERUTI 2838</t>
+          <t>SUAREZ 547</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cables sueltos</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1177,18 +1177,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2838, "cod_calle": 2071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404687", "y": "-34.590840"}, "direccion": "BERUTI 2838, CABA", "nombre_calle": "BERUTI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 547, "cod_calle": 20118, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361047", "y": "-34.636149"}, "direccion": "SUAREZ 547, CABA", "nombre_calle": "SUAREZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 547, "cod_calle": 20119, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.527314", "y": "-34.645255"}, "direccion": "SUAREZ, JOSE LEON 547, CABA", "nombre_calle": "SUAREZ, JOSE LEON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.404687</v>
+        <v>-58.361047</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.59084</v>
+        <v>-34.636149</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1200,21 +1200,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8164</t>
+          <t>8189</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/21/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>REGIMIENTO DE PATRICIOS AV. 76</t>
+          <t>JUSTO, JUAN B. AV. 3451</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1231,36 +1231,40 @@
           <t>Pendiente</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>cable en panza</t>
+        </is>
+      </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 76, "cod_calle": 17034, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.370501", "y": "-34.630402"}, "direccion": "REGIMIENTO DE PATRICIOS AV. 76, CABA", "nombre_calle": "REGIMIENTO DE PATRICIOS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3451, "cod_calle": 10018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453653", "y": "-34.601069"}, "direccion": "JUSTO, JUAN B. AV. 3451, CABA", "nombre_calle": "JUSTO, JUAN B. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.370501</v>
+        <v>-58.453653</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.630402</v>
+        <v>-34.601069</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8189</t>
+          <t>8190</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1270,7 +1274,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>JUSTO, JUAN B. AV. 3451</t>
+          <t>PUEYRREDON, HONORIO, DR. AV. 2057</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -1293,7 +1297,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>cables en panza</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1301,14 +1305,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3451, "cod_calle": 10018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453653", "y": "-34.601069"}, "direccion": "JUSTO, JUAN B. AV. 3451, CABA", "nombre_calle": "JUSTO, JUAN B. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2057, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.452676", "y": "-34.599088"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 2057, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.453653</v>
+        <v>-58.452676</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.601069</v>
+        <v>-34.599088</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1324,7 +1328,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8190</t>
+          <t>8191</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1334,11 +1338,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 2057</t>
+          <t>OLLEROS 2570</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1357,7 +1361,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cables en panza</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1365,30 +1369,30 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2057, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.452676", "y": "-34.599088"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 2057, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2570, "cod_calle": 16022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444664", "y": "-34.571930"}, "direccion": "OLLEROS 2570, CABA", "nombre_calle": "OLLEROS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.452676</v>
+        <v>-58.444664</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.599088</v>
+        <v>-34.57193</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8191</t>
+          <t>8193</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1398,11 +1402,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OLLEROS 2570</t>
+          <t>UGARTE, MANUEL 3354</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1429,30 +1433,30 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2570, "cod_calle": 16022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444664", "y": "-34.571930"}, "direccion": "OLLEROS 2570, CABA", "nombre_calle": "OLLEROS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3354, "cod_calle": 22020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471508", "y": "-34.561344"}, "direccion": "UGARTE, MANUEL 3354, CABA", "nombre_calle": "UGARTE, MANUEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.444664</v>
+        <v>-58.471508</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.57193</v>
+        <v>-34.561344</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8193</t>
+          <t>8195</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1462,7 +1466,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 3354</t>
+          <t>DONADO 2370</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1493,14 +1497,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3354, "cod_calle": 22020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471508", "y": "-34.561344"}, "direccion": "UGARTE, MANUEL 3354, CABA", "nombre_calle": "UGARTE, MANUEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2370, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477236", "y": "-34.570467"}, "direccion": "DONADO 2370, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.471508</v>
+        <v>-58.477236</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.561344</v>
+        <v>-34.570467</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1516,7 +1520,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8195</t>
+          <t>8196</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1526,7 +1530,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DONADO 2370</t>
+          <t>DONADO 2362</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1557,14 +1561,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2370, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477236", "y": "-34.570467"}, "direccion": "DONADO 2370, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2362, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477176", "y": "-34.570527"}, "direccion": "DONADO 2362, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.477236</v>
+        <v>-58.477176</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.570467</v>
+        <v>-34.570527</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1580,21 +1584,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8196</t>
+          <t>8164</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>1/21/2026</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DONADO 2362</t>
+          <t>REGIMIENTO DE PATRICIOS AV. 76</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1613,7 +1617,8 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t xml:space="preserve">tendoido bajo
+</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1621,44 +1626,44 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2362, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477176", "y": "-34.570527"}, "direccion": "DONADO 2362, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 76, "cod_calle": 17034, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.370501", "y": "-34.630402"}, "direccion": "REGIMIENTO DE PATRICIOS AV. 76, CABA", "nombre_calle": "REGIMIENTO DE PATRICIOS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.477176</v>
+        <v>-58.370501</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.570527</v>
+        <v>-34.630402</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>S00957139</t>
+          <t xml:space="preserve">900009312910 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/20/2026</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NEUQUEN 2670</t>
+          <t>BERUTI 2838</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1677,7 +1682,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cables en panza</t>
+          <t>cables sueltos</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1685,18 +1690,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2670, "cod_calle": 14017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470728", "y": "-34.620244"}, "direccion": "NEUQUEN 2670, CABA", "nombre_calle": "NEUQUEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2838, "cod_calle": 2071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404687", "y": "-34.590840"}, "direccion": "BERUTI 2838, CABA", "nombre_calle": "BERUTI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.470728</v>
+        <v>-58.404687</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.620244</v>
+        <v>-34.59084</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1708,21 +1713,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S01034361</t>
+          <t>6185</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/19/2026</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>VALLE 1380</t>
+          <t>VALLESE, FELIPE 3254</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1741,7 +1746,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1749,44 +1754,44 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1380, "cod_calle": 23007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.447100", "y": "-34.626298"}, "direccion": "VALLE 1380, CABA", "nombre_calle": "VALLE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371607", "y": "-34.635830"}, "direccion": "VALLE, ARISTOBULO DEL 1380, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454048", "y": "-34.616371"}, "direccion": "VALLESE, FELIPE 1380, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3254, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477574", "y": "-34.624423"}, "direccion": "VALLESE, FELIPE 3254, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.4471</v>
+        <v>-58.477574</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.626298</v>
+        <v>-34.624423</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S01221416</t>
+          <t>S00922329</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>JUNCAL 1303</t>
+          <t>PUEYRREDON, HONORIO, DR. AV. 620</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1805,7 +1810,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>cable en panza, suelto</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1813,18 +1818,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1303, "cod_calle": 10014, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385838", "y": "-34.592779"}, "direccion": "JUNCAL 1303, CABA", "nombre_calle": "JUNCAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441834", "y": "-34.612760"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 620, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.385838</v>
+        <v>-58.441834</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.592779</v>
+        <v>-34.61276</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1836,17 +1841,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S01249816</t>
+          <t>S00984490</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MILLER 3936</t>
+          <t>HABANA 2235</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1869,7 +1874,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>cable en panza, cable cortado</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1877,18 +1882,18 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3936, "cod_calle": 13083, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492138", "y": "-34.557438"}, "direccion": "MILLER 3936, CABA", "nombre_calle": "MILLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2235, "cod_calle": 8001, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491963", "y": "-34.584559"}, "direccion": "HABANA 2235, CABA", "nombre_calle": "HABANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.492138</v>
+        <v>-58.491963</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.557438</v>
+        <v>-34.584559</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1900,21 +1905,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S01285994</t>
+          <t>S01108235</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 2046</t>
+          <t>PUEYRREDON, HONORIO, DR. AV. 632</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1933,7 +1938,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1941,18 +1946,18 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2046, "cod_calle": 12054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423773", "y": "-34.638704"}, "direccion": "LA PLATA AV. 2046, CABA", "nombre_calle": "LA PLATA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 632, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441881", "y": "-34.612693"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 632, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.423773</v>
+        <v>-58.441881</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.638704</v>
+        <v>-34.612693</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1964,21 +1969,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S01389304</t>
+          <t>S01335725</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>IRIGOYEN 401</t>
+          <t>TINOGASTA 5196</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1997,7 +2002,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2005,14 +2010,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 401, "cod_calle": 9018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506623", "y": "-34.635508"}, "direccion": "IRIGOYEN 401, CABA", "nombre_calle": "IRIGOYEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 401, "cod_calle": 9019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.380489", "y": "-34.613056"}, "direccion": "IRIGOYEN, BERNARDO DE 401, CABA", "nombre_calle": "IRIGOYEN, BERNARDO DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5196, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519645", "y": "-34.615857"}, "direccion": "TINOGASTA 5196, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.506623</v>
+        <v>-58.519645</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.635508</v>
+        <v>-34.615857</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -2028,25 +2033,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>S01395394</t>
+          <t>8133</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LLAVALLOL 2126</t>
+          <t>YERBAL 5612</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02282092 </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2061,7 +2066,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2069,14 +2074,14 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2126, "cod_calle": 12161, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490446", "y": "-34.610893"}, "direccion": "LLAVALLOL 2126, CABA", "nombre_calle": "LLAVALLOL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.505213", "y": "-34.637279"}, "direccion": "YERBAL 5612, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.490446</v>
+        <v>-58.505213</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.610893</v>
+        <v>-34.637279</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2092,25 +2097,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>S01405275</t>
+          <t>8134</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/14/2026</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SUAREZ 547</t>
+          <t>ESTADO DE PALESTINA 511</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02340391 </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2125,7 +2130,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2133,21 +2138,85 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 547, "cod_calle": 20118, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361047", "y": "-34.636149"}, "direccion": "SUAREZ 547, CABA", "nombre_calle": "SUAREZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 547, "cod_calle": 20119, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.527314", "y": "-34.645255"}, "direccion": "SUAREZ, JOSE LEON 547, CABA", "nombre_calle": "SUAREZ, JOSE LEON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 511, "cod_calle": 19016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426036", "y": "-34.605725"}, "direccion": "ESTADO DE PALESTINA 511, CABA", "nombre_calle": "ESTADO DE PALESTINA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.361047</v>
+        <v>-58.426036</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.636149</v>
+        <v>-34.605725</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Almagro</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
+        <is>
+          <t>Capital Sur</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>8135</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1/14/2026</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PERON, JUAN DOMINGO, TTE. GENERAL 4010</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">02340534 </t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Optical Power</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>tendido bajo</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>{"direccionesNormalizadas": [{"altura": 4010, "cod_calle": 3050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.422975", "y": "-34.605999"}, "direccion": "PERON, JUAN DOMINGO, TTE. GENERAL 4010, CABA", "nombre_calle": "PERON, JUAN DOMINGO, TTE. GENERAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>-58.422975</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-34.605999</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Almagro</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>Capital Sur</t>
         </is>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,21 +496,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S01357585</t>
+          <t>S00984490</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1/29/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ZELARRAYAN 5900</t>
+          <t>HABANA 2235</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>tendido baja altura</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -537,44 +537,44 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5900, "cod_calle": 27016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.481308", "y": "-34.675726"}, "direccion": "ZELARRAYAN 5900, CABA", "nombre_calle": "ZELARRAYAN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2235, "cod_calle": 8001, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491963", "y": "-34.584559"}, "direccion": "HABANA 2235, CABA", "nombre_calle": "HABANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.481308</v>
+        <v>-58.491963</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.675726</v>
+        <v>-34.584559</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>S00012171</t>
+          <t>S01335725</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1/29/2026</t>
+          <t>1/16/2026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ZAPIOLA 4512</t>
+          <t>TINOGASTA 5196</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -593,7 +593,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cable en panza, cortado</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -601,18 +601,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4512, "cod_calle": 27008, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.478846", "y": "-34.544833"}, "direccion": "ZAPIOLA 4512, CABA", "nombre_calle": "ZAPIOLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 5196, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519645", "y": "-34.615857"}, "direccion": "TINOGASTA 5196, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.478846</v>
+        <v>-58.519645</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.544833</v>
+        <v>-34.615857</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -624,25 +624,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>S01408162</t>
+          <t xml:space="preserve">900009312910 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1/26/2026</t>
+          <t>1/20/2026</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GARAY, JUAN DE AV. 2871</t>
+          <t>BERUTI 2838</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02517380 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cables colgando</t>
+          <t>cables sueltos</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -665,18 +665,18 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2871, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404800", "y": "-34.629021"}, "direccion": "GARAY, JUAN DE AV. 2871, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2838, "cod_calle": 2071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404687", "y": "-34.590840"}, "direccion": "BERUTI 2838, CABA", "nombre_calle": "BERUTI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.4048</v>
+        <v>-58.404687</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.629021</v>
+        <v>-34.59084</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -688,21 +688,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S00957139</t>
+          <t>8190</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NEUQUEN 2670</t>
+          <t>PUEYRREDON, HONORIO, DR. AV. 2057</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -729,44 +729,44 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2670, "cod_calle": 14017, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470728", "y": "-34.620244"}, "direccion": "NEUQUEN 2670, CABA", "nombre_calle": "NEUQUEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2057, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.452676", "y": "-34.599088"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 2057, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.470728</v>
+        <v>-58.452676</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.620244</v>
+        <v>-34.599088</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S01034361</t>
+          <t>8193</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>VALLE 1380</t>
+          <t>UGARTE, MANUEL 3354</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -793,44 +793,44 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1380, "cod_calle": 23007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.447100", "y": "-34.626298"}, "direccion": "VALLE 1380, CABA", "nombre_calle": "VALLE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371607", "y": "-34.635830"}, "direccion": "VALLE, ARISTOBULO DEL 1380, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454048", "y": "-34.616371"}, "direccion": "VALLESE, FELIPE 1380, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3354, "cod_calle": 22020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471508", "y": "-34.561344"}, "direccion": "UGARTE, MANUEL 3354, CABA", "nombre_calle": "UGARTE, MANUEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.4471</v>
+        <v>-58.471508</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.626298</v>
+        <v>-34.561344</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>S01221416</t>
+          <t>8195</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>JUNCAL 1303</t>
+          <t>DONADO 2370</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>cable en panza, suelto</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -857,40 +857,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1303, "cod_calle": 10014, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385838", "y": "-34.592779"}, "direccion": "JUNCAL 1303, CABA", "nombre_calle": "JUNCAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2370, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477236", "y": "-34.570467"}, "direccion": "DONADO 2370, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.385838</v>
+        <v>-58.477236</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.592779</v>
+        <v>-34.570467</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>S01249816</t>
+          <t>8196</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1/23/2026</t>
+          <t>1/22/2026</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MILLER 3936</t>
+          <t>DONADO 2362</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>cable en panza, cable cortado</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -921,18 +921,18 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3936, "cod_calle": 13083, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492138", "y": "-34.557438"}, "direccion": "MILLER 3936, CABA", "nombre_calle": "MILLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2362, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477176", "y": "-34.570527"}, "direccion": "DONADO 2362, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>-58.492138</v>
+        <v>-58.477176</v>
       </c>
       <c r="L8" t="n">
-        <v>-34.557438</v>
+        <v>-34.570527</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Saavedra</t>
+          <t>Colegiales</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>S01285994</t>
+          <t>S01034361</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -954,11 +954,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LA PLATA AV. 2046</t>
+          <t>VALLE 1380</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -985,14 +985,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2046, "cod_calle": 12054, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.423773", "y": "-34.638704"}, "direccion": "LA PLATA AV. 2046, CABA", "nombre_calle": "LA PLATA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1380, "cod_calle": 23007, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.447100", "y": "-34.626298"}, "direccion": "VALLE 1380, CABA", "nombre_calle": "VALLE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 4057, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.371607", "y": "-34.635830"}, "direccion": "VALLE, ARISTOBULO DEL 1380, CABA", "nombre_calle": "VALLE, ARISTOBULO DEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1380, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.454048", "y": "-34.616371"}, "direccion": "VALLESE, FELIPE 1380, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>-58.423773</v>
+        <v>-58.4471</v>
       </c>
       <c r="L9" t="n">
-        <v>-34.638704</v>
+        <v>-34.626298</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>S01389304</t>
+          <t>S01221416</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1018,15 +1018,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>IRIGOYEN 401</t>
+          <t>JUNCAL 1303</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02563937 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>cable en panza, suelto</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1049,30 +1049,30 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 401, "cod_calle": 9018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.506623", "y": "-34.635508"}, "direccion": "IRIGOYEN 401, CABA", "nombre_calle": "IRIGOYEN", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 401, "cod_calle": 9019, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.380489", "y": "-34.613056"}, "direccion": "IRIGOYEN, BERNARDO DE 401, CABA", "nombre_calle": "IRIGOYEN, BERNARDO DE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1303, "cod_calle": 10014, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.385838", "y": "-34.592779"}, "direccion": "JUNCAL 1303, CABA", "nombre_calle": "JUNCAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>-58.506623</v>
+        <v>-58.385838</v>
       </c>
       <c r="L10" t="n">
-        <v>-34.635508</v>
+        <v>-34.592779</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Recoleta</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S01395394</t>
+          <t>S01249816</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1082,15 +1082,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LLAVALLOL 2126</t>
+          <t>MILLER 3936</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02569291 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Cable en panza</t>
+          <t>cable en panza, cable cortado</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1113,18 +1113,18 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2126, "cod_calle": 12161, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490446", "y": "-34.610893"}, "direccion": "LLAVALLOL 2126, CABA", "nombre_calle": "LLAVALLOL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3936, "cod_calle": 13083, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.492138", "y": "-34.557438"}, "direccion": "MILLER 3936, CABA", "nombre_calle": "MILLER", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>-58.490446</v>
+        <v>-58.492138</v>
       </c>
       <c r="L11" t="n">
-        <v>-34.610893</v>
+        <v>-34.557438</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1136,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>S01405275</t>
+          <t>S01395394</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1146,15 +1146,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SUAREZ 547</t>
+          <t>LLAVALLOL 2126</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02569565 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>Cable en panza</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1177,44 +1177,44 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 547, "cod_calle": 20118, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361047", "y": "-34.636149"}, "direccion": "SUAREZ 547, CABA", "nombre_calle": "SUAREZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 547, "cod_calle": 20119, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.527314", "y": "-34.645255"}, "direccion": "SUAREZ, JOSE LEON 547, CABA", "nombre_calle": "SUAREZ, JOSE LEON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2126, "cod_calle": 12161, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490446", "y": "-34.610893"}, "direccion": "LLAVALLOL 2126, CABA", "nombre_calle": "LLAVALLOL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>-58.361047</v>
+        <v>-58.490446</v>
       </c>
       <c r="L12" t="n">
-        <v>-34.636149</v>
+        <v>-34.610893</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8189</t>
+          <t>S01405275</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>1/23/2026</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>JUSTO, JUAN B. AV. 3451</t>
+          <t>SUAREZ 547</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1241,44 +1241,44 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3451, "cod_calle": 10018, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.453653", "y": "-34.601069"}, "direccion": "JUSTO, JUAN B. AV. 3451, CABA", "nombre_calle": "JUSTO, JUAN B. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 547, "cod_calle": 20118, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.361047", "y": "-34.636149"}, "direccion": "SUAREZ 547, CABA", "nombre_calle": "SUAREZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 547, "cod_calle": 20119, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.527314", "y": "-34.645255"}, "direccion": "SUAREZ, JOSE LEON 547, CABA", "nombre_calle": "SUAREZ, JOSE LEON", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>-58.453653</v>
+        <v>-58.361047</v>
       </c>
       <c r="L13" t="n">
-        <v>-34.601069</v>
+        <v>-34.636149</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8190</t>
+          <t>S01408162</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>1/26/2026</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 2057</t>
+          <t>GARAY, JUAN DE AV. 2871</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cables en panza</t>
+          <t>cables colgando</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1305,48 +1305,48 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2057, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.452676", "y": "-34.599088"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 2057, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2871, "cod_calle": 7026, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404800", "y": "-34.629021"}, "direccion": "GARAY, JUAN DE AV. 2871, CABA", "nombre_calle": "GARAY, JUAN DE AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>-58.452676</v>
+        <v>-58.4048</v>
       </c>
       <c r="L14" t="n">
-        <v>-34.599088</v>
+        <v>-34.629021</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8191</t>
+          <t>S00002900</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>2/2/2026</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OLLEROS 2570</t>
+          <t>IBARROLA 7131</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02569988 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1369,48 +1369,48 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2570, "cod_calle": 16022, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.444664", "y": "-34.571930"}, "direccion": "OLLEROS 2570, CABA", "nombre_calle": "OLLEROS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 7131, "cod_calle": 9002, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.526749", "y": "-34.641605"}, "direccion": "IBARROLA 7131, CABA", "nombre_calle": "IBARROLA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>-58.444664</v>
+        <v>-58.526749</v>
       </c>
       <c r="L15" t="n">
-        <v>-34.57193</v>
+        <v>-34.641605</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8193</t>
+          <t>S00023164</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>2/2/2026</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>UGARTE, MANUEL 3354</t>
+          <t>CHORROARIN AV. 1210</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02569878 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1433,14 +1433,14 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3354, "cod_calle": 22020, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471508", "y": "-34.561344"}, "direccion": "UGARTE, MANUEL 3354, CABA", "nombre_calle": "UGARTE, MANUEL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1210, "cod_calle": 3237, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.469632", "y": "-34.582777"}, "direccion": "CHORROARIN AV. 1210, CABA", "nombre_calle": "CHORROARIN AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>-58.471508</v>
+        <v>-58.469632</v>
       </c>
       <c r="L16" t="n">
-        <v>-34.561344</v>
+        <v>-34.582777</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1456,17 +1456,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8195</t>
+          <t>S00035009</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>2/2/2026</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DONADO 2370</t>
+          <t>ESTOMBA 2039</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02569718 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>cable en panza tensor roto</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1497,14 +1497,14 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2370, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477236", "y": "-34.570467"}, "direccion": "DONADO 2370, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2039, "cod_calle": 5093, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.470851", "y": "-34.571193"}, "direccion": "ESTOMBA 2039, CABA", "nombre_calle": "ESTOMBA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>-58.477236</v>
+        <v>-58.470851</v>
       </c>
       <c r="L17" t="n">
-        <v>-34.570467</v>
+        <v>-34.571193</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1520,25 +1520,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8196</t>
+          <t>S00089655</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1/22/2026</t>
+          <t>2/2/2026</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DONADO 2362</t>
+          <t>BAUNESS 967</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02569654 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>Tendido baja altura</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1561,18 +1561,18 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2362, "cod_calle": 4082, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477176", "y": "-34.570527"}, "direccion": "DONADO 2362, CABA", "nombre_calle": "DONADO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 967, "cod_calle": 2035, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.474663", "y": "-34.589296"}, "direccion": "BAUNESS 967, CABA", "nombre_calle": "BAUNESS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>-58.477176</v>
+        <v>-58.474663</v>
       </c>
       <c r="L18" t="n">
-        <v>-34.570527</v>
+        <v>-34.589296</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Colegiales</t>
+          <t>Paternal</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1584,25 +1584,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8164</t>
+          <t>S01282939</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1/21/2026</t>
+          <t>2/2/2026</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>REGIMIENTO DE PATRICIOS AV. 76</t>
+          <t>ESTADOS UNIDOS 2833</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02565176 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1617,8 +1617,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t xml:space="preserve">tendoido bajo
-</t>
+          <t>cable en panza, cortado</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1626,14 +1625,14 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 76, "cod_calle": 17034, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.370501", "y": "-34.630402"}, "direccion": "REGIMIENTO DE PATRICIOS AV. 76, CABA", "nombre_calle": "REGIMIENTO DE PATRICIOS AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2833, "cod_calle": 5087, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.405328", "y": "-34.620274"}, "direccion": "ESTADOS UNIDOS 2833, CABA", "nombre_calle": "ESTADOS UNIDOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-58.370501</v>
+        <v>-58.405328</v>
       </c>
       <c r="L19" t="n">
-        <v>-34.630402</v>
+        <v>-34.620274</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1649,25 +1648,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">900009312910 </t>
+          <t>8275</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1/20/2026</t>
+          <t>2/3/2026</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BERUTI 2838</t>
+          <t>DEFENSA 1734</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02565577 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1682,7 +1681,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cables sueltos</t>
+          <t>TENDIDO BAJO</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1690,18 +1689,18 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2838, "cod_calle": 2071, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.404687", "y": "-34.590840"}, "direccion": "BERUTI 2838, CABA", "nombre_calle": "BERUTI", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1734, "cod_calle": 4016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.370651", "y": "-34.628525"}, "direccion": "DEFENSA 1734, CABA", "nombre_calle": "DEFENSA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>-58.404687</v>
+        <v>-58.370651</v>
       </c>
       <c r="L20" t="n">
-        <v>-34.59084</v>
+        <v>-34.628525</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1713,25 +1712,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6185</t>
+          <t xml:space="preserve">900009445710 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1/19/2026</t>
+          <t>2/3/2026</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>VALLESE, FELIPE 3254</t>
+          <t>UGARTECHE 2802</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02565380 </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1746,7 +1745,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t xml:space="preserve">tendido a baja altura </t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1754,44 +1753,44 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 3254, "cod_calle": 23081, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.477574", "y": "-34.624423"}, "direccion": "VALLESE, FELIPE 3254, CABA", "nombre_calle": "VALLESE, FELIPE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2802, "cod_calle": 22004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414026", "y": "-34.582833"}, "direccion": "UGARTECHE 2802, CABA", "nombre_calle": "UGARTECHE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>-58.477574</v>
+        <v>-58.414026</v>
       </c>
       <c r="L21" t="n">
-        <v>-34.624423</v>
+        <v>-34.582833</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>S00922329</t>
+          <t>S01125088</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>2/4/2026</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 620</t>
+          <t>PALACIOS, ALFREDO L. 1022</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1818,18 +1817,18 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 620, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441834", "y": "-34.612760"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 620, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1022, "cod_calle": 1051, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.364988", "y": "-34.643517"}, "direccion": "PALACIOS, ALFREDO L. 1022, CABA", "nombre_calle": "PALACIOS, ALFREDO L.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>-58.441834</v>
+        <v>-58.364988</v>
       </c>
       <c r="L22" t="n">
-        <v>-34.61276</v>
+        <v>-34.643517</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>San Telmo</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1841,21 +1840,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S00984490</t>
+          <t>S01425089</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>2/4/2026</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HABANA 2235</t>
+          <t>LAMAS, ANDRES 2252</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1882,14 +1881,14 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2235, "cod_calle": 8001, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.491963", "y": "-34.584559"}, "direccion": "HABANA 2235, CABA", "nombre_calle": "HABANA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2252, "cod_calle": 12040, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.471401", "y": "-34.604376"}, "direccion": "LAMAS, ANDRES 2252, CABA", "nombre_calle": "LAMAS, ANDRES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>-58.491963</v>
+        <v>-58.471401</v>
       </c>
       <c r="L23" t="n">
-        <v>-34.584559</v>
+        <v>-34.604376</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1905,21 +1904,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>S01108235</t>
+          <t>S01457723</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>2/4/2026</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PUEYRREDON, HONORIO, DR. AV. 632</t>
+          <t>PICO 2997</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1938,7 +1937,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1946,44 +1945,44 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 632, "cod_calle": 17133, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.441881", "y": "-34.612693"}, "direccion": "PUEYRREDON, HONORIO, DR. AV. 632, CABA", "nombre_calle": "PUEYRREDON, HONORIO, DR. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2997, "cod_calle": 17074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.479820", "y": "-34.542482"}, "direccion": "PICO 2997, CABA", "nombre_calle": "PICO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>-58.441881</v>
+        <v>-58.47982</v>
       </c>
       <c r="L24" t="n">
-        <v>-34.612693</v>
+        <v>-34.542482</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>S01335725</t>
+          <t xml:space="preserve">8192 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1/16/2026</t>
+          <t>2/5/2026</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TINOGASTA 5196</t>
+          <t>PAZ, GRAL. AV. 1228</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2002,7 +2001,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t>cable en panza</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -2010,18 +2009,18 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5196, "cod_calle": 21032, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.519645", "y": "-34.615857"}, "direccion": "TINOGASTA 5196, CABA", "nombre_calle": "TINOGASTA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 1228, "cod_calle": 17041, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.476840", "y": "-34.540030"}, "direccion": "PAZ, GRAL. AV. 1228, CABA", "nombre_calle": "PAZ, GRAL. AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>-58.519645</v>
+        <v>-58.47684</v>
       </c>
       <c r="L25" t="n">
-        <v>-34.615857</v>
+        <v>-34.54003</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2033,25 +2032,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8133</t>
+          <t>8234</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>2/5/2026</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>YERBAL 5612</t>
+          <t>MORENO, JOSE MARIA AV. 852</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">02282092 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2074,48 +2073,48 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 5612, "cod_calle": 26003, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.505213", "y": "-34.637279"}, "direccion": "YERBAL 5612, CABA", "nombre_calle": "YERBAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 852, "cod_calle": 13128, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.433593", "y": "-34.628659"}, "direccion": "MORENO, JOSE MARIA AV. 852, CABA", "nombre_calle": "MORENO, JOSE MARIA AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>-58.505213</v>
+        <v>-58.433593</v>
       </c>
       <c r="L26" t="n">
-        <v>-34.637279</v>
+        <v>-34.628659</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Boedo</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8134</t>
+          <t>8297</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1/14/2026</t>
+          <t>2/6/2026</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ESTADO DE PALESTINA 511</t>
+          <t>MOLIERE 2996</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">02340391 </t>
+          <t>Pendiente ADM</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2138,87 +2137,23 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 511, "cod_calle": 19016, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426036", "y": "-34.605725"}, "direccion": "ESTADO DE PALESTINA 511, CABA", "nombre_calle": "ESTADO DE PALESTINA", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2996, "cod_calle": 13100, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.528615", "y": "-34.614821"}, "direccion": "MOLIERE 2996, CABA", "nombre_calle": "MOLIERE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>-58.426036</v>
+        <v>-58.528615</v>
       </c>
       <c r="L27" t="n">
-        <v>-34.605725</v>
+        <v>-34.614821</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Almagro</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>8135</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1/14/2026</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>PERON, JUAN DOMINGO, TTE. GENERAL 4010</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>5</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">02340534 </t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Optical Power</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>tendido bajo</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4010, "cod_calle": 3050, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.422975", "y": "-34.605999"}, "direccion": "PERON, JUAN DOMINGO, TTE. GENERAL 4010, CABA", "nombre_calle": "PERON, JUAN DOMINGO, TTE. GENERAL", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>-58.422975</v>
-      </c>
-      <c r="L28" t="n">
-        <v>-34.605999</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Almagro</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>

--- a/mapa_interactivo_Optical_Power.xlsx
+++ b/mapa_interactivo_Optical_Power.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,25 +508,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S00090624</t>
+          <t xml:space="preserve">900009445710 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/19/2026</t>
+          <t>2/3/2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LOZANO, PEDRO 4111</t>
+          <t>UGARTECHE 2802</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02565380 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>cables en panza</t>
+          <t xml:space="preserve">tendido a baja altura </t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -549,48 +549,48 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 4111, "cod_calle": 12146, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.505328", "y": "-34.607380"}, "direccion": "LOZANO, PEDRO 4111, CABA", "nombre_calle": "LOZANO, PEDRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2802, "cod_calle": 22004, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.414026", "y": "-34.582833"}, "direccion": "UGARTECHE 2802, CABA", "nombre_calle": "UGARTECHE", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>-58.505328</v>
+        <v>-58.414026</v>
       </c>
       <c r="L2" t="n">
-        <v>-34.60738</v>
+        <v>-34.582833</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Devoto</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Capital Norte</t>
+          <t>Capital Sur</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8359</t>
+          <t>8289</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2/18/2026</t>
+          <t>2/10/2026</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ASUNCION 2387</t>
+          <t>DEL LIBERTADOR AV. 6422</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t xml:space="preserve">02915091 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>tendido bajo</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -613,18 +613,18 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2387, "cod_calle": 1131, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.490988", "y": "-34.588374"}, "direccion": "ASUNCION 2387, CABA", "nombre_calle": "ASUNCION", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 6422, "cod_calle": 12107, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.451142", "y": "-34.552869"}, "direccion": "DEL LIBERTADOR AV. 6422, CABA", "nombre_calle": "DEL LIBERTADOR AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-58.490988</v>
+        <v>-58.451142</v>
       </c>
       <c r="L3" t="n">
-        <v>-34.588374</v>
+        <v>-34.552869</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -636,21 +636,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8361</t>
+          <t xml:space="preserve">8343 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2/18/2026</t>
+          <t>2/11/2026</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MORAN, PEDRO 2279</t>
+          <t>MONTAÑESES 2026</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>cable en panza</t>
+          <t>tendido a baja altura</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -677,18 +677,18 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2279, "cod_calle": 13123, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.489210", "y": "-34.588349"}, "direccion": "MORAN, PEDRO 2279, CABA", "nombre_calle": "MORAN, PEDRO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 2026, "cod_calle": 13110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448324", "y": "-34.558130"}, "direccion": "MONTAÑESES 2026, CABA", "nombre_calle": "MONTAÑESES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-58.48921</v>
+        <v>-58.448324</v>
       </c>
       <c r="L4" t="n">
-        <v>-34.588349</v>
+        <v>-34.55813</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Paternal</t>
+          <t>Saavedra</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -700,21 +700,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S00039038</t>
+          <t>8351</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2/12/2026</t>
+          <t>2/11/2026</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MUÑIZ 848</t>
+          <t>DESAGUADERO 4045</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -733,7 +733,8 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>tendido bajo</t>
+          <t xml:space="preserve">cable en panza
+</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -741,48 +742,48 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 848, "cod_calle": 13142, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.426108", "y": "-34.624202"}, "direccion": "MUÑIZ 848, CABA", "nombre_calle": "MUÑIZ", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 4045, "cod_calle": 4066, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.521590", "y": "-34.605767"}, "direccion": "DESAGUADERO 4045, CABA", "nombre_calle": "DESAGUADERO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-58.426108</v>
+        <v>-58.52159</v>
       </c>
       <c r="L5" t="n">
-        <v>-34.624202</v>
+        <v>-34.605767</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Boedo</t>
+          <t>Devoto</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Capital Sur</t>
+          <t>Capital Norte</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">900009545310 </t>
+          <t>S00099209</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2/12/2026</t>
+          <t>2/11/2026</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SARMIENTO 1185</t>
+          <t>COMBATE DE LOS POZOS 825</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pendiente ADM</t>
+          <t>02908095</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +798,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>tendido muy bajo urgente</t>
+          <t>cables en panza, cortados</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -805,14 +806,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 1185, "cod_calle": 20074, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.383401", "y": "-34.605056"}, "direccion": "SARMIENTO 1185, CABA", "nombre_calle": "SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}, {"altura": 1185, "cod_calle": 6049, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.455268", "y": "-34.611139"}, "direccion": "FRAGATA PRES. SARMIENTO 1185, CABA", "nombre_calle": "FRAGATA PRES. SARMIENTO", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 825, "cod_calle": 3150, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.393259", "y": "-34.618665"}, "direccion": "COMBATE DE LOS POZOS 825, CABA", "nombre_calle": "COMBATE DE LOS POZOS", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-58.383401</v>
+        <v>-58.393259</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.605056</v>
+        <v>-34.618665</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -828,7 +829,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">8343 </t>
+          <t>S01214806</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -838,11 +839,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MONTAÑESES 2026</t>
+          <t>BEIRO, FRANCISCO AV. 3470</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -861,7 +862,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>tendido a baja altura</t>
+          <t>cable en panza, cortado</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -869,18 +870,18 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{"direccionesNormalizadas": [{"altura": 2026, "cod_calle": 13110, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.448324", "y": "-34.558130"}, "direccion": "MONTAÑESES 2026, CABA", "nombre_calle": "MONTAÑESES", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
+          <t>{"direccionesNormalizadas": [{"altura": 3470, "cod_calle": 2045, "cod_calle_cruce": null, "cod_partido": "caba", "coordenadas": {"srid": 4326, "x": "-58.501710", "y": "-34.599693"}, "direccion": "BEIRO, FRANCISCO AV. 3470, CABA", "nombre_calle": "BEIRO, FRANCISCO AV.", "nombre_calle_cruce": "", "nombre_localidad": "CABA", "nombre_partido": "CABA", "tipo": "calle_altura"}]}</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>-58.448324</v>
+        <v>-58.50171</v>
       </c>
       <c r="L7" t="n">
-        <v>-34.55813</v>
+        <v>-34.599693</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>